--- a/output/Total_time_range_data/西藏自治区/拉萨市_学习考察.xlsx
+++ b/output/Total_time_range_data/西藏自治区/拉萨市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2430 +436,2660 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>259</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>招大引强量质齐升拉萨市堆龙德庆区招商引资工作取得明显成效</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-12-12</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/202312/a6559389e95742fdb40a4be435498b01.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['招大引强 量质齐升—拉萨市堆龙德庆区招商引资工作取得明显成效_拉萨要闻_拉萨市人民政府', '西藏日报（记者拉巴桑姆）近年来，我区持续优化营商环境，出台支持政策、加大招商引资力度、优化营商环境，为经济发展蓄势聚力，雪域高原正成为投资兴业的热土。2023年，拉萨市堆龙德庆区深入实施大招商、招大商行动，不断强化项目意识、服务意识和创新意识，整合招商资源，拓展招商渠道，改进招商方式，细化招商服务，招大引强、量质齐升，稳步推进招商引资工作，为经济高质量发展打下坚实基础。', '近年来，我区持续优化营商环境，出台支持政策、加大招商引资力度、优化营商环境，为经济发展蓄势聚力，雪域高原正成为投资兴业的热土。2023年，拉萨市堆龙德庆区深入实施大招商、招大商行动，不断强化项目意识、服务意识和创新意识，整合招商资源，拓展招商渠道，改进招商方式，细化招商服务，招大引强、量质齐升，稳步推进招商引资工作，为经济高质量发展打下坚实基础。', '精准高效服务，助企创新发展。堆龙德庆区经信局始终把服务企业作为主职主责，坚持以企业需求为导向，以企业满意为标准，完善服务企业体制机制，把服务落到实处，努力营造有利于实体经济高质量发展的营商环境。安排专人紧紧跟进落地项目，建立招商引资库，形成招商引资项目日日跟进，日日有记录，及时组织项目联席会，解决项目落地堵点难点，截至目前，进入招商引资库项目34个，专班跟进项目11个。', '完善招商政策，优化营商环境。及时更新招商引资优惠政策，完善招商引资优惠政策，最大限度为投资商降低“门槛”，举办银企对接会、助企惠企政策培训会，用最优惠的政策来体现堆龙德庆区进一步改善投资软环境的决心和力度，为堆龙德庆区经济发展注入更多新鲜血液。', '主动靠前服务，破解招工难题。为帮助企业解决用工困难，堆龙德庆区招商局主动作为，靠前服务，收集统计项目单位的用工需求，真正为企业办实事解难事。开展“重点企业人力资源服务活动”，主动了解西藏九鑫生物科技有限公司、西藏易速实业有限公司在用工、服务等方面的需求，针对性地与区人社局、区退役军人事务局对接并组织招聘，切实为招商引资企业提供人力资源服务，当好企业满意的“服务员”。', '堆龙德庆区认真落实“投资落实年”各项工作，以招商引资为牵引增强经济发展能力，锚定既定目标，不断创新方式精准招商、广泛对接招引项目、全程保障服务落地，努力实现全年招商引资“加速跑”。', '增加“走出去”频次。开展实战化比拼，推动形成招商引资链条效应。从被动型“坐地招商”向主动型“敲门招商”转变。瞄准大项目、好项目、新项目，加大“走出去、请进来”力度，截至目前，共计开展招商引资活动60次，其中“走出去”5次，“请进来”55次，先后前往四川省成都市、重庆市、山东省开展招商引资活动，同区外30家知名企业考察学习、座谈交流，寻求合作之机、共谋发展之策。经过多轮接洽，与6家企业签订了投资协议，涉及资金7.5亿元，涵盖仓储物流、生物科技、清洁能源等领域。', '加大“请进来”力度。瞄准文化旅游、绿色工业等领域龙头企业，邀请企业实地考察，积极促成落地，助力实现合作共赢。通过线上线下共对接企业55家、洽谈项目80余次、接待客商350余人。', '落实“大招商”成效。借力雪顿节、藏博会等重大活动落实招商成效。雪顿节签约项目4个，总投资预计4.4亿元，藏博会签约项目4个，总投资预计7.62亿元。协助西藏领峰智慧物流园有限公司、西藏金聚地实业有限公司2家企业申报招商引资项目扶持资金，分别为兑现奖励资金242.89万元、11.5万元。借助援藏“双招双引”为高质量发展注入新活力，进一步营造尊商亲商、聚商活商和引才聚才、尊才爱才的良好环境，全力支持广大企业家投资兴业。签约援藏招商引资项目1个，协议资金1.6亿元。', '助力“集聚化”发展。以厂房招商作为招商引资、筑巢引凤的强有力支撑。按照“企业集中、产业集聚、用地集约”的工作思路，加快推进标准化厂房建设，推动产业加速聚集，助力经济高质量发展。结合《标准化厂房重点招商引资企业租金补贴方案》，充分发挥标准化厂房要素支撑作用，鼓励重点招商引资企业入驻标准化厂房，加快推进西藏海龟制氧机装备产业基地项目、西藏满婷日化厂建设项目等入驻项目建成投产。', '提升“专业化”水平。牢固树立“市场化+专业化”招商思维，强化链式招商、驻点招商、协会招商、节会招商、以商招商等方式，构建全方位、多层次招商格局，通过政府采购委托第三方专业团队开展招商工作。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>259</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>我市考察组赴雅安市考察学习文旅产业融合发展陈静率队</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-06-03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/ldhd/202406/fb59aa6e98014934bd5795dbd971a3da.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['拉萨融媒讯（记者郝奕凝、张瑞）为学习借鉴四川省文旅产业融合发展先进经验，进一步拓宽眼界、创新思路，落实雅安市党政代表团在拉的两地座谈会精神，6月1日至2日，市委副书记、常务副市长陈静率队到四川省雅安市考察学习文旅产业融合发展。', '雅安市副市长郑胡勇，雅安市委宣传部、市发展改革委、市交通运输局等部门相关负责人陪同考察。', '我市考察组一行先后来到蒙顶山国家茶叶公园、蒙顶山茶博物馆、中国大熊猫保护研究中心雅安碧峰峡基地、318·川藏线零公里自驾游大本营等地，就旅游公共服务设施提升、文旅业态更新、旅游要素汇聚、旅游品牌打造、发展夜间经济、宣传推介方式创新等文旅产业高质量融合发展情况进行考察，深入了解雅安市文化、历史和旅游资源，梳理总结当地发展文旅产业的经验做法，并就文旅产业融合发展工作与雅安市进行座谈交流，共商合作之策。', '座谈会上，雅安市相关领导及文旅企业负责人从景区景点打造、文创产品开发、特色产业发展、交通设施建设等方面介绍了雅安文旅融合发展成果。陈静感谢雅安市热情周到的接待，他表示318·川藏线雅安是起点、拉萨是终点，两地交往交流交融源远流长、亲如一家，雅安在文旅产业发展上率先突破、先行一步，雅安是拉萨发展文旅的重要客源集散地，拉萨要持续加强同雅安市的沟通交流合作，树立两地一体化思想，推动景区景点、酒店餐饮、文创产品等各方面的深入合作，共同发展318联盟，促进拉萨文旅体深度融合发展；要创新思维，整合利用拉萨、雅安两地旅游政策，充分挖掘沿线资源，着力打造318品牌，助推两地发展旅游经济；要加强基础设施建设，在供给侧发力，增强服务意识，提高服务品质，努力提升游客满意度；相关部门要积极主动与雅安市相应单位沟通衔接，在机制共建、规划共谋、产业共推、文旅共宣等方面真抓实干，推动此次考察成果落地落实、见行见效；要牢固树立“旅游 ”“ 旅游”理念，凸显拉萨旅游符号，雕塑拉萨城市形象，助推文旅产业高质量发展。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>259</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>拉萨市妇联机关党支部举办主题党日活动</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-01-30</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/shwx/202401/905ea47f34fa44129260216a1d32d3d3.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['西藏日报（记者央金）为深入贯彻落实党的二十大精神，引导党员干部共绘民族团结“同心圆”，推动主题教育走深走实。近日，拉萨市妇联机关党支部组织党员干部前往拉萨市构筑中华民族共有精神家园实践基地之西藏城发莲华之宝文化发展有限公司，开展“同心向党铸牢中华民族共同体意识”主题党日活动。', '所有党员考察学习了产教融合示范基地、中华陶瓷工艺美术交流馆、中华藏瓷展区、党建展览区等，大家深受震撼，纷纷表示，在今后的工作生活中，将以铸牢中华民族共同体意识为主线，牢固树立正确的国家观、历史观、民族观、文化观、宗教观，充分发挥党员先锋模范作用，向周围的人宣传党的好政策和拉萨取得的巨大成就，进一步铸牢中华民族共同体意识。', '此外，拉萨市妇联与西藏城发莲华之宝文化发展有限公司就2024年如何共同开展好“两新”组织妇委会工作、挂牌巾帼美育实践基地和妇女创业就业等相关工作达成了初步共识。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>259</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>首届江苏拉萨周暨第四届南京墨竹周拉萨南京新闻发布会</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/xwfbh/202312/1d6028f7ad364c56bb4cfac750e1ec13.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['2023首届江苏拉萨周暨第四届南京墨竹周（拉萨·南京）新闻发布会_新闻发布会_拉萨市人民政府', '江苏、拉萨两地新闻界的朋友们，大家上午好！首先，我代表拉萨市委、市政府、江苏援藏前方指挥部，向大家的到来表示热烈的欢迎和衷心的感谢！', '1994年，江苏建立对口支援西藏拉萨工作机制，至今已有二十九年。江苏坚决贯彻党中央决策部署，发力产业', '“世界屋脊”，和拉萨干部群众并肩奋斗，在推动拉萨实现跨越发展和长治久安的征程中，书写走在全国前列、富有江苏特点的绚丽篇章。今年8月，省委信长星书记率江苏省党政代表团到西藏学习考察，召开苏藏两省区座谈会，共商对口支援大计，互访交流成果丰硕。', '为了全方位宣传展示新时代拉萨城市发展面貌和江苏援藏工作成效，扩展升级两地战略协作、推动苏拉两地人民交往交流交融，不断巩固深化', '“苏拉一家亲”新时代山海情，拉萨市政府和江苏援藏指挥部决定在连续举办三届“南京墨竹周”的基础上，升级打造“2023 首届江苏拉萨周暨第四届南京墨竹周”活动，12月21-27日在江苏展开。', '“茉莉格桑共芬芳”为主题，是首次由拉萨市政府、江苏援藏前方指挥部牵头，在江苏举办的拉萨主题活动。筹备过程中，苏拉两地领导同志高度重视，江苏援藏指挥部、拉萨市和江苏省有关部门单位精心策划活动安排。今年除在南京开展拉萨周主题活动以及同期举办“南京墨竹周”外，还将在苏州、镇江、泰州举办系列活动。届时，拉萨党政代表团将访问江苏，拉萨优质企业、特色产品及拉萨市文艺团队、拉萨市非遗产品和非遗文化传承人等，将在江苏精彩亮相，向江苏人民宣传展示拉萨悠久厚重的历史文化、独具特色的旅游资源、日新月异的发展成就，以及江苏援藏工作取得的成果。', '12月21日，在江苏荔枝大剧院举办开幕晚会，正式拉开“江苏拉萨周”的帷幕，通过汇聚两地文化节目的精彩演出，展现一个充满魅力的拉萨，讲述拉萨故事、援藏故事。', '12月22日，在南京市西康宾馆召开招商推介会，展示推介拉萨市的投资环境、招商政策、特色产业、文旅资源、农特产品。', '12月22-27日，举办“江苏援藏成果暨记录拉萨”摄影图片展，展示拉萨的历史文化、自然风光、发展成就和江苏援藏成果。', '12月23日，在南京玄武湖公园、新街口正洪广场、河西万达广场欢乐上演快闪秀，举行拉萨歌舞、服装快闪活动，营造', '12月23-24日，在南京市环宇城室外广场组织篝火音乐节，通过大型电子篝火、场景化的布置和专业歌手', '12月24日，非遗民俗展演将拉开帷幕，通过江苏、拉萨非遗民俗文化产品展览以及非遗文化传承人演示和讲解，展示两地非遗文化传承与发展。', '12月24-26日，在南京、苏州、镇江、泰州四地同时开展西藏(拉萨)电影节活动，邀请江苏观众免费观影，宣传推广西藏拉萨特色文化。', '12月25-26日，在南京市鼓楼、秦淮、玄武、建邺4个区举办拉萨文化进社区活动，带着藏族服饰、民族器物、特色小吃走进社区，让更多百姓深入感受拉萨特色文化。', '·梦》将在苏州湾大剧院精彩上演；12月23日，在南京图书馆举办儿童长篇小说《会发光的声音》新书发布会，与小读者代表现场分享阅读体会。', '茉莉格桑共芬芳、苏拉两地情绵长！我相信，江苏拉萨周这场精彩的盛宴，将丰富江苏民众的文化体验，把', '“阳光之城”拉萨呈现给大家，给大家带来不一样的拉萨印象，同时也将有力促进两地的交往交流交融，助推经济社会携手并进高质量发展。', '“2023首届江苏拉萨周暨第四届南京墨竹周”活动，看一看拉萨的发展劲头，品一品苏拉两地的深厚情谊！在此，感谢媒体朋友们对拉萨发展和江苏援藏工作的关心支持，希望大家广泛宣传报道本次江苏拉萨周活动，谢谢大家！', '文化的交往交流交融是铸牢中华民族共同体意识，促进各族群众人心归聚、精神相依的强大纽带，是中华民族拥有强大文化自信的重要源泉，江苏和拉萨虽远隔万水千山，但亲如一家、情同手足，两地文化各具特色，都是中华文化有机组成部分。', '本次江苏拉萨周当中文化的交流展示活动是重头戏。开幕演出精彩纷呈，汇集苏拉两地优秀传统文化，两地文艺工作者同台献艺，非物质文化遗产藏戏、六弦琴、昆曲、古筝融合上演。此外，我们还将组织丰富多彩的文化推广体验活动，包括摄影图片展、拉萨好物市集、篝火音乐节、非遗民俗展演、西藏', '(拉萨)电影节、藏服快闪秀、文化进社区、新书发布会等，让拉萨特色文化走进市民群众身边，吸引百姓观赏、体验、互动，深入感受拉萨特色文化的魅力，进一步加深了解、增进', '近年来，我们深入学习贯彻习近平总书记关于西藏工作的重要指示精神，坚持以铸牢中华民族共同体意识为主线，苏拉两地携手加强文化交往交流交融，在援藏项目中专门设立文化交流互鉴项目，组织两地文化文艺人才相互交流切磋，开展一系列创新性的活动。组织特色歌舞演出《拉萨情》在江苏巡演引发强烈共情，创作原创音乐剧《天梦》展现新时代团结奋进，创新拉萨藏历新年晚会首次走出拉萨在江苏制作播出，组织雨花英烈事迹与精神红色主题展览走上高原，等等。通过这些探索实践，有力增强了两地的交融互动、心灵相亲，进一步弘扬了民族团结进步、铸牢中华民族共同体意识的主旋律。', '下一步，我们将充分发挥江苏人才优势和拉萨文化特色优势，持续在促进两地文化交往交流交融上下功夫，加强挖掘、展示、利用，为中华文化创新发展作出新的更大贡献。', '“文化搭台、经贸唱戏”，我们将在南京举办招商推介会、项目对接会和产品展销活动，宣传推介拉萨招商政策30条、百余款拉萨好物和A级以上旅游资源，让社会各界了解拉萨市的重点产业、重大项目、资源禀赋和营商环境，把拉萨历史文化“名城”、资源禀赋“富城”、青藏高原“净城”、改革开放“新城”的名片擦得更亮。', '今年以来，江苏援藏指挥部把产业援藏作为重中之重，精准定位西藏自治区和拉萨市的资源特点、产业基础和发展方向，通过', '我们把高原特色产业与对外招商引资紧密结合起来，在出台政策、精准招商、项目落地上下功夫，创新项目专班跟进、挂钩联系、并联审批', '55个援藏项目更加突出产业和民生领域，达孜高原生态旅游、墨竹小菜籽油等一批产业项目形成品牌，带动当地群众就业致富；另一方面，推动招商项目落地建设，投资10亿元的重大产业项目洋河集团朗热酒村开工建设，延长拉萨青稞加工产业链、做精做细酿酒产业链、培育培优文旅产业链，今年主体工程出正负零，明年投产后将贡献超10亿元年产值，带动1000余名农牧民增收致富；红星美凯龙集团走向产业上游，拟投资整合小散乱作坊，建设藏文化家居产业园。', '我们在向四个县区派驻援藏干部外，向拉萨经开区、高新区、文创园区等国家级园区派驻分管经济工作的援藏干部，形成定期会商、信息共享、板块联动的工作机制，推动出台数字经济、跨境电商、外资外贸、藏文化艺术等一批产业政策。墨竹格桑花开产业园、林周格桑塘农牧产业园等援助园区引育企业', '30余家、吸纳就业2800余人，曲水雅江工业园厂房成为标准化厂房标杆，南京江宁开发区与拉萨经开区探索东西部经济开发区合作新模式。', '“南京墨竹周”是从2019年开始举办的，本次“南京墨竹周”已是第四届，通过历届的成功举办，南京墨竹周已经成为两地交往、交流、交融的重要平台，成为新时期“融合式”援藏的重要品牌。', '第四届南京墨竹周相较于前三届，活动内容会更加丰富，表现形式会更加多样。首先，墨竹周作为首届', '“江苏拉萨周”的子单元，将全面参与拉萨周的全部活动。其次，为延续、巩固前三届南京墨竹周成果，还设置了9项富有墨竹特色的专项活动，包括分净土产品年货节、嘉年华文艺汇演及非遗展演、藏式生活馆开馆、招商引资恳谈会、“南京万人墨竹探亲游”推介、“墨竹农牧民群众看南京”、大学生就业创业特训营、党政干部能力提升培训、考察学习等。', '18家富有特色性和代表性的企业及合作社参展，这是墨竹工卡县特色产业和文化区外展示展销的新尝试。同时，还将在华东最大的农副产品交易中心——江宁众彩基地举办藏式生活馆开馆和招商引资恳谈会、农副产品认购会，会上将进行墨竹小菜籽油等特色产品系列推介、营销活动，助推群众增收和特色农业品牌打造。', '在南京荔枝大剧院、中海广场、鼓楼区望鲸广场、江宁区众彩会展中心安排的嘉年华文化汇演及非遗展演、墨竹探亲游推介等系列文化活动，参与人数较多，', '、企事业单位和社会各界的资源和力量，在文化旅游、产业发展、就业创业、人才培养、消费帮扶、医疗教育、', '“冬游西藏”政策，到明年3月15日前，除寺庙类景区外，所有A级景区都是免票入园，比如平时一票难求的布达拉宫，只需预约即可免费参观。此外，拉萨三星以上宾馆（饭店）及国际品牌、精品酒店和入藏航空、旅游运输企业均执行淡季价格，应该说是非常优质、超值的旅游体验。', '“圣洁拉萨”数字旅游卡，持卡可免费游玩著名的纳木措、思金拉措、世界文化遗产罗布林卡和康玛温泉等8个景区，门票单价总额1000元，此卡仅售499元，方便实惠、冬夏皆宜。为了回馈江苏人民的无私援助与支持，作为这次活动独特的邀请方式，我们为江苏游客带来了这张卡，幸运的游客在参加拉萨周的一系列活动时可获免费赠送。计划多人同行的游客，如需购买“圣洁拉萨”数字旅游卡，还会获得拉萨市旅游发展局提供的100元立减补贴和西藏银联提供的文旅消费券130元，也就是仅需399元即可享受1130元的旅游体验，可以说是非常的实惠。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>259</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>增民生福祉强项目引擎拉萨市净土经济发展速写</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-12-19</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/shwx/202312/386cddaf99a047e8b34deb7fc1e73566.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['西藏日报（记者卢文静 裴聪）基于我区水、土壤、空气、人文环境“四不污染”的地域优势，2013年，拉萨市立足促进经济社会健康发展、保护好“世界上最后一方净土”的发展定位，首度提出发展“净土健康产业”，全力打造“拉萨净土”区域公用品牌。', '基于我区水、土壤、空气、人文环境“四不污染”的地域优势，2013年，拉萨市立足促进经济社会健康发展、保护好“世界上最后一方净土”的发展定位，首度提出发展“净土健康产业”，全力打造“拉萨净土”区域公用品牌。', '自组建以来，拉萨市净土产业投资开发集团有限公司（以下简称“拉萨净土集团”）紧紧围绕拉萨市委、市政府关于“青稞、牦牛、藏鸡、天然饮用水”等净土健康主导产业规划，结合集团“民生保障、商贸流通、净土投资”三大主营业务和“农业投资、商贸流通、特色产品、民生保供、医药健康”五大事业板块，着力推进一、二、三产业融合发展，打造“从田间到餐桌”的完整产业链条。2023年，拉萨净土集团作为龙头企业对内稳定市场、保障民生，实现农畜产品以销定产；对外开拓市场、打通渠道，实现抱团发力，统一品牌走出去，呈现出重大项目建设稳步推动、销售渠道建设稳步向前、民生保障供应工作持续向好、带动农牧民增收稳定有力的大好局面。', '近日，走进拉萨市八一农贸市场，记者看到，改造后的市场宽敞明亮，摊位布局更加合理，同时设置了产品分类指示牌，明确产品销售区域。八一农贸市场创新运用互联网技术，采用溯源系统、配备农残检测仪，保障食品安全。舒适的购物环境、规划齐整的摊位、智慧公示大屏等一系列硬件设施，让群众的“菜篮子”拎出获得感、幸福感、安全感。', '八一农贸市场的升级改造，是拉萨市净土健康产业稳步发展的一个缩影。2023年，拉萨市净土集团以项目为抓手、以特色为支撑、以市场为导向，稳步推动重大项目建设，厚植净土产业发展基础。升级改造藏鸡场，养殖规模增加至5.1万羽，年产蛋量约170万枚；合作组建西藏大昭福饼青稞食品有限公司，生产加工青稞制品；建设投产运营集仓储、分拣、检测、加工、配送为一体的面积约2万平方米的保障供应基地……', '拉萨净土集团还以特色为支撑，通过加强与北京食科院等科研单位合作，不断提升拉萨净土产品品质，培育出了壹捧藜麦、多谷乐、大昭福饼等17个优质产品，打造优质净土健康产品，并推动其中比较成熟、有影响力的产品、土特产向标准品类迈进，如藏鸡蛋向中高端鸡蛋细分领域突破，青稞转化为营养早餐、饼干和多谷乐。', '在多年的发展中，拉萨市净土健康产业已经形成了青稞、牦牛、藏鸡、藏香、藏毯、天然饮用水、高原奶业、藏中药业、旅游业等产业融合发展的局面，开发了一批高原有机健康食品、高原有机生命产品、高原保健药材等净土产品。', '但是，如何进一步拓宽销售渠道，在“买难”“卖难”间架起桥梁，打破产品销售壁垒？拉萨净土集团多措并举，探索出了一系列优质、高效、可持续发展的销售新路子。', '积极推进净土新产品研发工作。为切实提高企业自主创新、自主研发和市场竞争能力，拉萨净土集团旗下产品展销公司结合自身资源优势，将西藏特色产品藏香鸡、牦牛肉、松茸结合贵州辣椒，研发了藏香鸡青椒酱、松茸糟辣椒酱、牦牛肉糟辣椒酱等10款新品，并结合市场情况针对新品制订了配套销售方案，确保新产品“产得出来，销得出去”。集团公司旗下藜米公司前往山西、青海两地，围绕藜麦产品深加工事宜进行考察学习，对西藏藜麦产业存在的产品类型单一、深加工研发不足问题进行了摸索。', '做好线上线下市场拓展。2023年前第三季度，拉萨净土集团旗下产品展销公司销售乳制品、藜麦、牛肉干等50余种消费扶贫产品，总计销售2750.64万元。运用832平台、抖音等新媒体线上销售平台开展线上销售，实现线上销售额568.98万元。', '与此同时，拉萨净土集团还通过参加“中华老字号”“香港国际美食博览会”“南京老字号”等活动，“走出去”开展品牌宣传工作，提升“拉萨净土”品牌在区外的影响力，并荣获2023年中华品牌商标博览会金奖，为推动拉萨净土产品在区外市场渠道拓展工作奠定基础。', '从谋划建设之初，拉萨市就将净土健康产业定位为生态惠民、生态利民、生态为民工程，致力于实现显著的经济效益、良好的生态效益、广泛的社会效益和巨大的政治效益。', '近年来，拉萨净土集团按照“公司+基地+农户”的模式订单收购，以产业带动扶贫，实现农牧民增收、公司盈利、产业持续发展。积极引导农牧民参与到绿色发展和产业发展中，建立利益联结机制，让农牧民共享产业发展红利，成为促进农牧民增收致富、共享发展成果的一个缩影。', '2023年，拉萨净土集团认真贯彻落实自治区党委和拉萨市委、市政府关于农牧民增收工作的要求，紧紧围绕实施乡村振兴战略重大决策部署，精心部署，强化举措，依托牦牛产业、藏鸡产业，通过消费扶贫和基建项目等，以“订单农业”“项目带动”等为抓手，不断加大产业、项目、岗位带动农牧民增收致富能力，扎实开展农牧民增收工作，完成全年目标任务的103.4％，切实实现了把盎然生机变成百姓生计，发挥出生态惠民、生态利民、生态为民的作用。', '下一步，拉萨净土集团将聚焦“四个走在前列”和拉萨市“强中心”战略，持续探索推动全产业链发展模式，补短板、强经营、谋发展，锐意进取，攻坚克难，发挥强经济国企主力军作用和龙头企业引领作用，奋力开创拉萨净土健康产业高质量发展新局面。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>259</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>市委常委会召开扩大会议</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/ldhd/202310/d4338d4e953944488aed52551e0f5692.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['拉萨融媒讯（记者：次珍）受市委常委会委托，10月20日上午，市委副书记、市长王强主持召开市委常委会（扩大）会议，传达学习习近平总书记近期重要讲话、指示、贺信精神，王君正书记近期相关讲话、批示精神，研究我市贯彻意见；听取我市赴林芝、昌都、日喀则、山南考察学习乡村振兴工作情况；研究部署我市关于建设更高水平开放型经济新体制和深化集体林权制度改革工作；研究关于支持拉萨高新技术产业开发区高质量发展等相关事宜。', '会议指出，10月7日召开的全国宣传思想文化工作会议首次提出了习近平文化思想，充分反映我们党对社会主义文化建设规律达到了新高度，深刻表明我们党的历史自信、文化自信达到了新高度。全市各级各部门要深入学习领会，坚决贯彻落实。要深刻领会内涵实质，结合正在开展的主题教育，持续加强对习近平文化思想和总书记重要指示精神的学习、研究、阐释。要持续壮大主流舆论，进一步丰富方式手段、创新形态话语，坚决守牢意识形态阵地，不断提高舆论引导水平。要繁荣发展事业产业，持续加强文艺精品创作生产，全面提升历史文化名城保护利用水平，有力有序推动文旅深度融合发展。要加强改进特色外宣，持续加强媒体外宣平台建设，用好用活上级主流媒体来拉萨采访成果，解放思想、开拓创新，讲好拉萨故事、传播拉萨声音、展示拉萨形象。', '会议强调，习近平总书记在江西考察时的系列重要讲话，为我们做好相关工作指明了前进方向、提供了根本遵循。要持之以恒推进区域协调发展、产业发展、农业农村现代化及生态环境保护，积极服务融入全区“一核一圈两带三区”建设，推动城乡综合协调发展；要加快传统产业改造升级和战略性新兴产业发展壮大，构建具有拉萨特色、比较优势的现代化产业体系；要深入学习“千万工程”经验，系统研究部署各区县推进农业农村现代化举措，加快推进乡村振兴；要加强生态环境综合治理，协同推进降碳、减污、扩绿、增长，努力当好创建国家生态文明高地排头兵。', '会议强调，要深入学习贯彻习近平总书记在第三届“一带一路”国际合作高峰论坛开幕式上的重要讲话和致第五届中俄能源商务论坛的重要贺信，积极融入共建“一带一路”，主动服务八项行动，加快综合交通、清洁能源、信息技术、经贸合作、人文交流等领域对外开放合作，努力以高水平开放促进高质量发展。', '会议强调，要用好用活中央特殊优惠政策和综合保税区、中尼友谊工业园，在市场准入、要素流动、制度型开放等方面大胆探索，加快推进国家物流枢纽节点城市、跨境电子商务综合试验区建设，推动拉萨对外开放迈上新台阶。要积极稳妥推进集体林权制度改革8项主要任务，持之以恒实施好南北山绿化工程，加快论证出台《南北山封山育林条例》，有力有序做好拉萨国有林场组建工作。', '会议强调，要强化目标导向，聚焦年初既定目标任务，对标找差、扬长补短；要强化项目支撑，紧盯投资完成率、按期竣工率，加强跟踪服务保障、要素保障和重点项目业务培训力度，科学精准谋划明年一批重大项目；要强化消费拉动，延伸放大“冬游西藏”经济效应，切实让市场活起来、消费热起来；要加强督查调度，压实工作责任，提前谋划明年的投资预算和重点项目计划，清单式、具体化把项目建设抓实抓好、抓出成效。', '会议强调，要认真学习领会、贯彻落实王君正书记近期相关讲话、批示精神，切实做足迎检迎考准备，压实责任、强化统筹，精心组织我市的年度综合考核工作；要持续做好文物保护工作，统筹做好文物文化遗产的挖掘整理和研究阐释，持续抓好古城保护，全面提升文物活化利用水平；要抓好哲学社会科学工作，充分调动广大哲学社会科学工作者积极性主动性创造性，多做深入研究、多出精品力作。', '会议强调，要学经验、“取真经”，将此次赴林芝、昌都、日喀则、山南考察学习乡村振兴工作成果转换成推进拉萨市乡村振兴等各项工作的发展动力；要客观分析我市乡村振兴工作的优势和不足，积极借鉴兄弟地市在乡村振兴发展方面的好做法、好经验，针对制约我市乡村振兴发展主要矛盾破题解题，拿出实的举措，推动我市乡村振兴工作实现新的突破。', '会议强调，要准确把握拉萨高新区发展定位，坚持高标准规划、高质量建设、高水平管理，围绕数字经济建设、金融商务区建设和格桑花行动等，积极培育产业发展新优势，打造城市经济发展增长极；要强化高新区整体环境整治，统筹做好绿化、卫生等环境整治工作，统筹谋划好教育、医疗等公共服务布局和供给；要强化人才建设，在人才培养、薪酬改革等方面要创新、有突破；要提高土地等资源的利用效率，提高投资密度和强化，推动集聚集约发展。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>259</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>曲水县教育局召开学习贯彻习近平新时代中国特色社会主义思想主题教育学习交流研讨会</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/jyyw/202312/34f4cd0995e64c518ab46864cf066a77.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['曲水县教育局召开学习贯彻习近平新时代中国特色社会主义思想主题教育学习交流研讨会_教育要闻_拉萨市人民政府', '为深入学习贯彻习近平新时代中国特色社会主义思想，推进主题教育走深走实，12月6日，中共曲水县教育局党组理论学习中心组召开学习贯彻习近平新时代中国特色社会主义思想主题教育学习交流研讨会，曲水县人民政府副县长尼玛次仁同志以普通党员身份参加了本次会议。教育局在家党组成员、各校党支部书记、校长、县中心幼儿园副园长、局机关党支部书记、局各科室负责人参加学习。会议由教育局党组书记、局长元旦群培同志主持。', '会上，教育局党组书记、局长元旦群培同志传达学习了《习近平总书记在听取浙江省委和省政府工作汇报时发表重要讲话》《习近平总书记关于推进生态文明建设讲话精神》；教育局党组副书记、副局长德吉同志传达学习了《王君正书记在西藏民族大学调研时的讲话》《王君正书记在陕西省考察学习时的讲话精神》；教育局党组成员、机关党支部书记于久永同志传达学习《肖友才书记作的主题教育专题党课精神》；教育局党组成员次仁罗布同志传达学习了《赤来塔吉书记在南木乡江村督导检查人居环境综合整治工作开展情况时的讲话精神》。', '之后，开展了学习贯彻习近平新时代中国特色社会主义思想主题教育交流研讨。教育局党组书记、局长元旦群培，教育局党组副书记、副局长德吉，南木乡小学、才纳乡小学党支部书记围绕学习贯彻习近平新时代中国特色社会主义思想，结合解决学校实际问题分别做了交流发言。', '最后，元旦群培同志强调：一是要坚持和加强党的全面领导，树立正确的政绩观，坚持立足实际、科学决策，坚持着眼长远、打牢基础，坚持干在实处、务求实效，防止形式主义、官僚主义。二是要坚持以习近平新时代中国特色社会主义思想统揽学校工作全局，始终坚持正确办学方向。坚持不懈用马克思主义中国化最新成果武装广大师生头脑，切实把党的创新理论转化为坚定的理想信念、锤炼党性、推动工作的强大力量。三是深入开展主题教育，深入系统学习习近平新时代中国特色社会主义思想，及时跟进学习习近平总书记系列重要讲话和重要指标批示精神。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>259</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>拉萨市首届拉萨工匠选树工作新闻发布会</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-10-09</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/xwfbh/202310/68b76750489c437b852367f298a985ea.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['2023年10月9日，拉萨市政府新闻办公室举行拉萨市首届“拉萨工匠”选树工作新闻发布会，发布会由拉萨市委宣传部副部长、市政府新闻办公室主任拉姆卓玛主持，拉萨市总工会党组书记、副主席公保太，市总工会党组成员、一级调研员尼玛潘多向大家介绍拉萨市首届“拉萨工匠”选树工作开展情况，并回答记者提问。', '2023年10月9日，拉萨市政府新闻办公室举行拉萨市首届“拉萨工匠”选树工作新闻发布会，发布会由拉萨市委宣传部副部长、市政府新闻办公室主任拉姆卓玛主持，', '参加今天新闻发布会的媒体有：中央驻藏新闻媒体、自治区主要媒体和拉萨市融媒体中心的记者朋友们。今天的发布会我们邀请到', '为深入推进产业工人队伍建设改革、贯彻落实习近平总书记致首届大国工匠创新交流会贺信精神，造就一支有理想守信念、懂技术会创新、敢担当讲奉献的宏大的产业工人队伍，我市积极开展首届', '“拉萨工匠”推荐评选工作，大力弘扬劳模精神、劳动精神、工匠精神，在全市推动形成尊重劳动、尊重知识、尊重人才、尊重创造的良好氛围。', '党的十八大以来，习近平总书记始终关心关爱工人阶级和广大劳动群众，对工匠技能人才高度重视。每到一地视察和调研，都要与工匠技能人才代表亲切交谈，在很多重要场合和重要会议发表重要讲话、作出重要指示。去年', '“五一”国际劳动节前夕，习近平总书记向首届大国工匠创新交流大会致贺信，高度评价了技术工人队伍的重要地位。中共中央、国务院印发的《新时期产业工人队伍建设改革方案》，自', '产业工人队伍建设实施方案》，对此也都提出了明确要求。近年来，我市坚持面向基层和生产一线，培育了一批领跑时代的技术工人，在经济社会发展中发挥了积极作用。要实现高质量发展、提高经济创新力、赢得区域竞争优势、加快产业转型升级，必须加快实施', '为进一步弘扬劳模精神、劳动精神、工匠精神，在全社会营造尊重劳动、崇尚技能、鼓励创新的浓厚氛围，', '广泛开展工匠人才培育选树活动，促进培育造就一支规模宏大的知识型、技能型、创新型劳动者大军。', '2023年4月，拉萨市总工会下发《关于开展2023年度拉萨工匠寻访活动的通知》，制定了《“拉萨工匠”评选细则（暂行）》，在全市各类企业中面向各行各业奋战在一线岗位，从事生产、技术、研发等工作的广大劳动者广泛开展首届“拉萨工匠”寻访活动。同时广泛开展具有时代特征、区域特色、行业特性和单位特点的竞赛活动', '自拉萨工匠寻访活动开展以来，拉萨市总工会聚焦产业振兴，面向基层劳动者，大力开展拉萨工匠寻访活动。拉萨工匠选树工作采取自下而上层层推荐、严格遴选把关、多渠道宣传等方式进行。通过各级工会申报、行业协会推荐、个人自荐、选树座谈会等渠道，经过层层筛选拉萨市总工会收到', '31名推荐人选申报资料，对31名候选人进行政治审查后，按照初步遴选、实地采访、宣传展示、专家评审、社会公示、命名发布等程序，经初审、中审评选程序后，拉萨市总工会于2023年9月20日召开专家评审会，由市委网信办、市人社局、市融媒体中心、市文联、市总工会、西藏大学教授等10家单位的专家进行评选，评选结果在“拉萨工会”“网信拉萨”等新媒体平台公示无异议后，最终选出西洛等6名拉萨工匠。', '拉萨工匠选树活动，在全社会特别是职工群众中引发了强烈反响，社会各界、广大职工高度关注，各级工会广泛报道拉萨工匠选树活动和拉萨工匠事迹，有力地弘扬了劳模精神、劳动精神、工匠精神和', '“老西藏精神”“两路”精神，营造了劳动最光荣、劳动最崇高、劳动最伟大、劳动最美丽的社会风尚和精益求精、追求卓越的敬业风气，持续推动我市知识型、技能型、创新型职工队伍建设和培育工作。', '下一步我们将组织拉萨工匠走进机关、企业、工地、学校开展宣讲活动，用他们匠心筑梦、奋斗圆梦的故事，激励拉萨各族职工学习先进、争当先进，努力成为知识型、技能型、创新型劳动者。谢谢大家。', '的介绍。下面，进入记者提问环节，请各位记者就自己关心关注的问题进行提问。提问请举手示意，提问时请报所属新闻机构。', '拉萨市总工会在推动建设知识型、技能型、创新型劳动者大军方面有什么举措和布局？取得了哪些成效？', '，应该说推进建设知识型、技能型、创新型劳动者大军，是习近平总书记对工会工作的一项重要要求，也是各级工会组织积极推动的一项工作。近年来，', '大力深化产业工人队伍建设改革，推动构建产业工人技能形成体系，努力造就一支知识型、技能型、创新型劳动者大军，做实', '保障职工合法权益。加强拉萨工会服务阵地建设，做实做细服务职工工作，整合资源，充实服务职能，打通服务职工', '促进经济社会高质量发展。持续推进新时代拉萨产业工人队伍建设，深化产业工人队伍建设试点力度，落实好产业实训基地建设，组织产业工人参加劳动和技能竞赛。', '促进社会和谐稳定。坚持和完善劳动关系协调机制，建立健全政府、工会、企业协调劳动关系三方委员会。', '提升职工队伍整体素质。持续推进职工书屋、户外劳动者服务站点（工会驿站）建设工作，助力拉萨职工文化蓬勃发展。', '同时，我市各级工会组织坚持围绕中心、服务大局，在维护社会稳定、推动拉萨经济高质量发展、构建和谐劳动关系、保障和改善职工民生、推动自身改革、助力产业工人队伍建设等方面做了大量工作，取得了显著成绩，创造出不少富有拉萨特色和时代特点的工运事业发展经验。比如，新时代拉萨产业工人队伍建设工作走在全区前列，自治区现场交流会在拉萨召开，在全区率先出台《关于进一步加强和改进新时代拉萨工会工作和工人队伍建设的若干措施》，我市', '135名干部职工分别荣获全国、自治区、拉萨市级劳动模范和先进工作者、五一劳动奖章等荣誉称号。谢谢。', '近年来，拉萨市各级工会在弘扬劳模精神、劳动精神、工匠精神方面做了大量工作。下一步，在做好劳模、工匠人才培养选树、宣传引导、管理服务工作方面有什么计划？', '持续深化产业工人队伍建设改革，打造高素质产业工人队伍是我们持续关心关注和用心用力的方向。下一步，我们将发挥牵头抓总作用，协同各相关部门，重点推进以下工作。', '动员劳模服务职工技能提升，组织劳模（职工）技术服务队，深入基层开展技术培训、专题讲座、名师带徒等活动，实现跨区域、跨企业职工开展技术协作和技能提升', '用活用好政策文件，制度优势，把握机遇，破解工会工作难点，持续推动工会工作高质量发展。谢谢。', '拉萨市总工会在产业工人队伍建设，促进职工技能素质提升方面有哪些举措？取得了哪些成绩？下一步还有什么安排？', '“首府城市首位度”带头落实作用，先后开展3次产业工人摸底统计、组织召开8次专题会议、2次区外考察学习、1次全市性专题调研，推动产业工人队伍拓宽视野、提升技能。出台《', '10余项具体举措，探索开展“产业工人说”“职工心愿墙”“流动的红色引擎”等特色活动，拉萨产业工人主力军作用进一步凸显，建设改革工作取得积极成效，让更多沉寂于小巷内的劳动者，得到更好的发展空间和渠道，让工匠精神跟脉薪火相传。下一步将围绕以下几个方面开展工作，', '作了回答。在此，感谢新闻发言人的介绍，同时，衷心感谢各位记者朋友长期以来对广大劳动者、对工会工作的关心关注与报道。明天上午', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>259</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>筑巢引凤栖花开蝶自来堆龙德庆区着力推动招商引资工作取得新成效</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-07-03</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/202307/bf1ce3f4a649403abe443528009d4d83.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['筑巢引凤栖 花开蝶自来——堆龙德庆区着力推动招商引资工作取得新成效_拉萨要闻_拉萨市人民政府', '西藏日报（记者卢文静 实习生 陈红玉）招商引资工作既是培育新增长点的“一号引擎”，更是推动经济高质量发展的“源头活水”。2022年以来，堆龙德庆区坚持把招商引资作为推动高质量发展的重中之重，深入实施大招商、招大商行动，强化项目意识、服务意识、创新意识，整合招商资源、拓展招商渠道、改进招商方式、优化招商服务，推动招商引资工作取得新成效。', '招商引资工作既是培育新增长点的“一号引擎”，更是推动经济高质量发展的“源头活水”。2022年以来，堆龙德庆区坚持把招商引资作为推动高质量发展的重中之重，深入实施大招商、招大商行动，强化项目意识、服务意识、创新意识，整合招商资源、拓展招商渠道、改进招商方式、优化招商服务，推动招商引资工作取得新成效。', '2022年以来，堆龙德庆区以“时不我待、只争朝夕”的紧迫感和责任感，坚持招商规划先行，高效率快节奏加大招商力度，切实以优化营商环境、提高招商引资水平的工作实效，持续推动堆龙高质量发展。', '今年年初，堆龙德庆区委托第三方制定招商引资规划，结合实际对项目库进行调整充实，并充分利用东方龙商务集团、四川省现代物流发展促进会等第三方招商引资渠道，开展以商招商、在线招商，初步对接国企智慧货运物流区域总部布点等项目。同时，通过第三方与深圳市（龙头企业）海格云链等5家企业进行线上对接。', '堆龙德庆区坚持走出去谋合作、引进来促发展并重，持之以恒在优化营商环境等“软实力”上下功夫，不断提高核心竞争力，持续激发更多的洼地效应、溢出效应、乘数效应。2月，由堆龙德庆区政府成立招商引资工作组，先后前往西安、沈阳、成都、重庆开展为期8天的招商引资活动，考察学习西安铁峰主题公园投资发展有限公司等13家知名企业，寻求合作之机、共谋发展之策；4月中旬，堆龙德庆区政府成立招商小分队先后前往上海、四川成都、四川德阳、四川资阳开展招商引资活动，洽谈企业5家，面对面推介招商引资环境，与企业签订战略合作协议；依托北京援藏指挥部组织的“投资大美拉萨·助力边疆发展”招商引资推介活动，大力推介堆龙德庆区药王谷旅游、印象楚布沟、通嘎仓储物流中心建设项目，涉及投资近5.3亿元，将对接企业纳入招商引资项目库，建立“一对一”联系机制，让更多社会资本落地堆龙。', '政务服务作为营商环境的重要组成部分，是营造公平竞争环境、创造更有吸引力投资环境的关键因素。2022年以来，堆龙德庆区持续加强服务保障，从“线上”“线下”两个方面共同发力，进一步优化市场环境、优化要素保障、优化政务服务，从“政府思维”向“企业视角”转变，在政策、资源、技术、服务等方面一视同仁。', '与此同时，堆龙德庆区持续加强法治建设，严明法律，深入推进信用体系建设，深入推进常态化扫黑除恶专项斗争和社会治安专项整治；兼顾情理，持续转变执法理念和执法方式，大力推行“双随机、一公开”监管模式，切实做到“有求必应、无事不扰”。', '在助企纾困上，堆龙德庆区全力构建亲而有度、清而有为的政商关系，全力构建亲则两利、清则两安的政商关系，全力构建言必信、行必果的工作体系，系统在解放思想、精准招商、创新方式、优化环境、要素保障等方面聚焦发力，以优质服务亲商、廉洁操守清商、务实作风勤商，推动营商环境取得新进展、招商引资取得新突破，切实掀起招商引资的新热潮、厚植堆龙高质量发展的新优势。', '2022年，堆龙德庆区以拉萨陆港型物流枢纽建设为契机，完成全区物流产业专项规划编制，参照区外专业化园区建设、投融资管理经验及先进做法，针对性招揽企业。全方位服务招商引资项目，强化要素资源保障，及时协调项目建设中存在的问题；积极开展“招商引资百日攻坚行动”，目前签约项目6个，签约金额14.9亿元；已落地项目4个，计划投资11.8亿元。借助各类网络媒体，多渠道发布最新招商政策，打造堆龙招商品牌，累计推送各类信息20余篇。', '2023年，堆龙德庆区持续强化对接洽谈企业的沟通联络、持续跟踪、优化服务，积极邀请意向企业赴堆龙参观考察，目前已积极对接西藏昆仑物流有限公司等15个招商项目，全力推动项目落地建设，着力为堆龙经济高质量发展积蓄动能、增添后劲。', '百舸争流千帆竞，乘风破浪正远航。下一步，堆龙德庆区将继续把招商引资作为“一号工程”来抓，紧盯年度21亿元的招商引资目标任务，以招商引资的大提速、大突破，推动经济社会高质量发展取得新成效。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>259</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>拉萨市教育局赴江苏和四川两地考察学习</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-05-19</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/jyyw/202305/a72e4b25ee5041b8b577e99afaf6147b.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['为进一步加强拉萨市教育局与相关援藏省市教育行政部门和学校的交流合作，推动支援拉萨市教育领域工作取得新进展，同时向相关教育行政部门和学校学习西藏班（校）办班、高中新教材新课程改革、办学模式等先进经验。按照市委、市政府和局党组相关工作部署要求，5月8日至12日，拉萨市教育局党组副书记、局长、二级巡视员普琼带队先后前往江苏省常州市西藏民族中学、江苏省常州市教育局、江苏省南通市西藏民族中学、江苏省南通市教育局、四川省成都市石室中学考察学习，并与常州市教育局和南通市教育局座谈交流。常州市教育局和南通市教育局局领导、相关业务处室负责人以及相关学校负责人陪同，市教育局党组成员、副局长、二级调研员向宗，市教育局党组成员、副局长仲启立，市教育局基础教育科科长旦增以及办公室工作人员参加。', '在常州市西藏民族中学和南通市西藏民族中学，普琼一行认真仔细听取了学校的发展历程、办学模式、办学特色、校园文化以及办学以来取得的辉煌成就，实地参观了校园特色文化场地、教学楼和学生宿舍食堂等学生学习生活场所及硬件设施，详细询问了西藏班（校）学生的学习和思想状态，与学校教职工代表就西藏班（校）办班、“双减”成果巩固、课程改革、学生管理等方面进行了深入交流。普琼对学校先进的办学思想、鲜明的办学特色、独特的校园文化内涵给予了高度评价。', '普琼表示，多年来，在党中央和国务院的特殊亲切关怀下，在各级党委、政府的正确领导下，在江苏省援藏指挥部的大力支持下，在各级教育行政部门的大力指导下，两所西藏民族中学全面坚决贯彻党的教育方针和民族教育政策，坚持独特办校模式和办班特色，为西藏学生提供了最优越的教育资源，先后', '培养了一批又一批优秀学生，荣获国家、省级等多项荣誉，为国家特别是西藏经济高质量发展和社会和谐稳定作出了积极贡献，各项工作得到了各级党委、政府的充分肯定，获得了西藏广大人民群众的一致好评。希望两所学校继续充分发挥自身优势和特色，坚持先进办学理念，为国家特别是西藏各项事业发展培养输送更多优秀学子。学校负责人表示，在新征程上，学校将全面贯彻党的教育方针和民族教育政策，持之以恒办好西藏班（校）、办好西藏人民满意的教育，用心用情用力培养德智体美劳全面发展的时代新人，让党委、政府放心，让西藏老百姓满意。', '在常州市西藏民族中学八（2）班教室和南通市西藏民族中学“拉萨班”教室，普琼勉励西藏学子珍惜在内地优越的学习和生活条件，刻苦学习，锤炼学习生活本领，加强品德修养，努力成为有志气、有骨气、有底气的好学生，学成后为家乡各项事业发展贡献积极力量。', '考察学习期间，普琼一行与常州市教育局和南通市教育局进行了座谈交流。普琼首先感谢了两地教育行政部门和学校多年来对教育援藏各方面工作的大力支持特别是对西藏班（校）工作的鼎力相助，介绍了拉萨教育发展的基本情况和合作办班等情况。希望在现有合作基础上，进一步加大合作力度，深化拓宽合作渠道，提升合作层次，助力拉萨教育事业在新的起点迈上新台阶。两地教育局对普琼一行的到访表示热烈欢迎，并表示将积极响应党委和政府对教育援藏工作的号召，坚决贯彻落实各项支援政策，把最好的教育资源用在西藏学生身上，用最深的感情、最真诚的态度、最充足的精力开展教育援藏各项工作。拉萨市教育局将与两地教育行政部门和学校在办学模式、合作办班、“双减”成效巩固、教师奖惩、职业教育发展等方面进行深度交流合作。', '在成都市石室中学，普琼一行实地参观了校园文化阵地、校史馆等场所，详细了解了学校发展史、办学模式、校园文化特色、教师学生管理以及校园信息化建设等方面内容。田间校长简要介绍了学校与拉萨市第三高级中学友好合作工作开展情况。参观学习结束后，普琼一行参加了由田间校长主讲的以《学校管理的实践进阶》为主题的讲座活动。普琼表示，拉萨市教育局与成都市石室中学签订友好合作协议后，学校与拉萨市第三高级中学在教师跟岗培训、专家讲座等方面进行了深入合作，成效显著。希望成都市石室中学继续在线上教育、引进优质教育资源、校园信息化建设等方面给予拉萨教育更多支持。田间校长表示，石室中学将持续与拉萨市教育系统开展更深层次的交流合作，让雪域高原的孩子共享石室中学的优质教育资源。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>259</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>西藏拉萨市委组织部年度部门决算</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2019-10-10</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/czjs/201910/e65a34f5bf4645dcbf0b8971d32a346c.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['中共拉萨市委组织部（拉萨市机构编制委员会办公室）与拉萨市委老干部局合署办公。中共拉萨市委组织部是市委主管全市组织工作和干部工作的职能部门；拉萨市机构编制委员会办公室是拉萨市机构编制委员会的常设办事机构，既是市委工作部门，也是市政府工作部门，列市委工作部门序列，负责全市行政管理体制改革、机构改革和机构编制管理工作；拉萨市老干部局是拉萨市委管理退（离）休干部工作的职能部门。主要履行下列职责：', '主要负责全市在党的基层组织建设、党员教育管理、党员发展、党费管理、党的工作制度、党内生活制度等方面进行指导、组织、管理，提出意见建议等。', '主要负责全市领导班子和干部队伍建设（公务员队伍建设）的宏观管理，包括管理体制、政策法规、干部人事制度改革等方面的规划、研究、指导等，对中央管理单位的领导班子换届、调整、任免等提出建议。', '主要负责全市人才工作和人才队伍建设宏观管理、政策法规研究制定，指导协调专项人才工作以及海外高层次人才引进工作，开展联系高级专家工作。', '主要负责全市干部教育培训工作的整体规划、宏观指导、协调服务、督促检查、制度规范，指导分级分类开展干部教育培训以及干部教育培训国际合作交流等。', '主要负责全市领导班子和领导干部、党政领导干部选拔任用工作及有关法规贯彻执行情况的监督。', '主要负责全市离退休干部工作政策的制定和宏观指导，包括落实离退休干部的政治待遇和生活待遇，发挥离退休干部的作用等。', '贯彻执行中央和自治区关于行政、事业管理体制改革，机构改革和机构编制管理的方针政策、法律法规，统一管理全市机构编制工作。', '中共拉萨市委组织部（拉萨市机构编制委员会办公室）设正科级内设机构11个，分别为办公室、研究室、组织科（党员管理科）、干部一科（对口支援干部科）、干部二科、公务员科（公务员管理办公室）、人才工作科、干部教育科、干部监督科、机构编制综合科、机构编制管理科；所属事业单位4个，分别为拉萨市组织编制信息管理中心、拉萨市机构编制实名制管理中心、拉萨市党员电化教育中心、拉萨市干部监督举报中心。', '中共拉萨市委老干部局设内设机构1个，即综合服务科;所属事业单位2个，分别为拉萨市老干部活动中心、拉萨市关心下一代委员会办公室。', '2018年度拉萨市委组织部总收入5996.4万元，其中当年一般公共预算财政拨款收入5085.9万元，上年结转910.5万元。2018年度拉萨市委组织部一般公共预算收入5085.9万元，其中：基本支出收入1990.1万元，占收入的44.8%，主要用于部机关日常业务正常运转，包括干部职工基本工资、津贴补贴、社会保障缴费等人员经费以及办公、水电、差旅、交通费用等行政运行公用经费；项目经费收入2449.7万元，占总收入的55.2%，主要包括拉萨市“强基础惠民生”活动办公室工作和表彰驻村工作队经费、网络租赁及托管经费、《拉萨市党建手机报》推送经费、网络教育平台运营经费、拉萨市人才发展专项资金、离退休老干部和“三老人员”及基层党组织等“三大节日”慰问经费、老干部活动中心运行经费、离退休老干部参观考察活动经费、“每月一课”经费、干部教育培训经费、村居干部培训经费等项目。', '2018年度拉萨市委组织部财政拨款支出4439.8万元。主要增加原因是人员工资、项目资金加大。', '支出主要用于部机关日常业务正常运转，包括基本工资、津贴补贴、休假路费、社会保障缴费等人员经费以及办公、水电、差旅、交通费用等行政运行经费和各种项目经费。', '3、本年度市委组织部公务用车运行维护费94.9万元，与上年相比增长108.9%。原因主要是：一是市委组织部本级购买一辆公务用车共计49.6万元，二是主要用于市内因公出行所需的车辆燃油费、维修费、保险费等共计45.3万元，（1.本部车辆使用时间普遍较长，维修费用增加；2.维稳任务进一步加重，下乡督查工作增多；3.“强基惠民”活动下乡任务重。）', '（一）2018年本部门（含下属单位）履行一般行政事业管理职能、维持机关运行，用一般公用预算安排的行政经费，合计', '1、基本支出1990.1万元。包括两部分：一部分是人员经费1800.5万元，主要包括基本工资、津贴补贴、奖金、伙食补助费、其他社会保障缴费、机关事业单位基本养老保险缴费、生活补助、医疗费、住房补贴、住房公积金、其他工资福利支出、其他对个人和家庭的补助支出等;商品和服务支出189.6万元,主要包括办公费、印刷费、水费、电费、邮电费、差旅费、维修(护)费、会议费、培训费、公务接待费、工会经费、福利费、公务用车运行维护费、其他商品和服务支出等。', '2、一般行政管理项目支出2449.1万元。具体包括干部培训费、离退休老干部和“三老”人员等“三大节日”慰问、离退休老干部开展活动、党建工作、村居两委班子考核、信息网络运行维护费等用于一般组织事务方面的项目支出。', '1、拉萨市离退休干部、“三老”人员、生活困难党员和部分基层党组织“三大节日”慰问经费项目。根据中组部、区党委组织部、区党委老干部局的有关要求，充分体现市委、市政府对全市离退休老干部、“三老”人员、生活困难党员和部分基层党组织的关怀和重视，在2018年元旦、春节、藏历新年期间走访慰问了拉萨市离退休老干部、农牧区“三老”人员、生活困难党员和部分基层党组织。', '2、“强基础惠民生”活动办公室工作和表彰驻村工作队经费。按照区党委、市委关于开展“强基础惠民生”活动的总体部署，成立了“强基础惠民生”活动办公室，扎实开展强基惠民活动，每年表彰一批优秀的驻村工作队和工作队队员。', '3、农村党员干部远程教育系统网格租赁和托管经费。根据《关于转发&lt;西藏自治区财政厅关于下达区党委组织部全区农村党员远程教育系统网络租赁线费、托管费、运行维护预算指标的通知&gt;的通知》，维护运行农村党员干部远程教育系统和站点，确保农村党员干部远程教育站点正常顺利运行。', '4、干部教育培训经费。“加强和改进干部教育培训工作，大规模培训干部、大幅度提高干部素质”精神，按照“干什么训什么、缺什么补什么”的原则，分批组织县处级、科级、乡镇干部等学员到区内、区外专业培训机构进行培训，为参训学员在今后的工作中提供理论指导和政策支撑，提升实际工作能力，妥善处理工作中不断出现的新任务、新问题，确保2020年拉萨与全国一道实现全面建成小康社会的目标。', '5、人才发展专项资金。根据中共拉萨市委员会、拉萨市人民政府关于印发《拉萨市中长期人才发展规划纲要（2011-2020年）的通知&gt;和中共拉萨市委组织部、拉萨市财政局关于印发《拉萨市人才发展专项资金管理办法》的通知，开展人才引进工作、人才评价激励、百名专家下基层等工作。', '6、拉萨市老干部参观考察学习经费。根据《中共西藏自治区党委办公厅关于进一步加强离退休干部工作的意见》和《中共拉萨市委办公厅关于进一步加强和改进离退休干部职工工作的意见》文件精神，充分体现市委、市政府关怀重视老干部，组织退休干部赴区内外参观考察学习。', '五、行政运行支出：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '六、年末财政拨款结转和结余：指以前年度预算安排、因客观条件发生变化无法按原计划实施，需延迟到以后年度按原规定用途继续使用的资金。', '“三公”经费：是指本部门（包括部门本级及所属行政单位（含参照公务员法管理的事业单位）、事业单位和其他单位）通过财政拨款资金安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费指单位工作人员公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费指单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费指单位按规定开支的各类公务接待（含外宾接待）支出。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>259</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>拉萨市第六期藏汉双语翻译培训班开班</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2020-08-13</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/202008/f327717228844252b6eb2af980524502.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['8月11日，2020年拉萨市第六期藏汉双语翻译培训班正式开班，旨在进一步加强拉萨市藏汉翻译工作者队伍建设，提升翻译水平，努力建设一支观念新、能力强、素质高的新型翻译工作者队伍，更好地为拉萨经济社会发展贡献力量。', '此次培训由拉萨市藏语委办（编译局）主办，西藏大学继续教育学院承办。培训班邀请了区内外相关领域知名专家、学者为培训班授课，主要采用集中培训与分组学习相结合、自主研读与专家辅导相结合、理论学习与专题研究相结合、实践研讨与考察学习相结合等培训形式。开设了解读习近平新时代中国特色社会主义思想、翻译实践的基础知识与技巧、藏语构词法、藏文语法、藏语句法、翻译理论与实践的关系等课程。', '“民族语文翻译工作是巩固社会主义民族关系和开展民族工作的重要内容。做好民族语文翻译工作，对维护国家统一、增强民族团结、弘扬民族文化、促进民族地区发展具有重要意义。”在开班仪式上，拉萨市藏语委办（编译局）主任（局长）达瓦次仁说。', '为全面提高拉萨市藏语言文字工作水平，努力构建双语和谐的语言环境，推动民族团结进步事业发展，近年来，拉萨市藏语委（编译局）连续举办了5期“拉萨市藏汉双语翻译培训班”，大力推进全市藏汉双语翻译队伍人才培养。', '达孜区从事基层翻译工作的普珍，已参加了拉萨市藏汉双语翻译培训班两期，她告诉记者：“翻译工作是政策性、理论性很强的工作，翻译工作者肩负着把党中央的方针、政策准确无误地传达到人民群众中的职责。我一定珍惜此次学习机会，求实效，学真本领。”', '据悉，来自拉萨市直相关部门和各县（区）的藏汉翻译工作者共55人参加培训，培训将持续至8月16日。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>259</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>我市首家盲人体验馆即将开启</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2020-04-13</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/202004/b831620657404e9c8813da0ae6bf5a24.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['拉萨融媒讯（记者杨璐）盲人体验馆能够让正常人体验盲人的日常生活，感受他们的世界，让我们能发自内心去理解、去关爱他们。如今，拉萨也有了“盲人体验馆”，该馆面积近800平方米，位于八廓商城美食街那曲巷内，由我市4名90后盲人创业者班旦久美、达琼、边巴顿珠、扎西措姆筹集资金近100万元打造，这个体验馆到底是什么样的呢？跟随记者一起去感受一下。', '拉萨融媒讯（记者杨璐）盲人体验馆能够让正常人体验盲人的日常生活，感受他们的世界，让我们能发自内心去理解、去关爱他们。如今，拉萨也有了', '“不需要蒙眼，只需拿一根盲杖，听着盲人引导员的声音指引……”日前，记者走进了拉萨“与黑暗对话”盲人体验馆，提前进行了体验。进入体验馆之前一切都还是明亮的，不过一旦进入馆内便是漆黑一片，黑暗的空间里，可以真实体验视障人士的日常生活。', '在自然体验区内，潺潺的水声和清脆的鸟鸣声不绝于耳，记者放慢脚步，手中的盲杖在地面上左右滑动，探寻附近是否有障碍物，仿佛盲人一样，警惕、安静地摸索着。', '“去感受你的身边有什么。”盲人引导员指引着记者。“有石头、有小桥、有树木……”记者一边体验一边感知着身边的环境，短短的距离花费了比平时多几倍的时间。', '据该馆负责人班旦久美介绍，该体验馆打造前，他们曾前往成都盲人体验馆进行了实地考察学习，拉萨“与黑暗对话”盲人体验馆主要按照城市主题进行建设，设计了自然区、超市购物区、图书馆等7大场景，体验者需在完全黑暗的环境下手持盲杖，用耳朵、用手等去感受“过盲道”“盲人打字”“互动阅读”“超市购物”等生活场景，体会盲人朋友的生活。', '据该馆负责人班旦久美介绍，该体验馆打造前，他们曾前往成都盲人体验馆进行了实地考察学习，拉萨', '大场景，体验者需在完全黑暗的环境下手持盲杖，用耳朵、用手等去感受“过盲道”“盲人打字”“互动阅读”“超市购物”等生活场景，体会盲人朋友的生活。', '班旦久美告诉记者，健全人体会不到视障人士所处的黑暗世界，无法深刻明白拥有健康的身体是多么的幸福。同时，建立“盲人体验馆”不仅解决了部分盲人的就业问题，让他们通过自己的双手创造属于自己的美好生活。还能通过情景再现、互动体验，让大家真正了解和体会到视障人士在生活中所面临的困难，提高公众对视障人士的认识。“希望大家通过体验后能更关爱残疾人及身边人，也希望通过感受盲人的生活能让大家找到更积极的生活态度，增强克服困难的勇气。”班旦久美说。', '班旦久美告诉记者，健全人体会不到视障人士所处的黑暗世界，无法深刻明白拥有健康的身体是多么的幸福。同时，建立', '据悉，目前该馆仍在进行最后的布展完善工作，将于4月下月运营，有兴趣的朋友可以前往体验。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>259</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>科学技术为拉萨插上腾飞的翅膀我市科技事业发展综述</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2019-09-18</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201909/4ae253469f8f4ef8adfd5a60da7f9e43.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['科技是国家强盛之基，创新是民族进步之魂。新中国成立70周年、特别是西藏民主改革60周年以来，拉萨科技乘势而上，焕发了蓬勃生机与活力。', '党的十八大以来，习近平总书记把创新摆在国家发展全局的核心位置，高度重视科技创新，提出一系列新思想、新论断、新要求。拉萨市科技局不断转变工作思路，把科技创新转变为拉萨经济发展动力。为此，拉萨科技发展孕育了“12345611”工作思路，即“一个境界、两项重点、三种意志、四种转变、五大体系、六大提升、十一个相结合”，以此督促拉萨科技事业发展，高效转化科技成果。', '“功以才成、业由才广。”近年来，拉萨市围绕人才工作重点开展科技管理人员赴内地考察学习、加强科技管理人员岗位轮训、加大科技人才引进力度、加大科技特派员及“三区”人才建设力度等工作。先后组织全市科技系统管理工作者赴北京、江苏、四川成都等地就科技园区发展、科技众创空间发展、（上接第一版）科技平台建设、科技孵化器建设、科技金融等进行专项培训及专项考察学习，开拓科技从业人员视野，寻找全市创新型开展科技工作的发展新思路。此外，我市不断加大科技特派员及“三区”人才建设力度，截至目前，全市科技特派员队伍达到721人，实现了村村覆盖；从科技厅争取到“科技特派员创业服务培训”项目经费50万元，采取区内、区外两种培训形式，为全市科技大发展提供更加有力的基层科技人才支撑。新品种、新技术广泛应用于生产第一线，为农牧民提供快捷优质高效的技术服务，在示范推广先进适用技术、加快科技成果转化、推进农牧业产业结构调整、建立农牧业科技服务体系等方面发挥了重要作用。', '因地制宜、开拓创新。拉萨市依托高原生物、高原医药研究，以共建、托管的形式，与医药研究机构、高等院校等合作，进一步提升拉萨市在高原生物研究方面的创新力，大力推动拉萨高原生物技术创新链和产业链的“双向”融合。建立拉萨市高原生物研究所科研平台，加快推动现代农业、智慧农业、特色农业、农业信息服务和科技服务一体化发展。', '拉萨市城关区高标准奶牛养殖中心位于城关区蔡公堂街道白定村支沟智昭产业园，于2015年5月建成投产。走进奶牛养殖中心，先进的饲喂车、转盘式挤奶机、牛粪干湿分离机等现代化牛场设备让人眼前一亮。“全国生产工艺流程最环保、西南地区牛场集成设备最先进、西藏规模最大”是城关区高标准奶牛养殖中心的靓丽名片。而这只是拉萨市城关区倾力打造乳业全产业链的一个缩影，充分说明了科技成果转化是科技与经济紧密结合的关键环节，也是产业结构调整和经济发展方式转变的重要途径。', '拉萨市注重将科技成果与本地农牧业发展相结合，极大促进了农牧业的发展。根据拉萨农牧业发展的需要，拉萨市科技局组织实施了农作物良种引进与示范推广、牛羊品种改良选育、农牧业科技成果转化等重点科技项目。同时，积极实施科技富民强县（区）专项行动计划，争取到了堆龙德庆区、城关区、尼木县、当雄县、达孜区五个科技富民强县（区）试点县（区），并实施了“西藏堆龙德庆区高原保护地鲜切花、盆花良种繁育及推广技术示范”“尼木县藏鸡规模养殖技术示范与推广”等科技富民强县（区）专项行动计划项目。按照拉萨市委提出的“用工业的理念谋划农业”的指示，重点支持藏泉酒业、春光食品、珠穆拉瑞等20余种特色新产品，提高了农产品的附加值，延长了农业产业链，促进了当地种植业结构调整，推进了农业产业化进程。', '为了调整产业结构，促进科技创新体系建设，拉萨市以科技进步促进特色产业发展为重点，结合实际，整合市内外科技资源，抓项目增投入，加大科技项目实施力度。目前，全市共拥有高新技术企业27家，自治区级科技型中小企业37家，市级科技型企业14家。', '走进达瓦顿珠在柳梧新区众创空间的“隆达传媒”办公区域，映入眼帘的是专业的录音棚和器材、信息控制中心室……整个办公环境大气开阔。达瓦顿珠说：“政府通过柳梧众创空间这个平台为我们提供了非常便利的工作场地，大大降低了公司运营成本，还为我们提供良好的工作空间、网络空间、社交空间和资源共享空间。”', '近年来，拉萨市以“小微企业创业创新基地城市示范建设”为重点，通过管好老载体、打造新载体等措施，突出创业创新载体建设，促进大学生小微企业和社会公众无门槛、低成本创业。同时，积极推进全市首家科技孵化器建设项目，总计投入资金4074万余元，打造集科技孵化器暨高校毕业生创业基地、科技综合服务中心为一体的创业创新孵化器。', '拉萨市还充分发挥区域创新资源整体优势，在全市树立起示范带动创新创业的模式和标杆，引导大学生和小微企业创业。截至目前，已出台或拟定待出台的优惠政策有《拉萨市创新创业载体管理资助办法》《拉萨市科技金融资助管理办法》《拉萨市科技创新券实施管理办法》等。', '习近平总书记说：“科技是国之利器，国家赖之以强，企业赖之以赢，人民生活赖之以好。中国要强，中国人民生活要好，必须有强大科技。”拉萨科技工作也必将深入贯彻落实党的十九大精神和习近平总书记系列重要讲话精神，以推动拉萨经济发展为工作重心，不忘初心再出发，为拉萨发展插上科技的翅膀。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>259</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>拉萨市引进市政道路养护新技术并成功开展应用试验</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2019-11-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201911/96c6f28ae94a46f2a6386d4e65a2a5f0.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['近日，记者从拉萨市市政工程养护管理处了解到，新引进的市政道路养护技术——开普封层技术目前已在拉萨市城关区慈松塘中路成功开展技术应用试验。此次引进的开普封层技术是在碎石封层上进行稀浆封层罩面而形成的，碎石、稀浆总铺设厚度为1.6厘米，属于预防性道路养护技术，为西藏境内首个将该技术运用到市政道路养护施工的样本。', '据拉萨市市政工程养护管理处处长王吉昆介绍，随着西藏交通不断发展，特别是城市道路的飞速发展，如何让沥青路面既保障路用性能，又能延长路面使用寿命，节约养护成本，一直是公路专家们关心的问题。近年来，拉萨市市政工程养护管理处一直在积极探索高寒环境下公路养护工作怎样能够取得更好的效果，今年拉萨市市政工程养护管理处相关领导及技术人员主动到内地考察学习先进的道路养护经验，针对高原昼夜温差大，容易造成路面开裂的问题，决定引进开普封层施工工艺，并在拉萨市城关区慈松塘中路成功展开技术应用试验。', '开普封层是在碎石封层上进行微表处或稀浆封层罩面而形成的复合表面磨耗层。为了进一步提升路用性能，还可采用纤维碎石封层或纤维微表处进行施工，碎石封层粘结材料可以选用改性乳化沥青、橡胶沥青、SBS改性沥青等多种材料。开普封层能够提供一个密实的表面，可以较好地稳固石料，防止石料早期脱落，同时起到防水和抗滑的作用，能有效保护路面，延缓路面病害的发生，延长道路使用寿命。', '与以往的热摊铺道路养护技术相比，开普封层技术具有不少优点，首先是极大地节约了成本，摊铺沥青厚度6—10厘米降低至1—2厘米，养护成本每平方米降低60%—70%。其次是极大缩短了封闭交通的时间，以前开展路面维修工作，至少需要两天的时间限制车辆通行，现在运用新技术，铺上后只需等到面层硬化约2个小时就能恢复交通。', '“这项新的道路养护技术，具有极强的路面防水、降噪、抗磨耗等性能。海绵城市建设要求路面要透水，但水对路面的伤害大，尤其是西藏这边昼夜温差大，容易造成路面开裂。为做出适合高原气候的材料，我们专门邀请内地的技术顾问，到拉萨取了石料，在内地进行了配比。”西藏冠卓建筑工程有限公司总经理张广强介绍。', '此次在慈松塘路段的实验持续开展了两天，总共对4000多平方米的路面进行了维修，从目前的效果来看实验大体成功。下一步，拉萨市市政工程养护管理处将继续进行相关数据的收集，并于明年在拉萨市区其他路段运用该新技术，不断提高广大市民的出行便利。', '此次试验段由西藏冠卓建筑工程有限公司进行组织施工，该公司是一家专业从事道路养护的施工公司，设备齐全，技术力量雄厚，确保了这次开普封层试验路段施工取得圆满成功。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>259</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>拉萨市首期电子商务创业者培训班在江苏宿迁市开班</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2019-05-09</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201905/2daddd5fc1cd4ab38b057f91ec6c5dda.shtml</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['5月7日下午，拉萨市首期电子商务创业者培训班在江苏宿迁市开班。来自拉萨市的20多名电商创业者将接受为期10天的电商培训。', '江苏省对口支援西藏拉萨市前方指挥部党委书记、总指挥、拉萨市委副书记、常务副市长沈海斌，江苏省商务厅副巡视员郁冰滢，宿迁市委常委、常务副市长史志军出席开班仪式。', '开班仪式上，沈海斌首先代表拉萨市委、市政府对支持本次培训班举办的宿迁市、江苏省商务厅、江苏省电子商务协会表示感谢，并寄语全体学员：学有所思、学有所获、学以致用，争做拉萨市新经济的引领者、乡村振兴的推动者、青年就业创业的示范者。沈海斌希望，全体学员要通过本次培训，认真学习宿迁等地电商发展理念和经验，掌握电商知识，广交电商朋友，对接电商渠道，共建电商联盟，不断提升电商发展能力，助力乡村振兴和脱贫攻坚工作，促进拉萨市经济社会更好更快发展。', '郁冰滢简要介绍了江苏电子商务发展的现状以及宿迁电商发展的先进经验，并希望学员们要多走多看多思考，在将来的创业创新实践中，寻求到彼此互惠共赢的广阔空间。同时，他还表示，江苏省商务厅将一如既往地加强对拉萨电子商务发展的支持和帮助，切实为拉萨电子商务发展作出更多积极的贡献。（下转第三版）', '史志军在致辞中介绍了宿迁市经济社会发展特别是电商产业发展情况。他说，近年来，宿迁大力推进电商产业发展，注重各类电商集聚区建设、电商人才培育，积极通过发展电商来促进富民增收，助推区域经济运行和社会发展不断迸发新活力。期待宿迁与拉萨进一步加强交流合作，在电子商务领域互通有无、优势互补，推动两地电商产业实现更高质量发展。', '此次培训班是市委、市政府为贯彻落实中央和自治区党委、政府关于乡村振兴战略和“双创”工作精神，促进全市农牧区电子商务发展，由市政府和江苏援藏指挥部主办，市商务局和市农业农村局承办的一次“走出去”式的培训活动。', '培训对象包括国有企业、民营企业和大学生创业企业的中高层管理人员。培训内容以农村电商为主，既安排专家、企业家授课，也有对宿迁耿车电商产业园、沭阳苏台花木产业园、新沂农资电商园等代表性电商园区企业以及京东、苏宁等知名电商平台的考察学习和资源对接。在宿迁培训期间，培训班全体学员将参加运河品牌电商大会，并深入沭阳、宿豫、宿城等地，深入考察宿迁市电子商务产业园区建设、农村电子商务发展、电商企业培育壮大等方面工作。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>259</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>坚持八标准构筑八平台拉萨市不断构建现代公共文化服务体系</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2018-09-17</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201809/6175b2cfe7a249058d547c9038f63fc7.shtml</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['坚持“八标准” 构筑“八平台”拉萨市不断构建现代公共文化服务体系_拉萨要闻_拉萨市人民政府', '近年来，拉萨市认真贯彻落实习近平新时代中国特色社会主义思想，全面贯彻落实中央、自治区关于构建现代公共文化服务体系的重要决策部署，以建设西藏特色文化保护地为载体，以打造公共文化服务体系示范区为抓手，以政府为主导，以公共财政为支撑，以公益性文化单位为骨干，引导和鼓励全社会积极参与，全面提升了公共文化服务基层的能力和水平，提升了基层公共文化设施对群众的吸引力，文化民生惠及全市人民。', '由分管市长任组长，成立制度设计研究领导小组，同武汉大学国家文化发展研究院合作，开展公共文化服务体系制度设计研究工作。两年多来，课题组围绕重点难点问题，探索出“社区＋社会＋社团”的“3S”公共文化服务供给模式，形成了《构建以“3S”为核心的拉萨特色公共文化服务制度保障体系研究》研究报告，为拉萨市公共文化服务体系建设提供了有力的决策参考。', '由分管市长任组长，成立制度设计研究领导小组，同武汉大学国家文化发展研究院合作，开展公共文化服务体系制度设计研究工作。两年多来，课题组围绕重点难点问题，探索出', '出台《关于加快构建现代公共文化服务体系的实施意见》《政府向社会力量购买公共文化服务的实施意见》《非物质文化遗产项目代表性传承人认定与管理办法》《公共文化服务社会化发展促进办法》等系列文件，形成了公共文化服务政策性长效机制，并在实践中得到广泛的应用、推广和完善，以课题研究成果指导示范区创建工作，推动了公共文化服务体系建设成果转化。', '将公共文化服务资金投入并纳入到市县经常性财政支出预算中，加大投入力度，不断提高公共文化服务供给保障水平。其中市、县两级财政进一步加大投入力度，加大民间艺术团扶持资金，严格落实免费开放配套资金和示范区创建资金，不断提高公共文化服务供给保障水平。2015年至2018年上半年，本级财政投入公共文化建设资金15.3亿元，其中包括：一是2017年文化事业费占财政总支出比例达2.7%，同比增长1.25倍。二是积极争取援藏项目资金，2015年至今市县落实文化援藏资金共计9579.84万元，农村文化建设专项资金150.5万元，人均文化事业费达303.26元/人。2018年起还将落实每个县民间艺术团演职人员场次补贴10万元。', '将公共文化服务资金投入并纳入到市县经常性财政支出预算中，加大投入力度，不断提高公共文化服务供给保障水平。其中市、县两级财政进一步加大投入力度，加大民间艺术团扶持资金，严格落实免费开放配套资金和示范区创建资金，不断提高公共文化服务供给保障水平。', '根据拉萨市公共文化建设发展需要，不断加强文化人才队伍建设，配齐配强文化专职干部。每个县文化活动中心配备工作人员2—6名，乡镇文化站配备4—6名专职人员，部分县（区）文化活动中心主任为副科级编制。2016年至2018年上半年，全市文化系统举办了“拉萨市阳光工程文化志愿者培训班”“拉萨市公共文化服务保障法培训班”“拉萨市首期文化干部培训班”等脱岗培训1000余人次，对各县（区）文化局干部、基层文化站工作人员、非遗传承人及文化产业骨干开展了集中培训。目前，全市现有专业文艺院团1个、县（区）级民间艺术团8个、业余文艺团体321个、藏戏队19个，招募文化志愿者1257名，参与公益文化活动。组织基层文化馆站业务骨干赴北京、南京、成都、等地考察学习，开拓了公共文化服务思路，提升了服务水平和能力。', '根据拉萨市公共文化建设发展需要，不断加强文化人才队伍建设，配齐配强文化专职干部。每个县文化活动中心配备工作人员', '目前，拉萨市文化基础设施建设稳步推进，基本实现了公共文化设施全覆盖。全市共建成各级文化馆（站）75个，博物馆6座，文化广场300个；建成农（牧）家书屋228个、社区书屋52个、寺庙书屋231个，覆盖率达到100%；实现广播电视“村村通”“户户通”和“舍舍通”，广播电视综合人口覆盖率分别为98.41%和98.93%；已完成269个村级组织活动场所标准化建设，基本建成了较为完善的市、县、乡、村四级公共文化设施网络。', '目前，拉萨市文化基础设施建设稳步推进，基本实现了公共文化设施全覆盖。全市共建成各级文化馆（站）', '市群艺馆、市非遗博物馆、市数字影院、市体育场和体育馆运行良好，市图书馆建设已立项选址，市群艺馆、歌舞团新建项目主体已完工。西藏牦牛博物馆、西藏自然科学博物馆、群觉甲玛古代兵器博物馆等特色鲜明的博物馆群建设初具规模，并实施免费开放。其中西藏牦牛博物馆作为全世界唯一以牦牛为主题的博物馆，自2014年5月开馆至2018年6月，累计参观人数达40余万人次，被授予自治区级爱国主义教育基地、拉萨市级爱国主义教育基地、4A级国家旅游景区等荣誉。', '市群艺馆、市非遗博物馆、市数字影院、市体育场和体育馆运行良好，市图书馆建设已立项选址，市群艺馆、歌舞团新建项目主体已完工。西藏牦牛博物馆、西藏自然科学博物馆、群觉甲玛古代兵器博物馆等特色鲜明的博物馆群建设初具规模，并实施免费开放。其中西藏牦牛博物馆作为全世界唯一以牦牛为主题的博物馆，自', '一是广泛开展阵地文化服务，市妇女儿童活动中心、青少年文化活动中心、市体育场、体育馆、游泳馆向社会提供了免费开放服务，8个县（区）综合文化活动中心和66个乡（镇）综合文化站实现了标准化建设，8县影剧院实现了电影放映、文艺演出、大型会议等免费开放服务，成功打造了金珠西路街道办等12个示范乡镇综合文化站。有效整合现有的宣传、文化、新闻出版、广电、党员教育、科技普及、体育健身等设施设备，统一布局和建立具有图书阅览、上网学习、党员教育、科普培训、文体功能的村级党群文化服务中心，实现统筹管理、综合运用。', '一是广泛开展阵地文化服务，市妇女儿童活动中心、青少年文化活动中心、市体育场、体育馆、游泳馆向社会提供了免费开放服务，', '二是建立健全了各项规章制度，用藏汉双语向社会公示了免费开放服务项目、时间、内容，免费向城乡居民提供图书阅览、体育健身、文化活动等文化服务，各级各类文化馆站免费开放时间每周达到56小时，各级文化馆站图书藏量达到人均0.6册以上，人均年增新书在0.04册以上，平均每册藏书年流通率0.6次以上，人均到馆次数0.4次以上。', '二是建立健全了各项规章制度，用藏汉双语向社会公示了免费开放服务项目、时间、内容，免费向城乡居民提供图书阅览、体育健身、文化活动等文化服务，各级各类文化馆站免费开放时间每周达到', '三是积极推进文化资源流动机制，广泛开展文艺下乡、电影下乡、图书下乡活动，每年文艺下乡演出达3200余场，每年电影下乡放映近万场，赠送图书资料累计达133万余册。每个村每月看2-3场电影，平均每月观看1场以上戏剧或文艺演出，每年组织8场以上规模较大的群众文体活动。流动电影放映车、流动图书车、流动舞台车等构筑起的流动公共文化服务，为农牧民提供了更好的便利。', '三是积极推进文化资源流动机制，广泛开展文艺下乡、电影下乡、图书下乡活动，每年文艺下乡演出达', '一是通过中国西藏国际博览会，中国拉萨雪顿节等活动平台，开展藏戏大赛、藏戏演出季、唐卡艺术展、综艺晚会、藏族音乐研讨会、纳木措国际徒步大会等系列活动，深受广大市民、国内外游客的欢迎和赞誉。二是推广普及“幸福拉萨规范舞”学跳活动，活跃文化生活，提升了城市品位，传承了优秀文化和凸显了示范作用。三是从2018年5月起，开展“藏戏演出季”活动，从各县（区）19支民间藏戏队中每周选调1支，在宗角禄康公园演出传统八大藏戏，深受广大市民的欢迎。四是促进优秀公共文化资源交流共享，推动区域之间文化联动。充分利用文化站现有设施的便利条件，开展克朗球、藏式骰子、寺庙藏文书法大赛、职工健身大赛、扶贫脱贫知识讲座等极具本地特色的文化活动；各县（区）之间按照就近原则开展文化联动活动，相互参观县非物质文化遗产展厅、新华书店、县文化活动中心等设施设备，使县（区）之间相互了解、相互督查、查漏补缺，形成比学赶超的创建氛围。截至2018年6月，共开展区域文化联动活动306场。', '一是通过中国西藏国际博览会，中国拉萨雪顿节等活动平台，开展藏戏大赛、藏戏演出季、唐卡艺术展、综艺晚会、藏族音乐研讨会、纳木措国际徒步大会等系列活动，深受广大市民、国内外游客的欢迎和赞誉。二是推广普及', '一是统筹实施文化信息资源共享工程、边疆万里数字文化长廊、公共数字文化服务提档升级、数字图书馆(博物馆)建设。以公共电子阅览室作为载体,整合文化资源,建成文化信息共享基层服务点144个,数字文化驿站274个。不断提高公共文化设施无线网络覆盖水平,实现文体中心、群艺馆、博物馆等市级公共文化设施免费WIFI全覆盖,方便广大市民随时“在线”共享信息。推出《中国•拉萨藏戏网》网络版和手机版,实现传统藏戏“进门入户、随身携带”;完成《拉萨囊玛》数据库建设项目、《拉萨非物质文化遗产数据信息管理系统》建设项目、《可移动文物数据库》建设项目;将传统八大藏戏录制成DVD光盘,配以中、英、藏文三种字幕,以现代科技助推传统文化保护。积极开展数字图书馆项目建设,从2018年4月起,开展公共图书馆五项指标录入试点工程,实现农家(牧家)书屋、乡镇(街道)文化站图书阅览室、县(区)文化活动中心图书馆形成总分管制,藏书量、新增图书、图书流通率、到馆人次、借阅人次等在“云图书馆”APP上方便清晰查询。二是建立了行业手机报或公众号实现文化政策、文化新闻、文化动态的及时公布、推送。及时宣传公共文化服务体系示范区创建动态，充分利用多种宣传渠道、采取多种宣传方式积极营造全民参与的创建氛围,设立各类藏汉文公益宣传牌、横幅1000余条,发放宣传资料5万余份,各类媒体采编刊播我市创建工作有关新闻近千余篇,全方位、深层次、多角度宣传公共文化服务体系示范区创建工作,群众知晓率达到99%以上。', '一是统筹实施文化信息资源共享工程、边疆万里数字文化长廊、公共数字文化服务提档升级、数字图书馆', '一是逐步建成国家、自治区、市、县四级非物质文化遗产名录体系，全市拥有传统技艺、传统舞蹈、传统戏剧、传统美术、民俗等十大类168项非遗代表性项目，其中入选人类保护名录1项、国家级保护名录20项、省级31项、市级65项、县级51项；形成四级传承人保护体系，现有代表性传承人221名，其中，国家级代表性传承人12名、自治区级35名、市级85名、县级89名；评选公布16个非遗传习基地和非遗生产性示范保护基地，其中拉萨市城关区古艺建筑美术公司的藏族矿植物颜料制作技艺入选国家级非遗生产性示范基地。二是非遗保护资金投入不断加大。重视非遗项目专项保护资金申报工作，每年投入资金总数达300余万元。“当吉仁”赛马会、协荣仲孜、纳如谐庆、尼木藏香制作技艺、矿植物颜料技艺等多数国家级非遗代表性项目每年先后得到50万元至100万元不等的保护资金。各级代表性传承人及时享受到了传承人补助经费，其中国家每人每年2万元，自治区每人每年1万元。尼木、当雄等部分县区为县级代表性传承人等设立了1000元至2000元不等的传习补助。三是民间文化艺术之乡得到保护。达孜区德庆镇（白纳锻铜）、堆龙德庆区古荣乡（糌粑制作）、尼木县吞巴乡（藏香制作）等8个乡（镇）被命名为西藏自治区文化艺术之乡。民间文化艺术之乡的挖掘和保护，促进了优秀传统文化的有效继承和弘扬，丰富了人民群众精神文化生活，有力推动了社会主义先进文化的建设和发展。', '一是逐步建成国家、自治区、市、县四级非物质文化遗产名录体系，全市拥有传统技艺、传统舞蹈、传统戏剧、传统美术、民俗等十大类', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>259</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>拉萨经开区净土健康产业发展初见成效</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2018-05-02</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201805/79af564712c04fd7a0ded941f0075ac5.shtml</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['近年来,拉萨经开区在区市党委、政府的坚强领导下,紧紧围绕园区特色饮品、绿色食品、医药保健品、特色手工艺品等特色产业,推动净土健康企业总部机构、研发机构、投资平台、标准联盟等入驻,力争成为拉萨市净土健康产业发展引领区。', '一是成立经开区“全国净土健康产业知名品牌创建示范区”建设工作领导小组,层层落实责任、逐级传导压力,确保有人管、有人抓,有序有效推进品牌创建工作。二是研究出台涉及土地、金融、税收、质量的各类优惠政策,制定《拉萨经开区质量失信黑名单制度》《拉萨经开区质量打假责任制》《拉萨经开区产品质量安全整治工作方案》,建立质量安全风险管理机制,健全产品质量投诉处理机制,规范管理制度。三是邀请江苏省标准化院专家深入园区指导标准化工作。对西藏高原天然水、天佑德青稞酒等重点企业开展专家问诊及指导工作,确保生产企业严格按照标准组织生产,引领企业做好标准化工作。四是制定出台拉萨市首家区域奖励办法《拉萨经开区质量品牌奖励办法》,对荣获国家级质量品牌奖励称号或提名奖的企业一次性给予50万元奖励;对荣获西藏自治区级政府质量奖、名牌产品的企业一次性给予30万元奖励;对荣获拉萨市级政府质量奖、名牌产品的企业一次性给予20万元奖励;对参与标准制定等省级以上产品质量提升活动的企业一次性给予5-10万元的奖励。同时,动员引导园区内企业积极报名参与到政府质量奖、拉萨名牌产品等奖项的评选当中。', '一是严守生态底线,坚决做到“三个不要”,即污染性项目一个不要、破坏资源型项目一个不要、有重大环境隐患项目一个不要,从源头上严格引进企业环保准入门槛和环评审批程序。严格落实河长制,投入8000余万元,建成长达5公里的滨河公园(经开区段),助力拉萨河道生态环境改善。二是持续深化“放管服”改革,不断提高服务水平。加快“互联网+政务服务”信息化平台建设,深化“三证合一、五证合一、一照一码”以及个体工商户“两证整合”制度改革,落实国务院6项减免税收政策,全面推开“营改增”、环保税征收等工作,做到税收征纳与优质服务有机统一。三是充分发挥金融杠杆作用,深化与4家金融机构的全面战略伙伴关系,加大对园区企业的金融支持力度。与海峡基金合作,设立10.62亿元的产业投资基金,以融资担保公司为平台,加大对园区实体企业的融资担保力度,解决企业资金困难问题,助推企业快速发展壮大。', '一是按照“一企一档”要求,对40家落地生产企业建立质量信用档案,并签订“质量诚信承诺书”。开展质量状况分析和企业质量信用评价,对绿色食饮品、医药保健品、民族手工艺等为主的22家生产企业进行走访调研,形成《拉萨经开区区域质量状况调查分析报告》,为净土产业发展提供数据支撑。二是举办驻园企业负责人、总经理培训班,邀请专家、学者帮助企业引入先进质量管理方法,组织西藏甘露藏药股份有限公司和西藏高原之宝牦牛乳业股份有限公司等园区8家重点企业赴江苏省苏州市、南通市考察学习内地品牌企业先进管理理念。建立质量培训基金,定期邀请专家、老师对专职从事质量工作人员进行培训,做到关键质量岗位持证率100%。三是引导和鼓励有条件的企业引进第三方权威检验检测机构进行技术检测和科技研发,目前园区共有西藏兴源建筑材料燃烧性能检测有限公司、西藏以勒科技有限公司等4家企业建有省级质量检测中心。四是组织开展特种设备安全生产大检查,共检查园区44家企业144台在用特种设备,对有存在安全隐患的17家企业依法下达了《特种设备安全监察指令书》,确保质量安全隐患消除在萌芽状态。', '截至目前,拉萨经开区净土健康产业实现产值14.23亿元,占拉萨经开区工业总产值的82%。甘露藏药、天知生物等企业通过全国藏医药GMP认证,占自治区GMP认证企业总数的30.4%,共获得医药保健品批号七十余项。高原之宝牦牛乳制品、卓玛泉饮用水等十余家企业产品获得拉萨市知名品牌称号。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>259</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>深化两地交往交流交融携手推动援藏工作再上新台阶</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2019-01-03</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/yzdt/201901/e2a86bebc29b43de898d97de88e13bc8.shtml</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['1月2日，自治区党委副书记、自治区人大常委会主任洛桑江村率西藏自治区党政代表团到重庆市回访考察学习，举行重庆·西藏对口支援工作座谈会，看望援藏干部人才代表，深化两地交往交流交融，携手推动援藏工作再上新台阶。', '重庆市委书记陈敏尔出席座谈会并讲话。重庆市委副书记、市长唐良智介绍重庆经济社会发展和援藏工作情况，重庆市人大常委会主任张轩，重庆市委副书记任学锋参加。', '陈敏尔代表重庆市委、市政府向西藏自治区党政代表团来渝考察表示热烈欢迎，对西藏长期以来给予重庆的支持和对援藏干部的关心表示衷心感谢。他说，习近平总书记高度重视、亲切关怀西藏发展，对治边稳藏工作作出一系列重要论述和指示要求，为建设团结民主富裕文明和谐的社会主义新西藏指明了方向。党的十九大以来，在以习近平同志为核心的党中央坚强领导下，西藏各族人民坚持以习近平新时代中国特色社会主义思想为指引，扎实做好改革发展稳定各项工作，推动西藏各项事业取得新气象新进展。西藏大地欣欣向荣，雪域高原日新月异，我们感到由衷高兴，深受鼓舞。西藏经济社会发展的许多好经验好做法，西藏干部群众干事创业的好精神好作风，值得重庆学习借鉴。', '陈敏尔指出，对口支援是中央着眼西藏工作大局作出的战略决策。中央把对口支援昌都的任务交给重庆，是对重庆的高度信任，是交给重庆的重大政治任务。我们将深入贯彻习近平总书记关于治边稳藏的重要论述，进一步提高政治站位和战略站位，树牢“四个意识”，坚定“四个自信”，坚决做到“两个维护”，加大力度、拓宽思路、突出重点，用心用情用力做好对口援藏工作，确保中央决策部署在重庆援藏工作中落地生根。要聚焦帮助支持打赢脱贫攻坚战，持续深入抓好项目援藏、产业援藏、民生援藏，让昌都各族人民更好享受改革开放和对口支援成果。要统筹做好各领域帮扶工作，持续深入抓好教育、医疗等领域援助，努力为群众办实事、做好事、解难事。要持续深入选派好干部人才，传承发扬援藏干部优良传统和作风，增强人才选派针对性。要抓好工作机制建设，创新对口支援方式，加强沟通交流和工作协调，推动对口支援工作迈上新台阶。', '洛桑江村代表自治区党委、人大、政府、政协和全区各族人民对重庆长期以来给予西藏的特殊支持表示衷心感谢。洛桑江村指出，重庆市委、市政府站在党和国家战略全局高度，讲政治、讲大局、讲奉献，坚决贯彻落实中央的决策部署，全方位、多层次、大力度开展援藏工作，把以习近平同志为核心的党中央的亲切关怀送到西藏各族群众的心坎上，把重庆市人民的无私援助送到千家万户，有力促进了西藏特别是昌都市的发展稳定各项工作，在雪域高原铸就了不朽的丰碑，彰显了社会主义制度的无比优越性，彰显了祖国大家庭的无比温暖，彰显了中华民族同心共筑中国梦的强大凝聚力。西藏每一点的发展进步都离不开中央的亲切关怀、离不开全国人民的大力支援，希望重庆市继续帮助西藏做好脱贫攻坚、教育就业、乡村振兴、生态保护、民生改善、产业发展等重点工作。西藏自治区一定切实把重庆支援的资金使用好、项目落实好；关心爱护每一位援藏干部，精心做好服务保障工作，让他们在西藏建功立业、健康成长，为边疆、为祖国多作贡献。', '洛桑江村看望了重庆市援藏干部及家属代表，一一亲切握手，献上洁白的哈达，并举行座谈会、共叙藏渝情谊。洛桑江村说，援藏干部是联系重庆西藏两地的桥梁和纽带，是联系党和群众的桥梁和纽带，是促进各民族交往交流交融的桥梁和纽带，大家以建设西藏、发展西藏、稳定西藏为己任，把创新思维、先进理念、有益经验带到了昌都，为西藏各项事业带来了生机和活力，生动体现了中华民族团结一家亲，受到了我区各族干部群众的高度赞誉。希望大家继续关心西藏、宣传西藏，为西藏改革发展稳定各项事业献计献策。', '歌乐山岭，峰含秀色，建校30多年的重庆西藏中学坐落其中。洛桑江村漫步校园，走进学校文化艺术广场、教学楼、食堂，参观考察，观摩教学，与生活在这里的师生亲切交流。洛桑江村说，广大学子要牢记党的恩情，牢记习近平总书记对青年一代的殷殷嘱托，坚定理想信念，打好学业基础，掌握过硬本领，在推动实现中国梦伟大实践中谱写人生华彩篇章。', '重庆市委常委、秘书长王赋，市政府副市长李殿勋，市政协副主席谭家玲，自治区领导石谋军、扎西达娃参加。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>259</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>西藏拉萨市组织部年度部门决算</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2018-09-22</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/czjs/201809/2255b1b9f95b41c2badffa0ab134ef1b.shtml</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['纳入西藏拉萨市委组织部2017年度决算编制范围的单位是中共拉萨市委组织部（拉萨市机构编制委员会办公室）部门和拉萨市委老干部局。', '中共拉萨市委组织部（拉萨市机构编制委员会办公室）与拉萨市委老干部局合署办公。中共拉萨市委组织部是市委主管全市组织工作和干部工作的职能部门；拉萨市机构编制委员会办公室是拉萨市机构编制委员会的常设办事机构，既是市委工作部门，也是市政府工作部门，列市委工作部门序列，负责全市行政管理体制改革、机构改革和机构编制管理工作；拉萨市老干部局是拉萨市委管理退（离）休干部工作的职能部门。主要履行下列职责： 1.组织建设', '主要负责全市在党的基层组织建设、党员教育管理、党员发展、党费管理、党的工作制度、党内生活制度等方面进行指导、组织、管理，提出意见建议等。', '主要负责全市领导班子和干部队伍建设（公务员队伍建设）的宏观管理，包括管理体制、政策法规、干部人事制度改革等方面的规划、研究、指导等，对中央管理单位的领导班子换届、调整、任免等提出建议。', '主要负责全市人才工作和人才队伍建设宏观管理、政策法规研究制定，指导协调专项人才工作以及海外高层次人才引进工作，开展联系高级专家工作。', '主要负责全市干部教育培训工作的整体规划、宏观指导、协调服务、督促检查、制度规范，指导分级分类开展干部教育培训以及干部教育培训国际合作交流等。', '主要负责全市领导班子和领导干部、党政领导干部选拔任用工作及有关法规贯彻执行情况的监督。', '主要负责全市离退休干部工作政策的制定和宏观指导，包括落实离退休干部的政治待遇和生活待遇，发挥离退休干部的作用等。', '贯彻执行中央和自治区关于行政、事业管理体制改革，机构改革和机构编制管理的方针政策、法律法规，统一管理全市机构编制工作。', '中共拉萨市委组织部（拉萨市机构编制委员会办公室）设正科级内设机构11个，分别为办公室、研究室、组织科（党员管理科）、干部一科（对口支援干部科）、干部二科、公务员科（公务员管理办公室）、人才工作科、干部教育科、干部监督科、机构编制综合科、机构编制管理科；所属事业单位4个，分别为拉萨市组织编制信息管理中心、拉萨市机构编制实名制管理中心、拉萨市党员电化教育中心、拉萨市干部监督举报中心。', '中共拉萨市委老干部局设内设机构1个，即综合服务科;所属事业单位（参公）2个，分别为拉萨市老干部活动中心、拉萨市关心下一代委员会办公室。', '2017年度拉萨市委组织部总收入5037.4万元，其中当年一般公共预算财政拨款收入3998.61万元，上年结转1038.79万元。2017年度拉萨市委组织部一般公共预算收入3998.61万元，其中：基本支出收入1554.97万元，占收入的38.89%，主要用于部机关日常业务正常运转，包括干部职工基本工资、津贴补贴、社会保障缴费等人员经费以及办公、水电、差旅、交通费用等行政运行公用经费；项目经费收入2443.64万元，占总收入的61.11%，主要包括拉萨市“强基础惠民生”活动办公室工作和表彰驻村工作队经费、网络租赁及托管经费、《拉萨市党建手机报》推送经费、网络教育平台运营经费、拉萨市人才发展专项资金、离退休老干部和“三老人员”及基层党组织等“三大节日”慰问经费、老干部活动中心运行经费、离退休老干部参观考察活动经费、“每月一课”经费、干部教育培训经费、村居干部培训经费等项目。', '支出主要用于部机关日常业务正常运转，包括基本工资、津贴补贴、休假路费、社会保障缴费等人员经费以及办公、水电、差旅、交通费用等行政运行经费和各种项目经费。', '3、本年度共发生公务用车运行维护费45.42万元，与上年相比增长12.65%。原因主要是：一是本部车辆使用时间普遍较长，维修费用增加；二是维稳任务进一步加重，下乡督查工作增多；三是“强基惠民”活动办和“两委”换届办下乡任务重。', '1、基本支出1456.17万元。包括两部分：一部分是人员经费1326.77万元，主要包括基本工资、津贴补贴、奖金、伙食补助费、其他社会保障缴费、机关事业单位基本养老保险缴费、生活补助、医疗费、住房补贴、住房公积金、其他工资福利支出、其他对个人和家庭的补助支出等;商品和服务支出129.4万元,主要包括办公费、印刷费、水费、电费、邮电费、差旅费、维修(护)费、会议费、培训费、公务接待费、工会经费、福利费、公务用车运行维护费、其他商品和服务支出等。', '2、项目支出2276.7万元。具体包括干部培训费、离退休老干部和“三老”人员等“三大节日”慰问、离退休老干部开展活动、党建工作、村居两委班子考核、信息网络运行维护费等用于一般组织事务方面的项目支出。', '截止2017年12月31日，拉萨市委组织部共有车辆8辆，均为一般公务用车，无单位价值200万元以上大型设备。', '2017年我部暂未开展预算绩效工作，预备在2019年汲取相关单位好的经验做法，逐步开展完善预算绩效工作。', '1.拉萨市离退休干部、“三老”人员、生活困难党员和部分基层党组织“三大节日”慰问经费项目。根据中组部、区党委组织部、区党委老干部局的有关要求，充分体现市委、市政府对全市离退休老干部、“三老”人员、生活困难党员和部分基层党组织的关怀和重视，在2017年元旦、春节、藏历新年期间走访慰问了拉萨市离退休老干部、农牧区“三老”人员、生活困难党员和部分基层党组织。', '2.“强基础惠民生”活动办公室工作和表彰驻村工作队经费。按照区党委、市委关于开展“强基础惠民生”活动的总体部署，成立了“强基础惠民生”活动办公室，扎实开展强基惠民活动，每年表彰一批优秀的驻村工作队和工作队队员。', '3.《拉萨市党建手机报》推送经费。根据《拉萨市党建手机报项目合作协议》，每周向全市移动、电信手机4万用户党员推送《拉萨市党员手机报》，传达党和政府的声音，促进全市党建工作相互交流，展示拉萨形象，引领社会舆论导向。', '4.农村党员干部远程教育系统网格租赁和托管经费。根据《关于转发&lt;西藏自治区财政厅关于下达区党委组织部全区农村党员远程教育系统网络租赁线费、托管费、运行维护预算指标的通知&gt;的通知》，维护运行农村党员干部远程教育系统和站点，确保农村党员干部远程教育站点正常顺利运行。', '5.干部教育培训经费。根据市委八届三次、四次全委会关于“加强和改进干部教育培训工作，大规模培训干部、大幅度提高干部素质”精神，按照“干什么训什么、缺什么补什么”的原则，分批组织县处级、科级、乡镇干部等学员到区内、区外专业培训机构进行培训，为参训学员在今后的工作中提供理论指导和政策支撑，提升实际工作能力，妥善处理工作中不断出现的新任务、新问题，确保2020年拉萨与全国一道实现全面建成小康社会的目标。', '6.帮助那曲等五地市村（居）干部赴拉萨开展培训经费。按照区党委常委、拉萨市委书记齐扎拉同志批示要求及《关于帮助那曲、阿里、日喀则、山南、昌都5地市村（居）干部赴拉萨培训建议方案》精神，充分利用拉萨优质教育培训资源，帮助艰苦边远地区开展村（居）干部集中培训工作，使参训学员充分掌握相关工作知识，提高履职尽职的能力，带动艰苦偏远地区经济发展，促进才百姓增收致富。', '7.人才发展专项资金。根据中共拉萨市委员会、拉萨市人民政府关于印发《拉萨市中长期人才发展规划纲要（2011-2020年）的通知&gt;和中共拉萨市委组织部、拉萨市财政局关于印发《拉萨市人才发展专项资金管理办法》的通知，开展人才引进工作、人才评价激励、百名专家下基层等工作。', '8.拉萨市老干部参观考察学习经费。根据《中共西藏自治区党委办公厅关于进一步加强离退休干部工作的意见》和《中共拉萨市委办公厅关于进一步加强和改进离退休干部职工工作的意见》文件精神，充分体现市委、市政府关怀重视老干部，组织退休干部赴区内外参观考察学习。', '9.拉萨市“三严三实”” “忠诚干净担当”专题 教育活动办公室工作经费。按照市委关于开展“三严三实”” “忠诚干净担当”专题活动的总体部署，成立了活动办公室，认真开展专题教育工作。', '2017年度拉萨市委组织部没有安排政府性基金预算支出。上年结转0.58万元，结转下年0.58万元，是组织部宿舍区周转房维修项目的保修金。', '二、其他收入：指上述“财政拨款收入”以外的收入主要是按规定动用的售房收入、存款利息收入等。', '五、行政运行支出：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '六、年末财政拨款结转和结余：指以前年度预算安排、因客观条件发生变化无法按原计划实施，需延迟到以后年度按原规定用途继续使用的资金。', '九、“三公”经费：是指本部门（包括部门本级及所属行政单位（含参照公务员法管理的事业单位）、事业单位和其他单位）通过财政拨款资金安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费指单位工作人员公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费指单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费指单位按规定开支的各类公务接待（含外宾接待）支出。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>259</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>中共拉萨市委组织部年度部门预算</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-02-10</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/czys/202202/cd248b1ff2984e11902be23f7f52b261.shtml</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['根据市委编办批复的“三定”方案，中共拉萨市委组织部（市委编办）的主要履行下列职责：', '1.深入贯彻习近平新时代中国特色社会主义思想，贯彻新时代党的建设总要求和新时代党的组织路线，深入贯彻党中央和自治区党委、市委关于组织工作和机构编制工作的决策部署，坚持党对组织工作和机构编制工作的绝对领导，坚决维护党中央权威和集中统一领导。', '2.研究和指导全市党的组织体系建设，提出加强和改进党的基层组织建设的意见和建议；研究和指导全市党的组织制度和政策法规建设，负责党建理论研究工作。', '3.承担市委、人大、政府、政协换届选举的有关工作，指导县（区）、乡（镇、街道）、村（社区）换届选举工作，指导党组织和群团组织换届选举工作；负责党代表联络、服务等工作；负责指导领导班子民主生活会和基层党组织组织生活会；研究和指导全市党内民主建设；负责有关党组织设置事宜。', '4.负责全市党员队伍建设工作；负责全市党员教育管理和发展工作；负责全市农村党员干部现代远程教育和党员电化教育工作；负责全市党内统计和党费管理工作；负责党员信息化建设工作。', '5.负责组织开展党内教育活动；负责会同有关方面组织开展干部驻村工作，研究提出加强和改进干部驻村工作的政策规定。', '6.贯彻执行党的干部路线、方针、政策，负责全市领导班子和干部队伍建设的宏观管理和综合协调工作；研究和指导领导班子及成员政治、组织、思想、作风、纪律建设；拟订干部队伍建设的政策规定，推进干部人事制度改革。', '7.负责对县级领导班子、领导干部的考察考核，提出调整、配备的意见和建议，办理市委管理干部的任免、交流、待遇及退休、离岗休养审批等事项；承担干部人事档案政策研究、业务指导和具体管理等工作；协助管理驻拉萨中直单位县级领导班子和领导干部；负责计划内军队转业干部安置工作；负责市直单位干部因公和党员因私出国（境）政审工作。', '8.综合管理培养选拔市委组织部掌握的优秀年轻干部、后备干部、少数民族干部、妇女干部和党外干部工作,组织开展做好县级干部的挂职锻炼等工作。', '9.统一管理公务员录用调配、考核奖惩、培训、职级管理和工资福利等事务，组织实施公务员管理政策和法律法规，指导全市公务员队伍建设和绩效管理，负责公务员的对外交流等。', '10.贯彻落实中央和自治区党委关于人才工作的方针政策；负责全市人才工作的牵头抓总、宏观指导、组织协调和督促检查工作；拟订并协调落实人才队伍建设规划，提出加强人才工作和人才队伍建设的意见和建议。', '11.贯彻党和国家的知识分子政策，负责拟订知识分子工作的有关政策规定，指导全市知识分子工作。', '12.负责全市干部教育培训工作。贯彻落实干部教育培训有关政策规定，拟订并组织落实干部教育培训规划；负责中央党校（国家行政学院）、自治区党委党校（自治区行政学院）、市委党校（市行政学院）等有关培训机构举办的相关班次的学员调训；负责对全市干部教育培训工作的指导、协调和检查，指导、协调国有企业经营管理人员的教育培训工作；指导干部培训基地、师资队伍和教材建设等工作；完善干部教育培训制度。', '13.拟订全市干部监督、审查的有关规定，负责市委管理干部的监督、审查工作；监督检查贯彻执行党的干部政策的情况，受理查核反映选人用人方面的问题并开展专项整治，防止和纠正选人用人上的不正之风。', '14.负责对口支援干部人才和医疗、教育人才组团式援藏综合管理工作；拟订对口支援干部人才需求计划并协调落实；会同派出单位做好对口支援干部人才的考察、考核工作并提出使用建议；拟订完善对口支援干部人才管理的制度和办法并指导和组织实施。', '15.贯彻执行中央关于行政管理体制、机构改革和机构编制管理的方针政策和自治区党委、市委的有关决策部署，研究拟订全市机构编制管理政策规定并组织实施。', '16.研究行政管理体制改革和相关领域涉及行政管理体制改革的重大问题，拟订全市行政管理体制和机构改革总体方案。指导、协调改革总体方案和“三定”规定的组织实施工作。', '17.统一管理全市各级党委、人大、政府、政协、纪委监委、法院、检察院、人民团体和群众团体的职责和机构编制工作。', '18.研究拟订全市事业单位改革方案并指导、协调方案的组织实施工作。研究拟订全市事业单位机构编制管理的政策规定和机构编制标准，负责事业单位的机构编制管理、登记管理、绩效评估和信用监管工作。', '19.监督检查全市行政管理体制和机构改革方案、机构编制政策法规、规定的执行情况，受理违反机构编制法规纪律的检举和投诉。负责全市机关、事业单位人员总量控制和机构编制实名管理工作。', '拉萨市委组织部（市委编办）老干部局本级15个内设机构（正科级）：办公室、研究室、组织一科、组织二科、干部一科、干部二科、干部监督科、干部教育科、公务员一科、公务员二科、人才工作科、机构编制综合科、机构编制管理科、政工人事科、老干部综合服务科。', '拉萨市委组织部（编办）老干部局本级下属7个事业机构，分别是：组织编制信息管理中心、党员电化教育中心、干部监督举办中心、人才研究中心、实名制管理中心、老干部活动中心、关心下一代联络服务中心。', '中共拉萨市委组织部本级、2022 年本单位政府采购预算158.28万元，是《拉萨市机构编制组织人事财政预算综合信息系统》项目款101.93万元及党员现代远程教育系统网络租赁费和托管费56.35万元。', '三、事业单位经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '四、机关运行经费：为保障行政单位（包括参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '五、其他收入：指除上述“一般公共预算拨款收入”、“事业收入”、“事业单位经营收入”等以外的收入。主要是按规定动用的售房收入、存款利息收入等。', '七、重点项目：重点项目：贯彻落实自治区党委、政府重大方针政策和决策部署的项目，覆盖面广、影响力大、社会关注度高、实施期长的项目，与本部门职能职责密切相关的项目或预算安排支出相对较大的项目（具体重点项目由各部门结合实际自行确定）。', '十、事业单位经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>259</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>王强率拉萨市代表团赴江苏回访考察携手推动援藏工作再上新台阶</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/ldhd/202304/ed91779ce2e14f67a0fd623e2ce2af32.shtml</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['王强率拉萨市代表团赴江苏回访考察 携手推动援藏工作再上新台阶_领导活动_拉萨市人民政府', '拉萨融媒讯（记者：次珍）4月26日至27日，市委副书记、市长王强率拉萨市代表团赴江苏省南京市、常州市回访考察，与两市市委市政府主要领导座谈，看望慰问常州西藏民族中学拉萨籍师生、参观考察文旅融合项目，深入学习借鉴对口兄弟城市好理念好经验好做法，共谋推进高质量发展大计，书写援藏交流合作新篇章。', '陈之常对代表团一行表示欢迎，表示南京市将以高度的责任感使命感做好新时代援藏工作，全面贯彻新时代党的治藏方略，在民生保障、产业合作、智力帮扶、交流交往等方面持续加大对口支援力度，助力墨竹工卡县经济社会高质量发展，努力为建设团结富裕文明和谐美丽的社会主义现代化新拉萨作出更大贡献。', '王强代表拉萨市委、市政府，代表自治区党委常委、拉萨市委书记普布顿珠，对南京长期以来对拉萨的无私援助和大力支持表示衷心的感谢，并致以崇高的敬意。他表示，南京近年来发展成绩令人鼓舞，各项工作走在前列，值得我们学习。希望双方以此次“圣洁拉萨·茉莉格桑共芬芳”高铁冠名列车首发仪式为契机，继续深化产业协作、文旅融合、人才交流等领域合作，为繁荣拉萨经济发展注入更大的生机与活力。', '常州西藏民族中学是江苏省为落实国务院“智力援藏”精神，于1985年创办的首批内地西藏初中学校之一，现有12个教学班，471名学生，办学36年来，4000多名毕业生已成为建设社会主义新西藏的中坚力量。4月27日，王强一行来到学校，对为培养西藏孩子默默奉献的所有教师表示衷心感谢，并亲切看望慰问拉萨籍在校师生，勉励孩子们好好学习，学成后建设家乡、报效祖国；希望老师们继续弘扬高尚师德，潜心立德树人，为国家和社会培养出更多有用人才。', '在常州市期间，王强一行还来到青果巷历史文化街区等项目，实地考察学习文旅融合项目运营管理情况。代表团表示，将认真学习、积极借鉴常州市文旅融合成功经验做法，推动文旅多路径融合，高质量发展。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>259</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>市政府新闻办举行墨竹工卡县第三届格桑花开南京墨竹周活动新闻发布会</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2021-10-25</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/xwfbh/202110/67ea29ccb7d0482e9bb7a933340f51ae.shtml</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['市政府新闻办举行墨竹工卡县第三届“格桑花开·南京墨竹周”活动新闻发布会_新闻发布会_拉萨市人民政府', '江苏省对口支援西藏拉萨市前方指挥部党委副书记、副总指挥潘文卿，南京市第九批对口支援墨竹工卡县工作组组长、墨竹工卡县委常务副书记、常务副县长', '为深入贯彻落实习近平总书记在西藏考察时重要讲话精神和中央第七次西藏工作座谈会及中央民族工作会议精神，全方位展示墨竹工卡县发展和南京援建26周年来的成果，进一步推动宁墨交往交流，深化两地友好协作，传播幸福墨竹、推介生态墨竹、营销潜力墨竹、讲好墨竹故事，促进宁墨两地人民相互了解、加深援建友谊，巩固深化“宁墨一家亲”，在2019年、2020年成功举办两届“格桑花开·南京墨竹周”', '为深入贯彻落实习近平总书记在西藏考察时重要讲话精神和中央第七次西藏工作座谈会及中央民族工作会议精神，全方位展示墨竹工卡县发展和南京援建', '”，三届南京墨竹周从相遇、相识到相知，成为南京墨竹两地同唱宁墨歌、共叙宁墨情的重要平台，成为新时期“融合式”援藏的重要品牌，开创了新时代交往交流交融的新局面。', '新闻发布会；“宁墨情·共发展”墨竹工卡县党政代表团赴宁考察学习；“天边墨竹最西藏”净土产品与文化博览会；“遇见夜金陵·筑梦新墨竹”宁墨嘉年华——秦淮、六合、高淳分会场活动；天边墨竹·幸福“油”你——墨竹小菜籽油营销与认购；第三届“万人墨竹探亲游”推介；天边墨竹·藏式生活馆（高淳）开馆；《在天边》纪录电影首映式暨研讨会；第三届“格桑花开大学生就业创业特训营”；“宁墨情·共筑梦”第三届墨竹工卡县农牧民群众看南京；“宁墨情·医公益”爱心医治南京行；“宁墨情·共发展”墨竹工卡县党政干部乡村振兴培训班（第三期）；“携手与‘宁’·‘墨’契共赢”发展恳谈会；“宁墨情深·扎西德勒”——天边墨竹最西藏文艺展演暨第三届“格桑花开·南京墨竹周”闭幕式；成果媒体通报会等。', '相较于前两届南京墨竹周，第三届南京墨竹周立意更深远、活动内容更丰富、表现形式更多样、社会参与面更广泛，此次活动具有以下四个特点：', '今年是“十四五”开局之年，也是墨竹工卡以及西藏巩固拓展脱贫攻坚成果与乡村振兴有效衔接的起始之年，为深入贯彻落实习近平总书记在西藏考察时的重要讲话精神和中央第七次西藏工作座谈会精神以及总书记“大力发展高原特色产业，积极培育新兴产业”的指示要求，本届墨竹周创新举办“天边墨竹最西藏”净土产品与文化博览会，拉萨及西藏110家特色产业企业及合作社参展，参展产品品类多达1080种，这也是西藏特色产业和文化第一次大规模、组团式赴区外展示展销。', '为落实中央民族工作会议精神，南京墨竹周举办更加突出了两地在理想、信念、情感、文化上的团结统一、守望相助、手足情深，形成了人心凝聚、团结奋进的强大精神纽带。本届墨竹周将推出墨竹首部反映生态、文化与历史人文以及全面建成小康社会后幸福生活的记录电影《在天边》，推出“天边墨竹最西藏”文化展演活动，以凝聚起“建设美丽幸福西藏，共圆伟大复兴梦想”的强大动力。', '为落实中央民族工作会议精神，南京墨竹周举办更加突出了两地在理想、信念、情感、文化上的团结统一、守望相助、手足情深，形成了人心凝聚、团结奋进的强大精神纽带。本届墨竹周将推出墨竹首部反映生态、文化与历史人文以及全面建成小康社会后幸福生活的记录电影《在天边》，推出', '格桑花开大学生就业创业特训营、农牧民群众看南京、党政干部乡村振兴培训班、爱心医治南京行、发展恳谈会、万人探亲游、援藏成果展等活动，今年均是第三届，', '“天边墨竹”小菜籽油营销，今年是第二届，这些均已成为南京墨竹周交往交流交融的重要品牌活动。', '经过前两届南京墨竹周的成功举办，第三届墨竹周精心筹备，南京墨竹周的平台效应正在体现，平台能级不断提升，凝聚了南京、拉萨两地党政、企事业单位和社会各界的资源和力量，巩固拓展了在文化旅游、产业发展、就业创业、人才培养、智志双扶、消费帮扶、医疗教育、爱心公益等方面的交往交流交融，不断开创宁墨合作与援藏工作的新局面。', '的简要介绍。感谢各位新闻媒体对南京墨竹周的关注和报道，感谢大家对江苏援藏、南京援藏的大力支持，更期待大家能到南京亲身体验南京墨竹周的精彩，感受“南京墨竹一家亲”的宁墨情谊。', '的简要介绍。感谢各位新闻媒体对南京墨竹周的关注和报道，感谢大家对江苏援藏、南京援藏的大力支持，更期待大家能到南京亲身体验南京墨竹周的精彩，感受', '由墨竹简介、26周年援藏成果展、非遗文化展、墨竹净土产品展示展销及墨竹26美景展和墨竹旅游推介等部分组成。', '本次博览会邀请了110家在西藏、在拉萨有影响力、有代表性的特色产业企业和合作社参展，包括网红企业玛吉阿米、阿刁奶茶、藏缘青稞等。', '本次博览会是西藏特色产业第一次大规模、组团式赴区外参展，参展产品品类多达1080种、价值3150万元，基本上将西藏特色产品“一网打尽”。整个展馆分为天上净土美食、民族文化手工、藏医药保健、西藏特色用品以及青稞制品、酒类饮品等展区，设立4个直播间全天直播，分别承担特色产品推介、墨竹旅游推广、小菜籽油带货、博览会实况直播等。', '本次博览会主题是“在南京遇见西藏”，展会进行街景式布展，突出营造浓郁的西藏风情，让南京市民有“走进南京博览中心逛拉萨八廓街”的观展体验。主办方希望将其办成西藏区外版的“藏博会”，成为江苏产业援藏、消费援藏的新平台，促进苏拉商贸合作交流。', '本次博览会在展示展销的同时，突出了互动体验，每天设定一个主题，分有开馆日、非遗日、美食日、文旅日、生活日等，每天都有墨竹工卡艺术团的文艺展演、特训营大学生跳锅庄舞展演，以及美食体验，藏香制作、藏文书法等非遗文化互动，藏装体验、拍照打卡等。去年南京墨竹周网红产品“墨竹小菜籽油”今年也将换装升级，在博览会上闪亮登场，开展系列营销与体验活动。', '本次博览会在展示展销的同时，突出了互动体验，每天设定一个主题，分有开馆日、非遗日、美食日、文旅日、生活日等，每天都有墨竹工卡艺术团的文艺展演、特训营大学生跳锅庄舞展演，以及美食体验，藏香制作、藏文书法等非遗文化互动，藏装体验、拍照打卡等。去年南京墨竹周网红产品', '媒体朋友们，以上是本届博览会的介绍，期待大家广泛报道，让我们一起“走进南京博览中心逛拉萨八廓街”，一起领略天上好礼、高原特产、西藏风情，一起“在南京遇见西藏”。', '，一直将交往交流交融、推进苏拉两地合作、促进民族团结作为重要抓手，举办了“苏拉一家亲', '迎春高原情”净土产品展销会等一系列有意义、有特色、有成效、有影响的活动，不断探索“融合式”援藏的新路径。', '潜力墨竹，让更多的人了解到雪域高原天边之乡的“援藏故事”“墨竹故事”“民族故事”。', '推动了援藏工作从党政交流、对口支援变成全社会力量的深度参与，向全方位、多层次、宽领域纵深推进。', '年，是中国共产党成立100周年、西藏和平解放70周年，是建设社会主义现代化新西藏的开局之年，也是南京市对口支援墨竹工卡县的26周年。', '26年来，南京市委、市政府始终从维护祖国统一、增进民族团结的高度出发，从组织领导、干部选派、资金筹措、项目实施、人力智力帮扶', '方面卓有成效地开展工作，宁墨两地的交往越来越频繁、越来越密切，形成了你中有我、我中有你的浓厚民族交融氛围。', '进入新时期，两地人民对全方位、多层面、宽领域的交往交流交融的需求越来越强烈。“南京墨竹周”', '，呼应了两地群众的热切期盼，既是贯彻落实习近平总书记在西藏考察调研时的重要讲话精神、中央第七次西藏工作座谈会精神', '我们希望通过“南京墨竹周”这样的形式，汇聚党政、企业及社会各界的资源和力量，搭建一个开放式共享平台，集中展示墨竹的文化历史、美食美景、经济发展以及风土人文等，', '主要有这么几类：一是以墨竹小菜籽油、青稞面、青稞啤酒、斯布牦牛肉、藏药、虫草等藏药材为代表的农特产品；二是以塔巴陶瓷、直孔藏香、唐卡、藏刀、藏式书法为代表的非遗文创产品；三是以西藏自治区著名的网红餐饮企业玛吉阿米、阿刁奶茶为代表的一批网红店也将一同参与我们此次的', '地的产业合作、消费协作等方面的交流，能否请您介绍下“十四五”江苏援藏在产业援藏和协作上有什么计划和安排？', '感谢媒体朋友们的提问！一直以来，江苏援藏始终紧扣拉萨实际，突出产业援藏龙头作用，聚焦特色产业，对接江苏产业优势，打造产业援藏金字招牌，为拉萨高质量发展蓄能。“十三五”期间，共安排支援拉萨资金19.2亿元、实施援藏项目186个，建成了一批带动力强、受益面广、影响力大的项目，助力拉萨打赢脱贫攻坚战、和全国一道迈入全面小康社会。', '感谢媒体朋友们的提问！一直以来，江苏援藏始终紧扣拉萨实际，突出产业援藏龙头作用，聚焦特色产业，对接江苏产业优势，打造产业援藏金字招牌，为拉萨高质量发展蓄能。', '“十四五”期间，江苏共安排援藏项目132个，总投资21.89亿元，其中80%以上资金用于保障和改善民生，80%以上资金用于基层项目。今年是实现“十四五”规划的开局之年，开局关系全局，起步决定后势，良好的开端是成功实现“十四五”规划的关键。我们的具体目标为“五个更加”：', '一是产业支援促进就业更加有力。立足援受双方经济互补性强的特点，助力拉萨园区平台建设，开展精准招商对接，提供资源要素支持，培育壮大新型经营主体，继续扶持引导净土健康、文化旅游等特色产业做精做强。比如，“双创”产业基地建设、牦牛和蔬菜产业培育发展项目、小微企业孵化基地建设、拉北环线公路建设等，都是“十四五”期间江苏产业援藏的重要项目。这次“南京墨竹周”期间，举办“天边墨竹最西藏”净土产品与文化博览会，就是我们南京援藏工作组作出的积极探索。与此同时，我们将举办南京国际消费品博览会 “拉萨特色商品展”专场活动，精选拉萨20家企业，携带各种名优特色产品参加展会，开展产销对接、直播带货、非遗展示等活动，帮助拉萨企业开拓长三角市场，与江苏企事业单位建立长期合作关系。', '一是产业支援促进就业更加有力。立足援受双方经济互补性强的特点，助力拉萨园区平台建设，开展精准招商对接，提供资源要素支持，培育壮大新型经营主体，继续扶持引导净土健康、文化旅游等特色产业做精做强。比如，', '二是民生保障服务水平更加稳定。我们将始终把民生保障作为重中之重，聚力农牧区群众生产生活条件改善，聚焦基层公共卫生和医疗服务体系建设，加快建设一批群众看得见、摸得着、用得上的实事项目，实施“美丽乡村·幸福家园·生态宜居”建设、“溪桥工程”、“幸福路工程”、“邻里服务中心”建设、人民医院手术室改造提升工程等一批让拉萨各族群众得实惠的援藏成果。多渠道拓展就业创业岗位，让更多群众能够就近就便就业，切实巩固拓展脱贫攻坚成果。', '二是民生保障服务水平更加稳定。我们将始终把民生保障作为重中之重，聚力农牧区群众生产生活条件改善，聚焦基层公共卫生和医疗服务体系建设，加快建设一批群众看得见、摸得着、用得上的实事项目，实施', '三是人才智力支援合作更加深化。我们将牢固树立人才是第一资源观念，以发展需求为导向、提升素质为核心、优化结构为主线，创新智力支援方式，拓展智力支援渠道，实施专业技术、企业人才和农牧民实用技能人员培养培训项目，帮助拉萨培养一支本地化、高素质、带不走的干部人才队伍，为拉萨的长治久安和高质量发展提供有效支撑。', '四是文化教育支援成果更加丰富。我们将推动实现苏拉两地文化交流互鉴，增强两地各族群众对伟大祖国、中华民族、中华文化、中国共产党、中国特色社会主义的高度认同，铸牢中华民族共同体意识。支持拉萨改善乡村学校办学条件，提升职业教育水平，实现基本公共教育资源更加优质均衡发展。', '五是民族交往交流交融更加深入。我们将充分发挥桥梁纽带作用，促进拉萨优秀青少年、乡村干部、致富带头人、民族团结模范、社会各界代表等与江苏各界深化交流，不断丰富苏拉交流交往的形式和载体，巩固领导高度重视、部门鼎力支持、全社会积极参与的对口支援工作良好局面。', '总之，江苏援藏团队将在“十四五”期间，坚持系统观念，科学实施项目；坚持民生优先，推进乡村振兴；坚持产业为重，壮大特色经济；坚持深度融合，促进交往交流，为“建设美丽幸福西藏，共圆伟大复兴梦想”书写新篇章、作出新贡献。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>259</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>宁墨情共筑梦第三届农牧民群众看南京活动启动</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2021-11-08</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/202111/1fbd463f202c4c18823b6d9d7ead939a.shtml</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['拉萨融媒南京电（记者德吉措姆、旦增晋扎）为深入贯彻落实习近平总书记在西藏考察时的重要讲话精神和中央第七次西藏工作座谈会精神，巩固拓展脱贫攻坚成果与乡村振兴有效衔接，延续第一届、第二届南京墨竹周的成果，近日，“宁墨情·共筑梦”第三届农牧民群众看南京活动启动仪式在南京国际博览中心举行。', '据了解，“宁墨情·共筑梦”第三届墨竹工卡县农牧民群众看南京活动是在2019年、2020年两届农牧民群众看南京活动基础上的续写，通过参观南京美丽乡村建设、乡村振兴实施、资源开发利用、文化产业发展等，让墨竹工卡县农牧民群众代表开拓眼界，感受南京发展和变化，学习南京先进的做法，形成“你中有我、我中有你”的团结氛围，进一步铸牢中华民族共同体意识，为墨竹工卡县经济社会发展提供强大动力。', '此次农牧民群众看南京活动将持续5天时间，由墨竹工卡县建档立卡户、致富带头人、人大代表、政协委员等12人组成的代表团，前往南京市各区参观学习。', '能获得代表墨竹工卡县农牧民群众到南京考察学习的机会，旦增次仁感到非常高兴，他说：“自南京市对口支援墨竹工卡县以来，墨竹工卡县经济社会发生了翻天覆地的变化，而举办南京墨竹周，进一步拉近了宁墨两地人民的情谊。”', '活动结束后，墨竹工卡县代表团成员将组成宣讲队伍，赴墨竹工卡县41个村（居）进行巡回宣讲，把所见所学传达给更多群众，让更多农牧民群众感知国家的发展，进一步增强“五个”认同，铸牢中华民族共同体意识，促进宁墨、汉藏民族交往交流交融。', '又讯遇见夜金陵，筑梦新墨竹。11月3日晚，宁墨嘉年华活动在南京夫子庙历史文化街区启幕。下午7时，夫子庙历史文化街区华灯初上，游人如织。大成殿门前，一首代表宁墨两地手足情深的《南京墨竹一家亲》歌曲吸引了众多市民和游客驻足欣赏。一段极具藏民族文化气息的歌舞表演《多彩的哈达》正式拉开了嘉年华序幕。', '“遇见夜金陵·筑梦新墨竹”宁墨嘉年华是第三届“格桑花开·南京墨竹周”的系列活动之一，同时也是南京“遇见夜金陵”夜间文化品牌活动之一。日前，“天边墨竹最西藏”净土产品与文化博览会的参展商们也来到了现场，一个个摆满民族特色产品的摊位吸引了来往的市民游客，产品的出售成为汉藏民族交流的有效渠道，而好的产品，也拉近了彼此间的距离，建立起可以信赖的美好友谊。', '墨竹工卡县扎西岗乡扶贫开发巴洛藏鸡养殖有限公司总经理查果拉姆告诉记者：“今年是第三届南京墨竹周，前两年我都参加了，鸡蛋卖得很好，今年带了三万多颗鸡蛋，挣到了三万六千多元，行情很好，很多也都是老顾客。”', '据悉，第三届“格桑花开·南京墨竹周”期间，“遇见夜金陵·筑梦新墨竹”宁墨嘉年华接下来还将走进六合区，让更多市民感受南京和墨竹交往交流交融的魅力。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>259</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>普布顿珠主持召开市委常委会扩大会议传达学习习近平总书记近期重要讲话重要批示精神等听取近期重点工作情况汇报安排部署相关工作</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-04-23</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/ldhd/202304/594203f728e74184af0cf53f410ee1ac.shtml</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['普布顿珠主持召开市委常委会（扩大）会议 传达学习习近平总书记近期重要讲话重要批示精神等听取近期重点工作情况汇报安排部署相关工作_领导活动_拉萨市人民政府', '普布顿珠主持召开市委常委会（扩大）会议 传达学习习近平总书记近期重要讲话重要批示精神等听取近期重点工作情况汇报安排部署相关工作', '拉萨融媒讯（记者范江英）4月21日下午，自治区党委常委、市委书记普布顿珠主持召开市委常委会（扩大）会议，传达学习习近平总书记在广东考察、视察南部战区海军时的重要讲话精神和致云南大学建校100周年的重要贺信精神，中共中央关于学习《习近平著作选读》第一卷、第二卷的通知精神，王君正书记近期有关讲话、批示精神，研究我市贯彻意见；听取当好“七个排头兵”、实施“强中心”战略，推进“强看齐”行动、在坚定捍卫“两个确立”、坚决做到“两个维护”上当好排头兵，推进“强经济”行动、在着力创建高原经济高质量发展先行区上当好排头兵及中央第十巡视组和区党委第一巡视组反馈意见、九届市委巡察和十届市委第一轮巡察发现问题整改工作情况汇报，安排部署相关工作。', '会议强调，要认真学习领会习近平总书记重要讲话、重要贺信精神，与学习贯彻习近平新时代中国特色社会主义思想主题教育结合起来，与学习贯彻习近平总书记关于西藏工作的重要指示和新时代党的治藏方略结合起来，坚决对标对表，狠抓贯彻落实。要聚焦全面深化改革，承接落实党和国家机构改革，持续推进重点领域改革，不断深化对外交流合作。要聚焦“全区科技创新中心”目标，努力在科技助力高质量发展上展现更大作为。要聚焦全区“七大产业”、市“三个百廊”建设，一体推进招大商、建园区、扶企业、育实体，着力构建具有拉萨特色、比较优势的现代产业体系。要聚焦区域协调发展、促进共同富裕，大力推进城市更新、乡村振兴，切实增进人民群众福祉。要聚焦全力支持部队建设，扎实做好服务保障，推进“强后方”行动、在着力创建国家固边兴边富民行动示范区上当好排头兵上取得新的更大成效。', '会议强调，要把学习贯彻好《习近平著作选读》作为重要政治任务，及时进行征订，纳入主题教育必读书目，纳入各级党委（党组）理论学习中心组学习计划，纳入各级党校、干部培训教学重要内容，多学多思、学深悟透，切实把学习成效转化为做好本职工作、推动事业发展的生动实践。', '会议强调，要深入贯彻落实王君正书记近期有关讲话、批示精神，持续抓好党校工作，紧扣“为党育才、为党献策”党校初心，扎实做好调查研究、建言献策、智库建设等工作，不断提升党校服务全市中心工作水平。持续抓好藏医药发展，大力实施藏医药保护传承工程，积极探索“藏医药 ”产业新模式，推进藏医药现代化、产业化。持续抓好林长制工作，统筹抓好严守底线、国土绿化、管理保护、富民增收等工作，推动林长制从有名有实向有能有效转变。持续抓好退役军人工作，弘扬双拥光荣传统，推动“三个体系”建设，做实做细保障服务，推进全市退役军人工作高质量发展。', '会议指出，实施“强中心”战略、推进“七大行动”是贯彻落实王君正书记关于拉萨工作“当好七个排头兵”指示精神的重要举措，必须坚定不移、苦干实干、久久为功，向王君正书记和区党委、全市各族干部群众交出一份满意答卷。', '要进一步提高站位、统一思想，始终把责任扛在肩上、把任务抓在手里、把调度落在实处，强力攻坚、严格督导，确保各项工作月月有进展、季季见实效、全年大突破。要大力实施“强看齐”行动，牢固树立“看首府首先从政治上看”的意识，深入宣传贯彻党的二十大精神，扎实开展主题教育，巩固拓展“感悟领袖风范、锤炼过硬作风”等活动成果，在坚定捍卫“两个确立”、坚决做到“两个维护”上当好排头兵。要大力实施“强经济”行动，保持战略定力、坚定发展信心，持续做好项目建设、招商引资、产业发展、扩大内需、稳定就业、改善民生等各项工作，着力补短板、强弱项、固底板、扬优势，确保实现“半年好、全年旺”，在着力创建高原经济高质量发展先行区上当好排头兵。', '会议强调，要认真贯彻王君正书记指示精神，坚持从政治上看待巡视巡察、从政治上落实整改工作，突出问题导向，以最坚定的态度、最强烈的担当、最有力的举措推动整改走深走实，确保整改不到位不放过、成效不明显不放过。要坚持全面从严治党，深化政治巡察，始终把发现问题、形成震慑、推动改革、促进发展贯穿到巡察工作各方面全过程，以自我革命精神持续推动党风廉政建设和反腐败斗争。要做实巡视巡察“后半篇文章”，通过解决一批问题、形成一批经验、完善一批制度，推动巡视巡察工作高质量发展。', '会议听取了赴北京考察学习基层治理工作情况汇报。强调，要深入学习贯彻习近平总书记关于基层治理重要指示精神，按照王君正书记系列要求，坚持党建引领，突出网格化管理、精细化服务、信息化支撑，运用好北京先进经验做法，紧扣“强治理”行动，聚焦区划优化、多网合一、治理创新、队伍培养、基础保障，加快优化完善基层治理“1 N”制度体系，全力以赴推动“基层治理年”取得实效。', '会议强调，要严格按照青年发展型城市建设试点实施方案要求，聚焦“让城市对青年更友好、让青年在城市更有为”，着力构建青年需求期盼的“七大环境”，打造更多富有时代特征、青年特色、拉萨特点的城市名片，为拉萨长治久安和高质量发展凝聚青年力量、汇聚青春活力。', '会议对近期重点工作安排部署。强调，要巩固好安定和谐局面，坚持警钟长鸣、警惕常在，盯住重要节点、重点人员，突出重点领域、重要部位，坚决守住不出事的底线。要保持好良好发展态势，巩固拓展一季度经济发展成果，持续加强统筹调度、加大工作力度，确保实现“双过半”，为完成全年既定目标任务打下坚实基础。要攻坚好重大活动项目，坚持文旅体深度融合，策划带动能力强的活动和项目，以全要素保障攻坚一批重大打基础、利长远的产业和项目，为高质量发展提供有力支撑。要研究好影响大局难题，坚持依法依规，以敢担当、善攻坚、负责任的魄力和态度，在充分保障群众合情合理合法权益前提下，全力以赴解决各类堵点难点痛点问题。要排查好重大安全隐患，突出医院、道路交通、消防、非煤矿山、建筑施工等领域，立即开展一次全方位隐患排查整治，坚决预防和遏制重特大安全生产事故。要推动好基层治理工作，以改革创新和制度建设为抓手，加快完善基层治理体系，全面提升基层治理能力。要培育好营商环境高地，持续深化“上门服企助企日”，用心用情解决企业生产经营困难问题，真正让“投资西藏、首选拉萨”广泛知晓、深入人心、深切感受。要严守好节日前后纪律，始终把中央八项规定作为长期有效的铁规矩、硬杠杠，驰而不息纠“四风”树新风，以良好节日风气赢得各族群众信任信赖。要践行好为民服务宗旨，坚持大兴调查研究，扎实开展主题教育，深化“四联四包”工作，特别要对领导干部“接访日”、“上门服企助企日”反映的相关问题认真研究解决，确保事事有着落、件件有回音，不断增进人民群众的获得感幸福感安全感。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>259</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>市政府新闻办召开拉萨市全面提升福利机构管理服务水平新闻发布会</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2020-11-24</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/xwfbh/202011/e8a9230355fc4a0680664df51497c6e1.shtml</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['市政府新闻办召开拉萨市全面提升福利机构管理服务水平新闻发布会_新闻发布会_拉萨市人民政府', '11月24日上午，市政府新闻办组织召开拉萨市全面提升福利机构管理服务水平新闻发布会。发布会由市委宣传部副部长董庚云主持，市民政局党组副书记、局长、新闻发言人白玛玉珍作新闻发布，市民政局党组成员、市儿童福利院院长诺布卓玛、市民政局社会福利和社会事务科科长鲁生共同出席并回答记者提问。', '，大家上午好。今天，拉萨市政府新闻办组织召开拉萨市全面提升福利机构管理服务水平新闻发布会，就有关工作情况向全市进行通报。我们邀请了市民政局党组副书记、局长白玛玉珍、市民政局党组成员、市儿童福利院院长诺布卓玛、市民政局社会福利和社会事务科科长鲁生出席本次新闻发布会。', '媒体朋友们，大家上午好！首先，非常感谢各位朋友对拉萨市福利机构标准化建设工作的关注和关心。', '自2013年以来，在区、市党委政府的正确领导下，在区民政厅的精心指导下，根据《关于全面推进五保集中供养和孤儿集中收养工作的意见》（藏政发〔2013〕59号）精神，拉萨市在全区率先圆满完成“双集中”工作任务，通过“双集中”工作，“硬环境”有了明显改善，以“双集中”为基础建立起了民生保障新模式，提高了民政公共服务管理和保障能力，促使特困人员更有幸福感、获得感和安全感。与此同时，我们也清醒地认识到，服务质量水平这一“软环境”亟待改观，福利机构开展标准化体系建设工作势在必行。', '民生是人民幸福之基，社会和谐之本。民生关乎发展稳定，民生关乎人民福祉。拉萨市福利机构开展标准化体系建设工作是现代民政工作健康、持续发展的必然趋势，是以制度为基础、以细节取胜、以标准为尺度,以提高管理水平、提升服务质量、规范机构运行为目标，不断提高福利机构管理标准化水平和工作人员对标准执行能力的重要举措。', '民生是人民幸福之基，社会和谐之本。民生关乎发展稳定，民生关乎人民福祉。拉萨市福利机构开展标准化体系建设工作是现代民政工作健康、持续发展的必然趋势，是以制度为基础、以细节取胜、以标准为尺度', '（二）措施形式多样，助推工作落实。为促使拉萨市福利机构标准化建设试点工作开花结果，拉萨市民政局通过制定工作方案、引进智力援藏机制、开展试点工作、召开动员部署会、定期召开工作推进例会、建立标准化建设工作微信交流群、开展机构间交叉检查、标准化工作骨干轮岗、加大宣传、开展标准化工作培训、翻译各类标准、赴北京和江苏考察学习、实施岗位绩效考核试点、开展标准化岗位技能竞赛等举措，助推标准化工作有序落实。', '（三）量体裁衣撰写，实现科学合理。为适应福利机构标准化工作新形势，要求标准化工作办公室工作人员通过对福利机构的走访调研，对管理服务人员各自岗位责任、工作流程进一步梳理分析，按照权责一致、权力制约的原则对岗位设置和岗位分工进行优化，从行动到反思，再落实到行动，持续改进与不断完善，形成一个成长与进步的闭环，从而实现自身最快速的进步与成长，真正做到“写我所做，做我所写”。最终实现岗位科学合理、步骤清晰流畅、程序简化明确，建立完备的岗位责任体系，目前共撰写标准175个（儿童类87个，养老类88个）。', '（三）量体裁衣撰写，实现科学合理。为适应福利机构标准化工作新形势，要求标准化工作办公室工作人员通过对福利机构的走访调研，对管理服务人员各自岗位责任、工作流程进一步梳理分析，按照权责一致、权力制约的原则对岗位设置和岗位分工进行优化，从行动到反思，再落实到行动，持续改进与不断完善，形成一个成长与进步的闭环，从而实现自身最快速的进步与成长，真正做到', '（一）福利机构各项管理工作迈向新台阶。拉萨市各福利机构的日常管理、环境卫生、消防安全、食品药品安全以及服务水平等工作初步达到各级党委政府的要求和期望值，筑牢了福利机构安全生产工作防线。', '（二）服务对象个人行为习惯有明显改观。特困人员的陈旧思想观念予以转变，陈规陋习得以消除，积极倡导了文明行为习惯，传递了正能量，确保特困人员居住的幸福，绘出民生温暖画卷。', '（三）服务人员对标准化的认知渐入佳境。从起初的闻所未闻甚至格格不入，转变为欣然接受，再到目前的学懂弄通、从而最终达到“写我所做，做我所写”，促使福利机构管理服务水平不断提升。', '（三）服务人员对标准化的认知渐入佳境。从起初的闻所未闻甚至格格不入，转变为欣然接受，再到目前的学懂弄通、从而最终达到', '更值一提的是：一是于2018年11月，拉萨市福利机构标准化建设试点工作评估验收专家组一致同意拉萨市福利机构标准化建设试点工作顺利通过评估验收，确定上升为拉萨市福利机构的行业标准，可将部分宣贯非常成熟的标准申请上报为地标；二是积极协调区、市市场监督管理局，在西藏自治区企业标准信息公共服务平台有序发布了《膳食服务规范》、《家庭休闲服务规范》、《家庭卫生服务规范》等16个服务规范，切实加大了各类标准的宣传推广力度；三是拉萨市达孜区特困人员集中供养服务中心于2019年10月，以93.5分的优异成绩顺利通过第五批国家级社会管理和公共服务标准化试点项目验收，意味着达孜区特困人员集中供养服务中心成为西藏首个国家级养老服务业标准化单位，标志着我市的养老服务质量迈入标准化管理新时代。', '标准化建设工作永远在路上。在今后的工作中，拉萨市民政局将认真贯彻落实十九届五中全会和中央第七次西藏工作座谈会有关标准化建设工作精神，以习近平总书记对民政工作的重要指示为指引，以“大民政”理念为纲领，督促各福利机构紧盯短板，以问题为导向，进一步树牢标准化工作理念，实现标准体系不断推进，努力提高服务质量和群众满意度，从而切实提升服务对象的获得感和幸福感，为全区社会福利事业的健康、持续发展谱写拉萨新篇章。', '标准化建设工作永远在路上。在今后的工作中，拉萨市民政局将认真贯彻落实十九届五中全会和中央第七次西藏工作座谈会有关标准化建设工作精神，以习近平总书记对民政工作的重要指示为指引，以', '发言人您好。我想请问一下，拉萨市福利机构标准化建设工作何时启动的，设立了哪些试点单位？', '拉萨市福利机构标准化建设工作于2017年9月启动。申报国家级试点1个，即达孜区特困人员集中供养服务中心；市级试点5个，即拉萨SOS儿童村、拉萨市儿童福利院、拉萨市社会福利院、达孜区特困人员集中供养服务中心和林周县特困人员集中供养服务中心。谢谢。', '开展福利机构标准化建设工作有利于有效控制服务过程和服务质量，化解各类安全风险。以标准体系为指导，结合具体情况制定各项服务流程，使工作人员在规范其服务流程的基础上，又满足特困人员的个性化需求，有利于提升福利机构服务质量。有效解决观念陈旧、人员臃肿、流程无序、工作随意等问题和弊端，标准化建设和运用将明确岗位工作内容和工作标准、责任，实现模块管理制和岗位管理制相结合，合理分配工作内容和权限，工作有流程，事事有人管，明确责任权利，在工作有序开展的同时，促进管理体制的完善和提升，从而提升特困人员的安全感、幸福感和获得感。', '主要以下方面的问题，一是各福利机构中非在编工作人员整体文化水平偏低，致使标准化建设工作推进缓慢；二是标准化工作属一项全新型的工作，极个别服务对象和工作人员对工作的开展存在不认同、陌生、不配合的态度，制约了标准化工作进程；三是地方财政对标准化工作的实施无专项资金，导致标准化工作执行力减弱等。谢谢。', '下步，我局将认真贯彻落实十九届五中全会和中央第七次工作座谈会关于做好民生工作的相关部署，在常态化推进标准化建设的同时，一是进一步结合工作实际，简化完善各类标准，真正实现“写我所做，做我所写”，简便易学；二是制作岗位标准化工作手册，切实明确各岗位“做什么”、“如何做”、“达到什么效果”；三是结合各岗位工作实际、通过“走出去、请进来”等方式开展培训，进一步提升管理服务人员的综合素质水平，最大限度地激发工作人员的热情和积极性。', '下步，我局将认真贯彻落实十九届五中全会和中央第七次工作座谈会关于做好民生工作的相关部署，在常态化推进标准化建设的同时，一是进一步结合工作实际，简化完善各类标准，真正实现', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>259</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>市政府新闻办召开墨竹工卡县第二届格桑花开南京墨竹周活动新闻发布会</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2020-10-30</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/xwfbh/202010/43869efd03884a98aaf1d4d9817b0bd5.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['市政府新闻办召开墨竹工卡县第二届“格桑花开·南京墨竹周”活动新闻发布会_新闻发布会_拉萨市人民政府', '10月30日上午，市政府新闻办召开墨竹工卡县第二届“格桑花开·南京墨竹周”活动新闻发布会，介绍南京墨竹周活动及本届南京墨竹周活动筹备情况。墨竹工卡县委常务副书记、常务副县长施勇君作活动介绍，县委常委、副县长陈亮作新闻发布，市委宣传部副部长董庚云主持。', '10月30日上午，市政府新闻办召开墨竹工卡县第二届“格桑花开·南京墨竹周”活动新闻发布会，介绍南京墨竹周活动及本届南京墨竹周活动筹备情况。墨竹工卡县委常务副书记、常务副县长施勇君作活动介绍，', '各位新闻界的朋友、嘉宾朋友们、同志们，大家上午好！下面，我代表活动筹备组从四个方面向大家简要介绍“南京墨竹周”。', '各位新闻界的朋友、嘉宾朋友们、同志们，大家上午好！下面，我代表活动筹备组从四个方面向大家简要介绍', '南京墨竹周，简单来说，就是我们用一周的时间在南京全方位展示墨竹工卡县。我们对南京墨竹周的定位有三个：第一个，它是一个宁墨两地交往交流交融的周；第二个，它是一个推动藏汉民族团结的周；第三个，它是一个开放共享的周。', '2019年11月，首届“南京墨竹周”在南京举办，是我们的第一次尝试，我们举办了包括文化交流展演、招商推介、美食节、万人墨竹探亲游、“格桑花开”大学生就业创业特训营、藏族同胞探亲看南京、爱心救治患病儿童等10项活动，线上线下参与人次突破百万，取得了较好成效，实现了传播墨竹、推介墨竹、营销墨竹，让更多人了解了发生在雪域高原天边之乡的“援藏故事”“墨竹故事”“民族故事”。', '1995年，按照中央第三次西藏工作座谈会精神，南京市开始对口支援墨竹工卡县。25年来，南京市委、市政府始终从维护祖国统一、增进民族团结的高度出发，从组织领导、干部选派、资金筹措、项目实施、人力智力帮扶方面卓有成效地开展工作，宁墨两地的交往交流交融越来越频繁、越来越密切，形成了你中有我、我中有你的浓厚民族交融氛围，拓展了全方位、多层次、宽领域的援藏工作格局。在南京市社会各界的无私支援下，墨竹县从全区有名的贫困县，蜕变为全区的税收大县、矿业大县、产业强县，撤县设市工作有序推进。脱贫攻坚连续2年被评为自治区级优秀。2018年，墨竹工卡县实现脱贫摘帽，全县经济发展、民生保障、基础设施尤其是医疗卫生、环境保护、教育事业等工作在区市领先，墨竹工卡县迈出了与全国各地一道同步实现全面小康、开启社会主义现代化建设征程的有力步伐。', '当前，援藏工作也处在承前启后、继往开来的关键时期。进入新时期，两地人民对更全方位、更多层面、更宽领域的交往交流交融的需求越来越强烈，尤其是两地百姓之间的交往交流交融需求越来越迫切，举办“南京墨竹周”呼应了两地群众热切的所期所盼。我们希望通过“南京墨竹周”这样的形式，汇聚党政、企业及社会各界的资源和力量，搭建一个开放式共享平台，集中展示墨竹的文化历史、美食美景、经济发展以及风土人文等，加深南京墨竹两地25年来的深情厚谊，促进藏汉在文化、旅游、经济以及民族友情等方面交往交流交融，实现感情融通、民族融合。', '当前，援藏工作也处在承前启后、继往开来的关键时期。进入新时期，两地人民对更全方位、更多层面、更宽领域的交往交流交融的需求越来越强烈，尤其是两地百姓之间的交往交流交融需求越来越迫切，举办', '“南京墨竹周”立意于墨竹工卡县与南京市的深厚援建情谊，是在墨竹工卡县实现全面小康社会的关键时期举办的一场集文化交流、就业帮扶、人才培训、产业合作、消费扶贫、医疗教育、爱心公益等援藏行为为一体的综合性活动。总结起来，主要有以下两个方面的考虑：', '一是基于新时代援藏工作的思考。2018年，墨竹工卡县实现脱贫摘帽，援藏工作也将逐步从补齐民生短板、改善民生向民生提质增优、丰富精神文化等方面转变，着力点从实现南京单向支援墨竹工卡向宁墨双向交流的转变，为此，深入贯彻落实新时代党的治藏方略，做好新时期对口援藏工作，必须深化交往交流合作，不断拓展援藏深度和广度，“南京墨竹周”是我们高质量做好新时代援藏工作的思考实践。', '二是基于“融合式”援藏的探索。“探索融合式援藏路径，整合多方资源，全力以赴做好新时代援藏工作”，是新时代江苏援藏的总体要求。基于江苏援藏要求和墨竹发展实际，“南京墨竹周”通过举办发展恳谈、区域公用文化品牌发布、招商环境推介会等活动，凝聚党政和社会各界力量共同进行“融合式”援藏探索，努力实现更高质量、更可持续的发展。第二届“南京墨竹周”也将根据今年墨竹工卡县与全国人民一道同步建成小康社会的历史新阶段特点，不断深化“融合式”援藏的内涵，拓宽“融合式”援藏的覆盖面，使援藏工作实现更有效的精准帮扶，推动宁墨文化融通，促进了墨竹与南京一起融合发展、携手发展。', '一是时点的非同一般。今年是全面建成小康社会决胜阶段、即将开启全面建设社会主义现代化国家新征程的历史关键年。8月，中央召开第七次西藏工作座谈会，全面总结第六次西藏工作座谈会以来的巨大成就，对今后一个阶段西藏工作作出全面部署。第二届“南京墨竹周”的举办，正是乘着决胜全面小康之风，深入贯彻中央第七次西藏工作座谈会的具体举措。', '一是时点的非同一般。今年是全面建成小康社会决胜阶段、即将开启全面建设社会主义现代化国家新征程的历史关键年。', '二是形式更新、内容更丰。第二届“南京墨竹周”较首届立意更深远、内容更丰富、形式更多样。在首届开展的大学生特训营、旅游推介、农牧民群众开南京、爱心公益医治等活动的基础上，开幕式进行全程电视直播，开通直播带货主打“消费扶贫”，开设“格桑花开高原直播间”，新增非物质文化遗产对话，设立藏式生活馆，推出IP吉祥物，等等，可以说，第二届“南京墨竹周”给了苏拉、宁墨两地群众一场诚意十足的民族团结之旅。', '一是希望“南京墨竹周”是一个重要载体和平台，成为一个重要品牌。第一届“南京墨竹周”以“《你好墨竹》——南京墨竹一家亲，格桑茉莉共芬芳”为主题，表达了南京人民对天边墨竹的一次亲切问候。第二届将主题延伸为“《宁听墨竹》——南京墨竹一家亲，同心携手奔小康”，用心聆听来自天边墨竹的天籁之声、文化之声、美食之声、发展之声、祝福之声，充分结合墨竹工卡县即将全面建成小康社会的阶段特点，通过巩固提升人才、文化、产业、就业、医疗、教育、规划、消费扶贫等领域援藏，让更多的南京群众了解援建成果、深化合作共识、拓宽合作领域，系牢宁墨两地像石榴籽一样紧紧抱在一起的民族团结之情，加大藏汉两地人民相互了解的覆盖面、传播面，形成新时期南京援藏、民族交往交流交融的一个重要载体和工作品牌。', '二是希望“南京墨竹周”是融合式援藏的积极探索和实践，开创援藏工作新局面。“南京墨竹周”通过系列活动，多方位、多角度展现宁墨两地深厚的民族情谊，展示墨竹与南京携手奔小康的成果，推动援藏事业从相对单一的党政交往变成全社会力量的深度参与，从单方面的“受援”变成双方的“共赢”，集聚更多的资源、汇聚更多的力量，推动援藏事业向全方位、宽领域、多层次纵深推进，开创宁墨交往交流交融和民族团结的新局面。', '三是希望“南京墨竹周”是永不落幕的墨竹周，每次都是一个新的起点。“南京墨竹周”举办只有一个周的时间，开展的活动、呈现的内容、讲述的故事、传达的情谊有限，但藏汉民族的交往交流交融不会暂停。希望“南京墨竹周”将不局限于时间上的“周”，而是新的起点，能够吸引更多有志者、同路人在援藏路上、在建设社会主义现代化国家征程中，参与到支援新西藏、建设新西藏的大家庭中来，讲好更多的援藏故事，温暖更多藏汉人民的心窝，铸就民族团结丰碑。', '各位新闻界的朋友、嘉宾朋友们，大家上午好。下面由我向大家介绍第二届“南京墨竹周”活动的筹备情况。', '为落实中央第七次西藏工作座谈会精神，全方位展示墨竹工卡县与全国全区全市一道同步建成小康社会和南京援建25周年来的成果，进一步推动宁墨文化交流，深化两地友好协作，传播幸福墨竹、推介生态墨竹、营销潜力墨竹、讲好墨竹故事，促进宁墨两地人民相互了解、加深援建友谊，巩固深化宁墨交往交流交融。', '为落实中央第七次西藏工作座谈会精神，全方位展示墨竹工卡县与全国全区全市一道同步建成小康社会和南京援建', '在2019年成功举办首届“格桑花开·南京墨竹周”的基础上。今天，我们在拉萨市召开第二届“格桑花开·南京墨竹周”媒体吹风会，目的就是告知各位媒体朋友，请大家大力宣传报道和持续关注第二届“格桑花开·南京墨竹周”活动。我们的相关筹备工作已经完成，拟于2020年11月10日至17日在南京市举办第二届“格桑花开·南京墨竹周”，主要内容包括：开幕式暨《宁听·墨竹》大型电视直播、“格桑花开大学生就业创业特训营”、“遇见夜金陵·听见新墨竹”宁墨嘉年华、“天边好礼·墨竹净品”南京援藏消费扶贫展洽会、非遗“宁墨对话”暨藏式生活馆开馆、“宁墨情·医公益”爱心医治南京行等，实现共叙“宁墨情”，再唱“宁墨歌”，再掀“宁墨风”。', '在南京市广播电视台演播大厅以《宁听·墨竹》大型电视直播的方式宣布第二届“格桑花开·南京墨竹周”活动开幕。届时，墨竹工卡县、秦淮大成殿两个分会场联动直播。同时，南京市电视台新闻综合频道、生活频道会全程直播开幕式，拉萨市电视台新闻综合频道也会同步转播开幕式；', '举行“遇见夜金陵·听见新墨竹”嘉年华活动。此项活动在第一届展销的基础上，进行提档升级，结合南京“遇见夜金陵”系列活动，同步展销墨竹工卡县净土健康、文化旅游产品；通过互动展示墨竹工卡县地标美景，继续开展“万人探亲游”活动，推介“天边墨竹”旅游线路，打响“天边之乡”的高原精品旅游品牌；通过搭建消费扶贫平台，从去年的夫子庙一个展销平台，延伸到溧水、六合等4个专场，主打具有国家地理标志的“墨竹工卡县小油菜籽油”产品。开设“格桑花开”高原直播间，通过直播带货、企业认购等形式丰富销售渠道。', '举行非遗“宁墨对话”暨藏式生活馆开馆。旨在通过宁墨非遗对话、非物质文化遗产展示、招募非遗合伙人等形式，使包括塔巴陶瓷在内的非物质文化遗产“活起来”，不断放大非物质遗产的文化魅力、开发经济价值，走向市场。', '开展“携手与‘宁’、‘墨’契共赢”发展恳谈会暨闭幕晚会。活动延续第一届招商主题，丰富科技合作、人才帮扶等内容，通过恳谈和答谢晚宴形式搭建宁墨双方政企交流平台，共同探讨发展大计，携手奔小康。', '开展“宁墨情·医公益”爱心医治南京行活动。持续巩固先心病、髋关节脱位等患儿在南京的治疗成果，继续开展爱心医疗南京行活动。届时，党政代表团还将开展关怀慰问活动。', '将在开幕式上发布“宁墨情·筑同心”宁墨青少年手拉手“芬芳计划”，此项活动将于2021年全年实施。活动旨在加强宁墨两地青少年的交往交流交融，通过开展“互联网+教育”、科技主题游学营、宁墨青少年足球友谊赛、“爱国教育+民族团结”的家庭结对等活动，把爱我中华的种子埋入每个青少年的心灵深处，推动宁墨文化交流，促进我县青少年与外界交往交流交融。', '举行天边“宁”迹——南京对口支援墨竹工卡县25周年成果展。活动旨在全面总结南京援藏25周年成果，在不同活动场地进行全方位展示，加深宁墨两地援建情谊和民族友谊。', '开展“宁墨情·奔小康”第二届墨竹工卡县农牧民群众看南京活动。活动在第一届举办的基础上，对活动进行完善。返墨后，组成宣讲队伍进行巡回宣讲，加强对农牧民群众的教育引导，加强中华民族共同体意识和感恩意识，凝聚起建设“美丽乡村·幸福家园”的强大动力。', '在南京举办“宁墨情·共发展”墨竹工卡县党政干部乡村振兴培训班（一期）。结合乡村振兴主题，不断提高干部人才在基层治理、产业发展、组织建设等方面能力。', '举办墨竹工卡“十四五”国土空间规划与发展座谈会。与南京市自然资源和规划局对墨竹工卡县“十四五”国土空间规划（2020-2035）的编制和“十四五”发展规划进行座谈交流，为墨竹工卡县撤县设市和高质量发展提供有力支撑。', '举办第二届“格桑花开·南京墨竹周”成果媒体通报会。活动拟通过新闻发布会的形式，对整个活动期间的成果进行全方位的总结和报道。', '我们诚挚邀请各位媒体朋友莅临南京的活动现场，感受体验下好客的南京人民和西藏人民天长地久的友谊，品尝南京特色美食，感受南京浓郁文化，让我们共同见证这段美好的时光，见证苏拉、宁墨两地的援建友谊和民族感情。谢谢大家。', '发言人您好，大学生就业创业是自治区近几年重点关注的问题，请介绍下，第二届“格桑花开大学生就业创业特训营”具体情况，对特训营学员有什么期许', '就业是最大的民生。2019年11月，由墨竹工卡县委县政府组织，在江苏省对口支援拉萨市前方指挥部的大力支持下，在南京援藏的具体策划和推进下，南京首届“格桑花开”墨竹工卡县大学生就业创业特训营正式开营，通过“1+3+N”特训，首批32名学员全部实现就业创业，开创了墨竹工卡县人才培养、大学生就业创业的成功新实践，也是南京就业援藏的探索与实践。', '南京墨竹周”的介绍，我感到此次活动在拉动消费扶贫方面的举措、力度都很大，能否向我们重点介绍下有哪些特色亮点？', '您好发言人，我想重点了解下非遗“宁墨对话”暨藏式生活馆开馆具体以什么样的形式开展实施的？如何推进非遗活化？', '非遗对话为“南京墨竹周”新增活动。活动旨在通过苏拉两地非遗对话、非物质文化遗产展示、招募非遗合伙人等形式，邀请藏汉两地的非遗保护专家学者、非遗文创企业家等就墨竹工卡县非遗保护和产业化进行对话交流，以期能找到一条实现非物质文化遗产“活”起来，不断放大非物质遗产的文化魅力、开发经济价值，走向市场，带动农牧民增收的新路子。', '同时，秦淮区在夫子庙免费提供场地，开设藏式生活馆，旨在给南京市民提供一个零距离的、身临其境的体验藏式生活的场所。生活馆内所有家具陈设都是从西藏运过去，保留原汁原味的藏式风格，还陈设了墨竹工卡县的主要非遗和一些文创产品，可以让南京市民非常直观的感受到西藏的特别是墨竹的文化魅力。藏式生活馆内还将开展非遗的研创、交流、体验等活动，使之成为宁墨文化交流的长期窗口。', '您好，我看到咱们活动里有一项“宁墨情•奔小康”第二届墨竹工卡县农牧民群众看南京活动，我想问下组织实施他的初衷是什么？能起到什么效果？', '农牧民群众看南京活动在首届“南京墨竹周”农牧民群众看南京的基础上，从去年的建档立卡户拓展为农牧民人大代表、农牧民政协委员代表、建档立卡户代表和普通群众代表。活动旨在通过带领农牧民群众参观内地标志性地标和先进示范点，学习乡村振兴等经验做法、感受内地文化魅力，不断增强民族自豪感，进一步深化民族团结，促进宁墨、藏汉民族交往交流交融，进一步感受全面小康社会的成果，增进南京墨竹一家亲的深厚情谊。', '返墨后，农牧民群众将组成宣讲队伍，赴墨竹工卡县41个村（居）进行巡回宣讲，加强对群众的教育引导，不断增强群众对伟大祖国、中华民族、中华文化、中国共产党、中国特色社会主义的认同，凝聚起建设“美丽乡村·幸福家园”、全面迈向小康社会的强大动力。', '今天的提问就到这里。需要现场采访的记者朋友，可在会后进行采访。今天的发布会到此结束，', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>259</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>市人大常委会分别召开党组会议和主任会议</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2020-11-10</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/202011/a54692a8ec874329815dac66af1464e4.shtml</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['11月9日下午，市人大常委会党组书记、主任云丹主持召开市人大常委会第三十一次会议。', '会议传达了《习近平在第三届中国国际进口博览会开幕式上的主旨演讲》，区党委常委、拉萨市委书记白玛旺堆同志在《中共拉萨市人大常委会党组关于赴合肥和扬州两市开展〈拉萨市养犬管理条例〉立法调研报告》上的批示精神；听取和研究了《关于举办全市基层人大干部换届选举和深入学习贯彻中央第七次西藏工作座谈会精神综合培训班的建议方案》《中共拉萨市人民代表大会常务委员会机关党组关于申请批准拉萨市人大代表履职服务平台信息化建设项目立项的请示》《中共拉萨市人民代表大会常务委员会机关党组关于赴山南市人大考察学习代表工作的请示》《关于赴浙江、四川两省考察调研人大代表履职服务平台系统建设及相关工作的请示》和《拉萨市人大常委会办公室赴雅安市考察交流建议方案》。与会人员就以上内容进行了深入交流探讨，提出了修改意见和建议。', '会议听取和研究了关于接受格桑邓珠辞去西藏自治区第十一届人民代表大会代表的议案、拉萨市第十一届人民代表大会常务委员会代表资格审查委员会关于个别代表的代表资格审查报告。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>259</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>云丹主持召开市人大常委会党组第三十一次会议</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2020-11-12</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/202011/6f93b729b0504ee9a91fa907a40d390c.shtml</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['11月9号下午，市人大常委会党组书记、主任云丹主持召开市人大常委会第三十一次会议。', '会议传达了《习近平在第三届中国国际进口博览会开幕式上的主旨演讲》、区党委常委、拉萨市委书记白玛旺堆同志在《中共拉萨市人大常委会党组关于赴合肥和扬州两市开展〈拉萨市养犬管理条例〉立法调研报告》上的批示精神；听取和研究了《关于举办全市基层人大干部换届选举和深入学习贯彻中央第七次西藏工作座谈会精神综合培训班的建议方案》、《中共拉萨市人民代表大会常务委员会机关党组关于申请批准拉萨市人大代表履职服务平台信息化建设项目立项的请示》、《中共拉萨市人民代表大会常务委员会机关党组关于赴山南市人大考察学习代表工作的请示》、《关于赴浙江四川两省考察调研人大代表履职服务平台系统建设及相关工作的请示》和《拉萨市人大常委会办公室赴雅安市考察交流建议方案》。与会人员就以上内容进行了深入交流探讨，提出了修改意见和建议。', '会议听取和研究了关于接受格桑邓珠辞去西藏自治区第十一届人民代表大会代表的议案、拉萨市第十一届人民代表大会常务委员会代表资格审查委员会关于个别代表的代表资格审查报告。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>259</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>全市深化农村改革工作取得阶段性成果</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2015-04-07</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201504/f0a9ff7ea966406490f2d84436e9b2e3.shtml</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['自2014年10月25日，市委常委会就全面开展全市深化农村改革工作作出安排部署以来，全市上下解放思想，开拓创新，攻坚克难，多措并举，强势推进深化农村改革工作，取得了阶段性成果。', '半年来，组织建立了拉萨市深化农村改革工作领导小组，下设农村宅基地确权、农村土地承包经营权确权、农民专业合作社规范发展、农牧业产业化龙头企业、农村金融五个专项工作组和办公室。各县(区)及柳梧新区也专门成立相应的机构，由主要领导挂帅，指导开展农村改革专项工作，形成“一项工作、一套班子、纵横互动、密切协作”的工作机制，为全市深化农村改革工作提供坚实的组织保障。', '以“走出去”的方式组织市直相关部门和七县一区有关负责人，赴甘肃省甘南藏族自治州、四川省成都市考察学习农村土地承包经营权确权领证及土地经营权流转、产业发展体制机制建设等成功经验；通过“以会带训”方式组织召开农村改革工作培训会，邀请自治区农牧厅、自治区国土资源厅专家以及专业技术人员就农村土地确权颁证和农村集体土地确权颁证工作等进行专题讲座；通过“以书带训”方式，收集整理国家、区、市层面深化农村改革相关政策法规，编写《拉萨市深化农村改革工作手册》，下发至市县乡村四级，为全市深化农村改革工作提供了政策参考和业务指导。', '结合工作推进需要，先后组织召开全市深化农村改革工作领导小组全体会议，传达学习相关文件精神，听取工作进展情况汇报，把握工作动态、工作节奏，研究解决改革难点问题；研究建立改革问题每周收集制、改革进展半月通报制、市农改办和市委督查室联合跟踪督查制，深入开展督查调研，组织召开市委常委会专题研究农村土地确权颁证及农村宅基地确权颁证试点工作中存在的难点问题，为全市深化农村改革提供了政策导向。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>259</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>北京对口支援拉萨二十年综述</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2014-06-17</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/yzdt/201406/707e4ab9dec046f69a3cbdf6f426e6f5.shtml</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['根据中央的统一部署，自1994年开始，北京市委、市政府从讲政治、讲大局的高度，认真贯彻中央治边稳藏方略和援藏工作方针，主动发挥首善之区示范引领作用，把援藏工作纳入经济社会发展及远景目标规划中，先后选派了7批共413名优秀干部进藏工作，共投入资金28亿元，实施了8大类、200多个项目，对改善拉萨人民生活，提高拉萨城市品位，促进拉萨社会进步发挥了重要作用，极大地增进了民族团结和两地人民之间的友谊，有力地维护了祖国统一和边防巩固。二十载援藏，二十载风雨，首都援藏干部克服困难、凝聚智慧、创新实践，赢得了拉萨市委、市政府的充分认可和全市广大干部群众的赞誉。', '二十年来，北京市创新援藏工作机制，人员组织高效合理。成立了由市委书记担任组长、市长担任常务副组长的援合领导小组及办公室，组建了专职干部、兼职干部和服务团队共120余人的前方指挥部。构建起决策、协调、执行“三位一体”的工作体系，形成北京和拉萨党委政府坚强领导，组织部门和援合办指导支持，前方指挥部强力推动，拉萨各方积极配合，全体援藏干部共同参与的援藏工作格局。', '北京援藏指挥部党委结合援藏工作实际和“老西藏精神”的新要求，确立了“首善、创新、奉献、律己”的“北京援藏精神”，凝聚起全体援藏干部的人心。北京援藏精神是“老西藏精神”、援藏实际工作、北京精神的结晶。以“首善”为最高标准做好援藏工作；以“创新”将北京各方面的好经验好做法创造性地培植到拉萨；讲“奉献”敢于吃苦、勇于付出、甘于忍耐；将“律己”作为每名援藏干部谨守的思想行为防线和遵循。', '打铁还须自身硬，建设一支过硬的干部队伍是做好援藏工作的重要保障。二十年来，北京援藏指挥部党委结合援藏工作实际，不断以制度建设为抓手，制定一系列规章。从日常工作、生活言行到在藏纪律，进行详细规定，使干部的教育管理和自我约束更加规范和自觉。把学习培训列为援藏期间的重要任务，制定系统的学习计划，重点学习党的路线方针，加强反分裂斗争和民族宗教政策教育，熟悉西藏区情、拉萨市情和历史文化等，以提高干部的理论水平和实际工作能力。', '乐于奉献、敢于担当，是北京援藏干部精神风貌的具体体现。一批批北京援藏干部来到高原，立足岗位、扎实工作，每逢春节等重大节日期间，援藏干部便早早离别家人，返回拉萨投入到工作之中，特别是投入到紧张的维稳工作当中，广泛深入到一线，查实情、问民情、解民忧，确保了拉萨和谐稳定。尤其是在拉萨全国文明城市创建、西藏和平解放60周年大庆、雪顿节、藏历年以及危难险急等活动或事件中，北京援藏干部总是冲锋在前，切实履行职责，传递正能量。在创先争优强基惠民活动以及党的群众路线教育实践活动等方面，北京援藏干部深入到农村担任驻村干部或联系人，同村民结对认亲，与村民同吃、同住、同劳动，想群众所想、盼群众所盼、急群众所急，用自己辛勤的汗水和高度的责任心为百姓办实事、解难事。', '在这连呼吸都困难的高原，每一位北京援藏干部都有一段不平凡的经历，每一位援藏干部都有一段动人的故事。不少干部患上了高原疾病却依然坚守岗位，有的夫妻一起来援藏，有的亲人病重甚至去世也来不及回去看一眼……他们忘我投入、无私奉献，奏响了一曲曲新时代援藏工作的主旋律。', '二十年来，北京市时刻不忘文化援藏，广泛开展文化交流，为两地文化产业大发展、大繁荣提供新的契机。特别是“北京西藏(拉萨)商品大集”活动带动了西藏文化产品热销京城；拉萨中小学生赴北京夏令营活动为民族团结种下了希望之花；作为西藏和平解放60周年大庆献礼剧目，京演集团与西藏艺术家联袂打造的大型节目—— —《幸福路上六十年》，场场爆满；首都艺术家赴拉萨献艺活动送来精神食粮；北京出版界捐赠社区的益民书屋活动，丰富了当地群众的知识面；在北京798园区举办的“前世今生”展集中展示了博大精深的藏文化艺术。', '音乐剧《文成公主》在国家大剧院的首演成功，充分展现了藏汉民族源远流长的和睦史，发挥了文化软实力的作用。', '北京援藏干部视拉萨为第二故乡，自觉发扬“老西藏精神”、孔繁森精神，以建设、发展和稳定西藏为己任，视藏族同胞为亲人，牢固树立“三个离不开”思想。尊重各族群众风俗习惯和生活方式，学说藏语、喝酥油茶、吃糌粑、过林卡，加强与藏族干部群众的血脉联系。积极开展学雷锋献爱心、资助困难学生重返校园、结对帮扶贫困群众等活动。北京援藏干部发起的“温暖行动”，踊跃捐款60多万元，购买了4000套衣物，为海拔4000米以上学校的农牧民学生送去温暖。每名援藏干部结对帮扶1至2户困难家庭，共帮扶困难群众500多户，捐款捐物50余万元。与儿童村和福利院建立结对帮扶，定期为孤儿院送去温暖。援藏医疗队医生经常利用周末休息时间下乡，为近3000名农牧区藏族同胞义诊送药，这些点点滴滴都彰显着首都人民的深情厚谊。', '二十年来，北京市坚持把保障和改善民生放在援藏工作的首要位置，切实在项目规划上突出民生。北京市在严格贯彻落实中央关于把上一年财政收入的1‰作为基本援藏资金的基础上，还另行增加7亿多元资金，兴建200个援藏项目。这些项目都是结合当地需求并充分征求受援地主管部门意见的基础上确定的，重点投向新农村建设、牧区基础设施建设、道路交通建设、网格化社会管理建设、安居工程建设、生态文明建设、文化建设，同时继续加大对教育、医疗卫生等方面的支持。', '北京援建项目极大提升了拉萨城市基础设施和管理水平，改善民生的同时还填补了一些空白。其中拉萨市群众文体中心项目就填补了西藏地区没有大型文化体育设施的空白，完善了城市功能。儿童乐园项目是西藏首个现代化的大型游乐项目，是首都为西藏孩子们献上的厚重礼物。北京援建的牦牛博物馆项目是藏文化保护地的一项标志性建筑，是我国乃至世界第一座以牦牛及其文化为专题的博物馆。', '二十年来，北京市坚持把提升拉萨干部素质能力作为基础性工作来抓。围绕拉萨市“五大战略”实施，兼顾短期、中期和长期人才需求，将培训资源向急需紧缺岗位倾斜，将培训方式由短期学习向短长期培训和挂职并重转变。安排专项资金，实施了智力援藏项目，赴京培训各类急需紧缺人才2000多名；同时先后邀请500多位专家学者到拉萨指导工作和开展专题讲座，参加指导和听课干部群众超过100000人次；通过挂职锻炼、考察学习等方式培训800多名专业人才，提升了拉萨市干部人才素质。', '北京市积极发挥桥梁纽带作用，大力推动拉萨产业发展步伐，积极开展招商引资工作。建立了援藏产业发展专项基金，引进了一批与拉萨产业关联度高、辐射性强、带动作用大的项目，帮助拉萨柳梧新区、堆龙工业园发展产业，培育新的经济增长点，提高自我造血能力。引进北京住总集团、首旅集团等大型企业参与拉萨文体中心、嘎玛贡桑小区改造、德吉罗布儿童乐园等重点项目援建。做好驻京企业到拉萨的投资服务引导，组织中关村高新企业、顺鑫农业、三菱银行、百盛集团等国内外知名企业到拉萨考察，搭建与中外企业交流和对接的平台。', '在援藏干部选配上，北京市坚持党政、技术人才并重，通过技术援藏造福当地百姓。包含医生，在藏的技术干部。他们发挥专业优势，借助北京在科技、教育、医疗卫生、信息技术、文化方面的资源，在拉萨的教育培训、数字城管、文物保护、供热供暖、园林绿化、高原特色动植物育种等各个领域发挥了重要作用。技术干部的努力，不经意间改善着拉萨的城市面貌和居民的生产、生活方式，为当地群众带来了实惠。特别是援藏医疗队的医生们，被当地百姓亲切地称为“高原上的健康保护神”。', '回顾北京市对口支援拉萨市的二十年历程，是祖国首都与边疆首府心连心、同呼吸、共命运的历史，是党中央的亲切关怀和北京市的大力支援的历史，也是拉萨发展最快的时期。拉萨市各族人民从内心里感谢党中央的关怀，感谢首都人民的支援，深切体会到中华民族大家庭的温暖。展望未来，北京将始终坚持党中央明确的“一个中心”、“两件大事”、“四个确保”的西藏工作指导思想不动摇，与拉萨的发展稳定有机结合起来，以科学的态度、强烈的责任意识、深厚的民族感情、务实的工作精神，全面落实对口支援的各项任务，与其他援藏兄弟省(市)一道，团结带领拉萨各族人民，努力拼搏，锐意进取，不断提高全市各族人民的生活水平，推动拉萨经济社会跨越式发展和长治久安，开创美丽家园幸福拉萨建设的新局面。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>259</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>充分发挥首府城市首位度作用不断提高基层党建工作水平</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2014-12-16</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201412/f63a4ed556744902a1dd1effca100c6d.shtml</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['今年，拉萨市紧扣基层服务型党组织建设工作主题，以扎实开展党的群众路线教育实践活动为契机，重点抓好村（居）“两委”换届选举、软弱涣散基层党组织整顿转化、基层党组织带头人队伍建设、党员队伍建设等工作，扎实推进基层党建工作再上新台阶。', '全面落实基层党建工作责任制。按照“书记抓、抓书记”要求，健全基层党建工作考评体系，制定下发《拉萨市关于集中开展全市党组织书记抓基层党建工作述职评议的通知》，实行市县乡三级基层党建工作“联述联评联考”，组织基层党组织、党员和群众代表对县乡村三级党组织抓党建工作情况进行评议，把抓基层党建工作情况作为县乡党委和部门党组（党委）领导班子、领导干部考核的重要内容，强化各级党组织管党意识，督促各级党组织书记切实履行好抓基层党建工作“第一责任人职责”，形成一级抓一级、层层抓落实的基层党建工作格局。', '扎实开展软弱涣散基层党组织整顿工作。在深入调查摸底、分类定级的基础上，将存在突出问题的99个基层党组织作为重点整顿对象，实行“一个支部一个方案，一个问题一条措施”，采取派驻工作组、县级领导定点联系指导、选派党建工作指导员等措施，明确整改时限，层层落实责任，确保整顿转化工作各项措施落到实处。在整顿中，全市各级党组织选派党建工作指导员52名，从乡镇机关干部、驻村驻寺干部、大学生村官队伍中选派26名干部到软弱涣散村（居）担任党支部书记，调整村（居）“两委”班子成员53名，改选机关企事业单位党支部9个，集中举办培训班10余期，先后培训村（居）“两委”班子成员730余人次。特别是针对村（居）“两委”班子和党员干部中存在的不正之风和违法违纪行为，深入开展专项整治，采取诫勉谈话、岗位调整、组织处理等形式，先后对59名机关企事业单位党组织负责人诫勉谈话，处分县级干部2名、科级干部3名，处理村（居）干部10人，移送司法机关处理5人。通过集中整顿，全市99个软弱涣散基层党组织100%实现转化升级，群众满意度达到96.7%以上，切实解决了一批群众反映强烈的热点、难点问题。', '进一步加强基层党员干部队伍建设。成立拉萨市发展党员和党员管理工作协调领导小组，统筹安排部署全市发展党员和党员管理工作，研究解决发展党员工作中遇到的困难和问题。研究制定《拉萨市2014年度发展党员工作计划》，加大从返乡初高中毕业生、复员退伍军人、优秀联户代表和致富带头人中发展党员工作力度，进一步优化全市党员队伍结构。2014年，全市共发展党员3408名，其中农牧民党员2729名。针对部分农牧区基层党组织存在发展党员程序不规范的问题，制定下发《拉萨市发展党员工作手册》和《关于在全市村居党组织开展发展党员工作自查整改的通知》，进一步规范发展党员工作程序，指导各县（区）委组织部对农牧民党员档案资料进行规范完善，全市党员实现“一人一档”。积极探索建立党员能进能出机制，特别是对近两年新发展党员群众满意度不高、不履行党员义务的，采取限期改正、劝其退党、党内除名等措施，加大不合格党员处置力度，全市先后处置不合格党员6名。大力组织开展共产党员民族团结先锋、无职党员设岗定责、党员志愿服务等活动，积极搭建载体，促进党员主动亮明身份、发挥先锋模范作用。同时，制定《拉萨市村（居）党组织带头人教育培训计划》，通过集中轮训、组织外出参观考察学习等形式，加大对村（居）党支部书记、第一书记、大学生村官及党员致富带头人的培训力度。2014年，全市先后选派44名乡（镇、街道）干部、新任村（居）“两委”干部到江苏、山东等地培训，选派171名村（居）党支部第一书记、党支部书记、村（居）委会主任参加区党委组织部开展的全区村（居）党支部书记示范培训班和村（居）委会主任示范培训班。', '加大村级组织活动场所建设力度。联合市发改委、强基办等部门组织人员对全市267个村（居）基层组织活动场所建设管理使用情况进行全面摸底排查，找准存在的突出问题，建立健全村（居）活动场所建设使用情况台帐。针对部分村级活动场所存在面积狭小、功能不全甚至破损严重无法使用等问题，按照“新建一批、改（扩）建一批、修缮一批”的思路，多渠道筹集资金，从抓好示范点建设入手，完善村级组织活动场所功能配置，进一步提升全市村级活动场所建设水平。积极协调北京市援藏前方指挥部整合援藏资金2000万元，对城关区6个无活动场所的社区进行新建，切实解决社区无办公活动场所的问题。积极协调江苏省援藏前方指挥部整合援藏资金5000万元，启动江苏省对口援建拉萨市村综合服务中心项目，计划在江苏省对口支援四县新建12个村级组织活动场所示范点，对四县122个村级组织活动场所的配套设施进行规范完善。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>259</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>拉萨市科技进步贡献率不断提升</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2014-12-25</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201412/f59725e510db42d59bc1d9f44946fdff.shtml</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['西藏坎巴嘎布卫生用品有限公司研发的青藏高原藏本草植物坎巴嘎布系列消毒湿巾，产品功能性突出，广受消费者喜爱。该公司为70多名农牧民提供就业岗位，直接带动200多名农牧民群众增收致富。', '西藏春光食品有限公司开展低能耗新工艺研究，通过对青稞麦片加工工艺的改进，生产工艺实现创新和突破，增加产品的市场竞争力和盈利空间。该生产工艺经自治区科技厅鉴定，达到国内领先水平……', '近两年来，拉萨市科技部门紧紧围绕市委、市政府“五大战略”实施和净土健康产业的发展，按照“建平台、攻专项、促转化、广普及”的科技工作要求，密切科技与经济的结合，科技进步贡献率不断提升，进一步提高全市科技创新能力，科技为经济社会发展提供强有力的科技支撑。', '两年来，拉萨市科技部门紧紧抓住经济社会发展中的热点、难点和共性、关键性问题选题立项，共投入科技经费6793.5万元（其中市级财政投入2000万元），实施科技项目100多项，取得15项科技成果。', '科技创新取得明显的成绩。加快推进农业产业化进程，为农牧业生产实现优质、高产、高效、安全提供保障。引种的坎巴嘎布、玛卡、金银花等一批新品种获得成功。以“两区三园”为重点，充分发挥市场配置科技资源的作用，多渠道、多形式加大科技投入，大力支持工业企业开展技术改进和新产品研发等工作。两年来，研发出新特藏药、青稞红曲茶等各类新产品12个。科技成果广泛应用到生态建设、医疗卫生、“暖入户”、“河变湖”、“树上山”等各个领域，实现科技惠民的民生目的。', '在2013年全国县（市）科技进步考核中，拉萨市七县一区均通考核，其中城关区、堆龙德庆县等5县（区）获得全国科技进步先进县。', '预计到2014年底，科技对拉萨市经济和农牧业发展的贡献率将分别达到40.8%和46.8%，有力地推动全市经济的跨越式发展。', '拉萨市科技部门始终把农牧业增产增效、农牧民增收作为科技工作的出发点和落脚点，通过科技示范，大力推进净土健康产业发展，提高农牧民收入。', '抓好农牧业科技项目工作。坚持把60%的科技资金用于农牧业科技，重点支持西藏野生双孢菇人工栽培工艺优化、斑头雁的孵化和生态养殖技术成果转化与推广、藏红花和玛卡种植试验与示范等40多个科技项目，进一步提高拉萨市农牧业科技创新能力。', '重视科技特派员工作。目前，拉萨市科技特派员有667人（包括30名专家特派员）， 组建3支科技特派员服务团队，支持8户科技特派员开展科技创业，开展4期400名农牧民科技特派员培训，加强科技特派员管理，提高科技特派员的服务水平。', '大力开展“强基础惠民生送科技行动”。投入科技经费171万元，支持实施17个项目，解决群众急需解决的难题。', '组织人员赴北京、江苏进行食用菌生产技术考察学习，积极开展技术合作，制定食用菌产业发展规划和实施方案，和江苏企业达成投资1.56亿元食用菌投资意向协议。挂牌成立拉萨市食用菌产业聂当科技示范基地。与中国科学院微生物所、中国农科院农产品加工所签订战略合作框架协议，促进农牧业科学技术的示范推广。', '积极开展“科技服务进园区、进企业活动”。积极开展科技咨询服务，为企业牵线搭桥，促进科技成果转移转化。', '大力开展知识产权工作。开展知识产权保护宣传活动，举办知识产权知识讲座，无偿帮助企业申请81项专利，举办文化科技融合学术研讨会，企业创新能力明显增强。', '促科技援藏向纵深发展。近年来，拉萨市进一步加强与北京、江苏等对口援助省市的交流与合作，签订合作协议，建立全面和长期合作机制关系，促进科技援藏由单向援助向合作互利转变，形式更加多样，领域不断拓宽。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>259</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>拉萨十二五期间北京市智力援藏情况</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2015-11-27</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201511/ae7c94e2997d4983aa8f0a7536cfc2d8.shtml</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['拉萨“十二五”期间北京市智力援藏情况：安排专项援藏资金3500万元，在北京市培训各类急需紧缺人才2600余名；邀请科研院所专家学者500余名进藏开展专题讲座300余场次、培训人员10万人次；通过挂职锻炼、考察学习等方式培训本地专业人才1000余名。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>259</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>深化干部驻村工作推动农牧区发展稳定</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2014-06-10</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/ldhd/201406/29a2839f6471445aaa49cf6f24d98e8d.shtml</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['在深入开展党的群众路线教育实践活动中，全市严格按照区市党委相关要求，把深化干部驻村作为密切联系群众的重要载体，紧紧围绕“五项任务”，着力推动农牧区科学发展、和谐稳定、民生改善、民族团结。', '在扎实开展干部驻村工作中，各驻村(居)工作队始终以为驻地留下一支“永不走的工作队”为目标，不断加强村(居)组织规范化建设，积极采取建章立制、建强组织、配强班子、壮大队伍等措施，不断提高基层党组织的战斗堡垒作用，全面提升基层党员的先锋模范作用。第二批教育实践活动开展以来，全市各驻村(居)工作队共帮助村(居)“两委”建立完善相关制度565项，组织村(居)“两委”学习1628次，召开党员大会1219次；将126名优秀党员培养成村组干部，将77名致富能手培养成村组干部；新发展农牧民党员308名，培养入党积极分子555名；发展团员239人，开展团建活动151次，开展妇建活动259次，有效解决了一些村(居)组织薄弱、推进基层发展稳定能力不强、基层干部素质不高等问题。', '各驻村(居)工作队牢固树立“稳定压倒一切”的思想，自觉把维护稳定作为首要任务来抓。一是积极配合驻地党委、政府和职能部门组建民兵联防队、党员护村队、护院队等基层维稳力量，扎实开展安全巡逻。二是积极加强和创新社会管理机制，不断推进网格化服务管理，大力开展“双联户”创建工作。三是建立健全县、乡、村、组、户五级维稳信息互通机制、安全防范机制、纠纷调处机制，积极维护乡村和谐稳定。', '各驻村(居)工作队在认真学习贯彻习近平总书记系列重要讲话精神和党的十八届三中全会精神，深入学习涉及农业农村、民生改善、社会治理等方面的改革措施的同时，还按照《在全市深入开展党的群众路线教育实践活动的实施方案》要求，主动将习近平总书记系列重要讲话精神和党的十八届三中全会精神、中央关于西藏的方针政策以及区市党委关于推进跨越式发展和长治久安的新举措，通过多种途径，在群众中广泛宣传。截至目前，结合开展“八看、一算账、一揭批、四增强”活动、党的十八届三中全会和习近平总书记系列重要讲话精神进万家”宣讲活动、六五”普法工作等，全市各驻村(居)工作队共开展专题宣讲848场次，举办新旧图片展208次，举办以身说法专题讲座189场次，普法教育755场次，播放爱国主义电影372场次，举办各类文体活动393场次。', '各驻村(居)工作队在深入走访调研、建立家庭台账、摸清底数的基础上，经常与当地干部群众座谈，积极帮助驻在村(居)找准发展定位、理清发展思路、发掘资源优势、打造致富产业，促进群众增收致富。部分工作队还组织基层干部群众赴其他县(区)、区内其他地区以及区外考察学习，不断开阔视野、解放思想、转变观念，进一步理清发展思路，找准适合自身发展的路子。自第三批驻村(居)工作开展以来，全市各驻村(居)工作队积极协调，争取计划外项目128个，总投资达3.5亿余元；组织举办农牧民培训64次，4540余人次；组织外出参观学习76次，4145人次。', '各驻村(居)工作队主动深入基层、深入群众，重点围绕关系群众切身利益的民生问题，拿真心换取群众的支持和信任，动真情心系群众安危疾苦，用真诚为群众排忧解难，切实落实各项民生政策，着力解决群众最关心、最直接、最现实的利益问题，让基层群众真切感受到了党和政府的关怀，进一步增进了与群众的感情，赢得了群众的拥护和肯定。在深入开展党的群众路线教育实践活动中，全市各驻村(居)工作队共慰问“三老”人员、孤寡老人和贫困群众等2719人次，涉及金额达475.37万元；帮助群众就医3264人次，帮助群众就学267人次，涉及金额达124.33万元；帮助群众实现就业529人次；组织开展村容村貌整治515次。', '各驻村(居)工作队把深入开展党的群众路线教育实践活动作为深化强基惠民活动、密切联系基层群众、改善党群干群关系的重要契机，严格按照全市教育实践活动的实施方案要求，全程参加所驻村(居)的教育实践活动。一是深化学习。扎实开展“学习焦裕禄，争当好公仆”、弘扬“老西藏精神”活动，认真开展“为了谁、依靠谁、我是谁”群众路线大讨论活动，切实提高驻村干部的公仆情怀、求实作风和道德情操。二是广泛征求意见。', '通过走村入户、召开座谈会等形式，主动听取群众呼声，征求群众的意见建议。三是即知即改，切实转变作风。着力解决工作队员在“四风”、两问题”、一薄弱”、三不够”等方面存在的突出问题，真正把群众当亲人，把群众的关注点作为驻村工作队的着力点，以实际行动转变作风，有效密切党群干群关系。', '在下一步工作中，我市将提高思想认识，切实增强干部驻村工作的责任感，引导全体驻村工作队员，从战略全局的高度，充分认识深化干部驻村工作的重要性、必要性和紧迫性，全力把驻村工作组织好、安排好、实施好；明确目标任务，进一步落实“五项任务”，确保干部驻村工作取得良好成效；进一步解决好工学矛盾，切实将干部驻村工作与推进党的群众路线教育实践活动紧密结合起来，与当前经济社会发展、维护社会稳定、维护民族团结紧密结合，统筹安排部署，切实做到“两手抓、两不误、两促进、双丰收”。深入开展好教育实践活动，着力增强驻村干部的群众观念，着力解决“四风”、“两问题”、一薄弱”、三不够”和群众反映强烈的问题以及联系服务群众“最后一公里”、最后一步路”问题，坚持边学边改，积极回应群众关切。既把教育实践活动抓实抓好抓出成效，又把活动激发出来的工作热情、进取精神转化为做好各项工作的动力。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>259</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>拉萨的自来水价全国最低</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2014-03-25</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201403/40f17d251ea6437ca4e5317ca44405cc.shtml</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['3月22日至28日是第二十七届“中国水周”。3月21日，记者采访了拉萨市自来水公司，该公司负责人告诉记者，就全国而言，拉萨市的自来水价格是最低的，民用自来水1吨才1元钱。', '“在多年的工作中，自来水厂的工作人员也去过很多地方考察学习，根据我们掌握的情况来看，拉萨市的自来水出厂价格是最低的，民用自来水1吨才1元钱，而从取水到出厂，1吨自来水的成本是1.44元。”拉萨市自来水办公室主任高兰告诉记者，拉萨市目前有四个自来水厂分别位于西郊、北郊、献多和药王山，除了一些比较偏远的地方，可能自来水管网没有到达，在市区我们的自来水管网都涉及到了，所以想要使用自来水的用户只要按照相关程序申请即可。”高兰告诉记者，从身体健康的角度考虑，不建议使用自备水或者井水，虽然拉萨市水的质量很高，但是由于清洁不到位，很容易引起一些肠胃的疾病。', '据了解，目前拉萨市自来水厂有4个水厂和5个泵站，日供水能力在30万吨左右，供水人口约在50万人左右，自来水普及率达到90%，供水面积55平方公里，供水管网长度733.15公里，水厂的水源只要采用55米以下的地下水。', '“拉萨的水质量很高，这是大家公认的，但是水里面含有一些微生物、矿物质，我们国家对出厂自来水总硬度的含量标准是每升水不得超过450毫克的矿物质。拉萨每升水的总硬度含量大概在100毫克左右，虽然没超标但是相对其他省市有些高。”自来水公司水质检验室主任米玛次仁说。', '米玛次仁告诉记者，拉萨市自来水厂的自来水出厂需要经过取水—排水—沉淀—蓄水—消毒—配入城市供水管网6道工序。而在自来水进入城市管网之前必须加入次氯酸钠，进行消毒。自来水在出厂前每升次氯酸钠的含量达到国家饮用水卫生标准大于0.3毫克。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>259</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>年拉萨市广播电影电视局工作亮点纷呈</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2014-01-30</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201401/ef29b4b919c74768993ae8578b44d88d.shtml</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['2013年，在市委、市政府的坚强领导和区广电局、市委宣传部的具体指导下，我局上下精诚团结、解放思想、开拓创新，克服各种困难，全力推进广播影视各项工作，实现了新的跨越和新的发展。', '今年以来，我局紧紧围绕市委、市政府的中心工作，以学习宣传贯彻党的十八大和十八届三中全会精神为主线，围绕“美丽家园幸福拉萨”主题，坚持“三贴近”原则，体现“短、实、新”的要求，深入拓展“走、转、改”活动成果，重点围绕三大节日、全国两会、十件实事、五大战略、七城同创、强基惠民等重大节日、重大活动展开了宣传报道工作，推出了“拉萨河纪行”、“榜样的力量无穷”、“学雷锋树新风”等一系列专题。2013年1至12月份，电视《拉萨新闻》共播出藏汉语新闻7330余条，《新闻现场》共播出1800条。广播《拉萨新闻》共播出藏汉语新闻5760条，《新闻快报》播出2520条。成功录制播出了拉萨市2013年藏历新年电视综艺晚会《美丽家园 幸福拉萨》、《第五届“雪顿之星”青年歌手大奖赛》、《民族团结颂》等10余场晚会。2013年藏历新年电视综艺晚会《美丽家园 幸福拉萨》通过西藏卫视和康巴卫视实现了上星播出，受到了全国各地观众的充分肯定。积极加强与四川康巴卫视的交流合作，计划联合举办《2014年春节藏历新年电视联欢晚会》。', '电影宣传方面，组织全市电影放映机构开展了电影“六进”、“三下乡”、“纪念西藏百万农奴解放54周年”西藏题材影片放映等活动，与市强基办联合开展了拉萨市“创先争优强基惠民”电影驻村点巡回放映活动，深入农牧区和驻村工作队，放映了《西风烈》、《72小时》、《歼十出击》等一系列优秀影片。结合党的群众路线教育实践活动，局属拉萨市电影公司利用周末为全市干部职工放映了《杨善洲》、《生死抉择》等影片。为了丰富我市援藏干部的文化生活，在东方红电影院为全市50余名援藏干部放映了贺岁大片《私人订制》。先后四次在城关区教师培训中心为参加“全区社区党支部书记加强和创新社会管理培训班”的社区党支部第一书记、大学生村官、村委会主任等300余人放映了《生死抉择》、《第一书记》、《扬善洲》等四部教育影片，得到了好评。', '2013年，我局始终将拉萨市广播电视台新增电视频道开播作为工作重中之重，3月26日，拉萨电视台藏语综合频道和文化旅游频道正式开播。结束了拉萨市只有一个频道的历史，拉萨市的广播影视事业实现了新的跨越和新的发展。同时，我局及市广播电视台严格按照市委市政府提出的建成“全区一流广播电视媒体”的指示精神，在保障安全播出的前提下，积极采取有效措施，从节目内容、播出时长、人员储备等方面入手，全力提升整体办台水平和节目质量，不断加强我市媒体建设，切实提高传播能力。', '为进一步充实节目内容，拉萨市广播电视台克服人员少、工作量大的困难，不断调整藏语综合频道、文化旅游频道和汉语综合频道节目设置方案，通过采取完善自办栏目内容、改进节目包装，增加引进节目数量等措施，积极拓展节目源。2013年1至12月份，藏语综合频道制作译制播出自办栏目《拉萨新闻》、《国际时讯》、《吉曲的祝福》、《幸福拉萨》、《文化拉萨》等栏目共计513期，《雪顿节特别节目》4期，播出藏语连续剧1636集；文化旅游频道制作播出《文化旅游资讯》、《食客准备着》、《玩转拉萨》等自办栏目共计127期。4月19起，藏语综合频道和文化旅游频道播出时长已由开播时的14小时延长至18小时，5月1日起，汉语综合频道实现了24小时播出。', '针对目前藏语综合频道自我译制能力薄弱的现状，拉萨市广播电视台多次组织专题研讨，不断创新工作思路。积极选派业务骨干赴中央人民广播电台和西藏电视台藏语节目译制中心开展业务培训。整合全台现有藏汉语翻译人员，培养和建立自身藏语译制队伍。目前已完成27集电视连续剧《延安锄奸》的剧文翻译、配音、后期合成和审片工作。并于2014年1月1日在拉萨广播电视台藏语综合频道正式播出，截止1月14日该剧27集已全部播完，得到了广大观众的一致好评。正在开展《你是我的幸福》等6部电视剧的剧文翻译工作，并于2014年1月10日在同时计划适时推出《惊奇十分》和《危险接触》两档编译节目。通过以上措施，不断提高拉萨市广播电视台的原创藏语影视剧生产能力，以此不断增加频道的收视率和关注度。', '新增藏语综合频道和文化旅游频道于3月26日顺利开播后，为了打造“全区一流广播电视媒体”，拉萨市广播电视台着力在狠抓精品力作上下功夫。积极参加各类节目评比，向区内外同行虚心学习。在今年7月份召开的全区电视新闻年会上，拉萨市广播电视台联合采制的大型系列报道《走遍西藏看变化》获得全区电视好新闻特等奖；西藏电视台、拉萨广播电视台合作采制的《万名干部驻村 强基惠民硕果》、《百姓幸福感城市第一》分别获优秀奖。局属市广播电视台不仅积极参加区内评，也勇于走出去与区外比。今年，局属拉萨市广播电视台在第十四届全国藏语广播电视节目评析会暨第二十九次全国藏语广播电视节目交换会上，精心选送了11件作品，有9件作品荣获佳绩。通过层层选拔脱颖而出的由林周县选送的群文类节目《阿谐》，经过局属广播电视台文艺创作团队的专业指导和改编，在中央电视台举办的第七届全国电视舞蹈大赛决赛中获得群文类金奖。积极参加由四川康巴卫视举办的“中国梦·汉藏大赛”，在决赛中拉萨赛区选送的选手荣获冠军，充分展示了拉萨市各类中学双语教学的成果。', '2013年在市委宣传部的领导下，在市组织、人社局等部门的大力支持下，我局继续积极开展人才储备工作。一方面，在全区范围内选调了藏汉翻译人员9人。另一方面，3月份，由市组织、宣传、人社、编译、广电等部门领导及工作人员组成了2个工作组分赴内地，为拉萨市广播电视台引进相关专业急需人才44人，人才引进效果显著。在市委市政府的高度重视下，市住建局的大力支持下，为局属拉萨市广播电视台引进人员解决了80套公租房，为引进人员提供了良好的生活居住环境，积极营造感情留人、待遇留人的良好氛围。', '中国传媒大学和拉萨市广播电视台本着“紧密合作、优势互补、资源共享、互惠互利、共同发展”的原则，建立教学科研实习基地，依托中国传媒大学强大的科研实力和人才优势，为拉萨市广播电视台的改革创新和提升发展提供强大的智力支持，促进拉萨广电事业的提升发展。同时，拉萨市广播电视台为中国传媒大学在校生在西部地区实践锻炼提供平台。下一步，双方拟在人才培养、科学研究、节目制作、新媒体学科创新平台建设以及文化产业开发和产学研结合方面实行全面合作，实现双方的共赢。', '今年以来，全市广电系统按照巩固成果、扩大覆盖、提高标准、改善服务的要求，狠抓广播电视户户通工程、农村电影放映工程、广播影视进寺庙工程，不断强化公共服务体系建设。', '年初，市电影公司根据全年工作安排，认真制定了全年电影放映场次计划，并与各县（区）签订了《拉萨市2013年电影工作目标管理责任书》,明确了各自的职责和任务。截止11月1日，全市共完成“农村电影放映工程”公益放映任务12000余场（次），观众达90余万人（次）。', '我市农牧区民族团结优秀影片巡回展映活动进展顺利，2013年1至12月份，共组织42支电影放映队深入村（居）、农民会牧区、社区、寺庙、部队和学校等巡回放映632场次，观看群众人数达3万余人次。拉萨市电影公司分别与各县（区）民宗局、电影管理站和楚布寺、哲蚌寺、甘丹寺、色拉寺管委会负责人签订了《拉萨市寺庙电影放映管理工作责任书》，明确了各电影放映相关单位的工作职责和要求，进一步强化了寺庙电影放映管理工作。', '2013年以来我局多次在全市各县（区）开展了广播电视“村村通”、“户户通”、“舍舍通”大巡查，深入基层乡村、农牧民家庭及寺庙僧舍，了解掌握广播电视运行维护情况，查找问题并及时解决。加强广播电视“村村通”、“户户通”设备维护升级，确保农牧民群众及广大僧尼在三大节日、重要播出保障期间安全、优质地收听收看到广播电视节目。完善了广播电视“户户通”“舍舍通”巡查制度，建立了定期与不定期相结合的维护巡查长效机制，积极争取“户户通”、“舍舍通”设备维护资金22万余元，解决全市“户户通”、“舍舍通”维护资金短缺问题，并及时根据巡查情况将维护设备发放到各县（区）确保了“户户通”、“舍舍通”长期通，安全通。今年9月份，对所辖范围内的广播电视进寺庙工程开展了回访工作，发放了“舍舍通”备用设备160套，确保了设备正常优质运转。', '我市广播电视“户户通”“舍舍通”工程进展顺利，截止12月底，全市共建设71535户、僧舍3514间，完成投资3714.9万元，广播电视人口覆盖率由2008年的95.89%、95.52%提高到目前的97.97%、98.01%。此外，我局积极协调区广电局，全面完成了老城区保护工程有线数字电视改造工作，确保了老城区居民优质高效收听收看到节目。近期，自治区广电局下达了2013年度我市3012户新增农牧民户和5332户乡镇干部职工广播电视“户户通”工程建设指标，待设备到位后，我局将全力组织实施建设。使新增农牧民群众和乡镇干部在藏历年前收听收看到广播电视节目。', '今年以来，我局始终坚持加强自身建设，按照《党政领导干部选拔任用工作条例》和《中共拉萨市委员会关于加强干部队伍建设的决定的实施细则》等有关规定，根据工作需要和职位空缺情况，选拔任用了局系统科级干部11人，充实了中层干部队伍。', '积极探索拉萨市广播电视台内部机制改革工作，正式启动了市广播电视台绩效考核试点工作。经过前期考察学习、多方调查摸底、反复研究论证等环节，结合市台实际，认真形成《拉萨市广播电视台绩效考核试点工作实施方案》。并根据要求，研究制定了《实施细则》，为了便于开展绩效考核试点工作，践行“新闻立台”理念，局属拉萨市广播电视台成立了新闻中心，10月1日起在该中心及拉萨人民广播电视台开展绩效考核试点工作。', '按照市委市政府关于先行一步开展党的群众路线教育实践活动的工作部署，我局成立了党的群众路线教育实践活动领导小组，制定了调研方案，通过实地调研、下发征求意见函、个别访谈、走访调查、调研问卷等形式，针对领导班子和领导干部在“四风”、“两问题”方面存在的突出问题，广泛征求意见及建议，并对调查表和群众反映的问题及时进行了整理和汇总，结合实际情况进行了分析、讨论，形成了《拉萨市广电局践行党的群众路线教育实践活动调研报告》。局系统县级干部已分四批先后六次深入驻村点体察民情、听取民意、调查研究。目前县级干部进村入户居住31天，办实事11件，涉及资金24500元，撰写民情日记4篇，通过政策帮扶协调自治区社保厅、市民政局解决贫困户大病救治医疗费用13300余元，切实解决了困难群众的燃眉之急。', '我局以党的群众路线教育实践活动为载体，结合强基惠民活动开展对口帮扶。按照“自愿结对”原则，以“一对一”、“一对二”、“一对多”的形式，与尼木县根培村、八一社区的困难党员以及局系统退休困难职工建立结对帮扶对象，目前我局结对数达79对，连心、恳谈次数达79次，为群众办实事65件，组织开展民族团结集体活动11次。通过一系列有效举措切实达到了了解困难、服务群众、增进交流、增强感情、加强团结、促进发展的目的。', '2014年，我局将在市委、市政府的正确领导下，在自治区广电局的大力支持和市委宣传部的具体指导下，紧紧抓住我市经济社会快速发展的机遇，克服广播影视工作面临的巨大困难和压力，振奋精神，坚定信心，以昂扬向上的精神状态，开拓创新的工作理念，求真务实的工作作风，圆满完成各项工作任务，全力推进我市广播影视工作再上新台阶。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>259</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>年拉萨市财政工作亮点纷呈</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2014-01-02</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201401/73e9f2afc89141689dc39141ea587116.shtml</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['2013年，我市紧紧围绕“环境立市、文化兴市、产业强市、民生安市、法制稳市”五大战略和目标、任务、效能“三提速”的奋斗目标,切实做到“三坚决三表率（即：坚决服从市委的决定、坚决维护各级党组织的核心地位、坚决完成各项目标任务，争做秉公执法的表率、争做勤学善思的表率、争做真抓实干的表率），深化认识，综合运用教育、制度、监督、奖惩、改革等措施，充分调动广大干部职工的主观能动性和创造性，凝聚起了建设“美丽家园幸福拉萨”的强大向心力和战斗力。全市财政工作以落实积极财政政策为宏观调控抓手，支持项目建设，着力培植财源，狠抓收入征管，深化财政改革，优化支出结构，推进增收节支，迎难而上，奋发拼搏，为经济社会发展作出了新贡献，总结一年来的全市财政工作，主要有六大亮点：', '我市始终把组织财政收入工作摆在首要位置，努力克服经济下滑和结构性减税政策影响，全力保障地方财政收入稳定增长。一是强化税收征管，加大税务稽查力度，深入挖掘税收潜力，做到应收尽收。二是积极挖掘非税收入潜力，逐步完善行政事业性收费收入缴入国库工作，非税收入实现了较快增长。到年底，全市公共财政预算收入预计完成500000万元，比上年同期增加156433万元，增长45.53%，财政收入持续保持较快增长的良好势头，公共财政预算收入再创历史新高。', '按照建立公共财政支出体系的要求，进一步优化财政支出结构，有保有压，严控行政运行成本的同时全力保障市委、市政府各项决策部署的落实，进一步加大对全市教育、社会保障和就业、医疗卫生、农林水等民生事业的投入力度，有力地促进了全市经济社会各项事业的和谐发展。到年底，全市公共财政预算支出预计完成1360000万元，比上年同期增加290991万元，增长27.22%。其中，用于民生方面的支出达到了320000万元之多，占全年新增财力的60%以上，占全市公共财政预算支出的31.96%，预计全市全年公共财政预算支出完成125亿元，比上年增长18%。', '一是认真研究投资政策，积极与国家财政部、自治区财政厅对接，以基础设施、创新社会管理、新农村建设、产业发展等领域为重点，配合相关部门向上申报项目，积极向国家财政部和自治区财政厅争取项目资金。截至目前，共向国家和自治区争取资金464538.14万元，上级资金的及时到位，有效地缓解了我市财力紧张的状况，为促进全市经济社会跨越式发展注入了强劲动力。二是按照市委、市政府确定的年度目标任务，围绕中心服务大局，对城市供暖供气、社会管理网络数据中心、老城区特色风貌保护、民兵训练基地、文成公主实景剧展演、重点项目前期工作、市广播电视台新增电视频道开播、教育城建设、西藏旅游文化创意产业园区、便民人行天桥建设等全市重点项目建设给予了有力地支持。', '控制、压缩和规范不合理的一般性开支，进一步深化预算编制、国库集中支付、政府采购制度等各项财政改革，加强预算内外资金使用的监管，努力提高财政资金使用效益。一是加强政府采购和评审工作。继续加强政府采购和招投标工作的监管，规范政府采购程序。二是强化各项民生项目资金监管。针对民生项目的特殊需要，把财政监督工作重心转移到资金的跟踪监控和专项检查上，从健全管理制度入手，明确管理要求，完善管理措施，建立公示制度，提高了民生项目资金的使用效益。截至目前，全市共完成政府采购预算资金29638万元，实际执行资金27888万元，节约资金1750万元，节约率达5.90%；完成评审项目31个，送审金额71265.86万元，审减金额3579.81万元，审减上缴资金1156.25万元。同时，对各单位报送的85个维修、改扩建等项目预算进行了审查，送审金额9716.09万元，审减金额1542.15万元，审减率达到15.87%。', '一是根据中央和区市党委规定，结合财政实际，制定具体措施，坚持和发扬艰苦奋斗精神、弘扬“老西藏精神”，不折不扣地执行中央的中央八项规定和区、市党委的各项要求。推动工作作风转变和工作效率提高，不断降低行政成本，使真正落实中央八项规定成为党员干部的自觉行动。二是作为财政部门，我局带头模范执行中央、国务院关于厉行勤俭节约反对铺张浪费条例精神和区、市党委政府的有关要求，切实压缩市直各单位人、车、会、文等一般性支出，彻底根除单位“小金库”。从严控制市直各单位“三公”经费支出，根据全市实际拟订了《关于进一步加强拉萨市行政事业单位国有资产出租出借管理的通知》、《拉萨市行政事业单位公务用车配备使用管理办法》和《关于进一步规范参加区外各类会议考察学习等活动经费的规定》并由市委、市政府批转执行，并一律停止审批市直各单位政府性楼堂管所、办公用房经费申请。1-11月份全市三公经费同上年比下降5%。三是进一步强化财政预算执行的严肃性，减少预算执行中的调整事项，严格执行预算审批制度，严查严惩贪污、挪用、截留财政性资金行为，最大限度把财政资金用于促发展、保稳定、惠民生上，确保每一分钱都用在刀刃上。', '一是认真抓好《关于做好新形势下群众工作的实施方案》（拉委厅发〔2013〕32号）的落实。组织市财政局全体党员领导干部到曲水县达嘎乡和城关区鲁固社区群众中开展好“三进四同三一”活动，为基层群众做好事办实事，帮扶困难群众26人，带头捐赠钱物11000多元，协调争取了乡村旅游、道路水渠、社区餐厅等强基惠民发展项目资金279万元，同时结合党的群众路线教育实践活动，着力解决干部职工反映的突出问题。二是按照全市创先争优强基础惠民生活动推进会的安排部署，围绕“五项任务”，督导驻曲水县达嘎乡色达村和驻城关区鲁固社区工作队继续突出抓好基层组织建设、“八看、一算账、一揭批、四增强”感党恩主题教育活动、“四业工程”、法治稳市战略等驻村工作重点任务，进一步夯实了基层发展稳定的基础。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>259</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>拉萨市拓展就业渠道强化创业服务</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2018-02-09</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201802/f1d39c485ed847fca865a31b33b74cbc.shtml</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['拉萨市认真贯彻落实中央、区、市党委、政府关于促进高校毕业生就业创业工作决策部署,落实国务院《关于做好当前和今后一段时期就业创业工作的意见》(国发〔2017〕28号)和自治区党委、政府《关于促进高校毕业生就业创业的若干意见》(藏党发〔2017〕9号)精神,坚持实施就业优先战略,紧密结合全市小微企业创业创新基地城市示范,以服务高校毕业生就业创业为出发点和落脚点,积极转变高校毕业生就业创业观念,强化指导培训,搭建交流平台,全面推进高校毕业生自主就业创业。', '一是以基础设施建设、队伍建设、制度建设和服务能力建设为重点,深入各类用工企业集中开展大型岗位信息收集活动3次,累计开发就业岗位30764个,依托各级公共就业服务平台开展职业介绍10462人,全市实现城镇新增就业16105人,城镇登记就业率控制在2.2%以内,实现农牧区劳动力转移就业9.2万人、19.1万人次,转移就业实现收入5.12亿元。二是创新拓展招聘会形式与规模,现已形成月月有小型、季度有大型,专场与综合、区内与区外、市级与县级相结合的多渠道、多层次招聘服务模式。2017年,累计开展各类招聘会25期,组织企业1615家次,提供岗位31160个,进场求职42340人次,招聘会各项规模、成效均创历史新高。三是纵深推进就业援藏,组成就业援藏工作领导小组前往北京、江苏开展就业援藏协调和创业创新考察,协调北京、江苏共录用45名高校毕业生到区外就业,累计招录319名高校毕业生到区外就业。2017年,拉萨市应届高校毕业生3803人,截至目前已就业3435人,就业率90.3%,其中:市场就业2667人。承担吸纳其它地市高校毕业生在拉萨市场就业565人,创业39人,共计604人。1月10日招聘会,参加企业300家,2605人投递简历,实际招录(意向)人数825人,其中正式签约90人。', '一是以政策促就业创业。认真落实自治区党委政府《关于促进高校毕业生就业创业的若干意见》,率先在全区开展就业创业奖补资金兑现工作,全年发放各类补贴资金92.04万元,大力扶持高校毕业生就业创业。二是以协会促创客集聚。率先在全区成立“高校毕业生创业协会”,目前会员单位已达93个,带动700余人实现就业(其中:高校毕业生210人,应届21人。)三是以空间促创业孵化。建立拉萨市第三极众创空间,为高校毕业生创业者提供政策扶持、项目论证、创业培训、创业实训、开业指导等“一站式”服务。现有14家高校毕业生创业企业入驻孵化,实现经济效益1500多万元。四是以论坛促思维创新。连续两年举办拉萨市大学生创业论坛,在论坛期间开展创业成果展、高校就业创业政策巡回演讲、圆桌论坛、创业者分享会等活动,在全市营造了浓厚的创业创新氛围。五是以基地促合作交流。在深圳松禾孵化器、深圳赛伯乐观澜湖众创空间、西藏民族大学等地挂牌建立创业创新实践基地,合作开展创业孵化、创业指导、创业交流等活动。六是以培训促能力提升。开展知识产权、企业发展、SYB等创业培训12次,培训人员达400余人,指导提高创业者的企业运营管理能力。七是以项目促企业发展。加大对高校毕业生创业项目扶持力度,人社部门相关项目交由高校毕业生创办企业实施,项目资金累计达764万元。八是以宣传促思想转变。制作藏汉双语政策和创业人物故事宣传片,联合学校、园区、众创空间、培训机构等开展政策解读培训会11次,参与学生8000余人次,发放各类宣传资料4万余份。2017年下半年扶持全市应届高校毕业生11人成功创业。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>259</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>胡洪主持召开我市脱贫攻坚指挥部年第五次工作例会</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2017-06-10</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/ldhd/201706/1a5434ef25ad4b3987ea65c1dcc0f8bd.shtml</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['会上,各县(区)脱贫攻坚指挥部汇报了目前工作开展情况及下一步工作计划;研究了《关于推进跨县(区)集中搬迁点贫困群众就业安置工作的实施意见》和《关于赴云南、贵州、山西、江西省考察学习脱贫攻坚工作的报告》;北京市、江苏省援藏指挥部汇报了对口援藏扶贫工作衔接情况。', '胡洪强调,各县(区)、各有关部门要牢固树立“四个意识”,特别是核心意识、看齐意识,要认识到脱贫攻坚的艰巨性、长期性、严肃性,下一番“绣花”功夫做好脱贫攻坚各项工作;要压紧压实打赢脱贫攻坚战的主体责任,坚决保持干部队伍稳定,切实做到贫困县党政正职不脱贫不调整、不摘帽不调离。', '胡洪要求,要深刻认识到产业是发展的根基、是脱贫的主要依托。要立足拉萨实际,借鉴学习先进经验,因地制宜合理确定产业发展方向、重点和规模,逐点研究产业项目,建立完善贫困户与产业发展间利益联结机制,充分发挥龙头企业的资源优势、辐射和带动作用,以销带产促增收,让贫困人口分享产业发展收益。积极探索在荒山融合发展养殖业和林业,在优化生态的同时带动产业发展。', '各县(区)要提前谋划、主动作为,充分尊重贫困户的个人意愿、考虑搬迁户生活习惯、就业诉求等,深入研究解决搬迁中的医疗、教育等各类民生问题。', '要对跨县(区)集中搬迁点贫困群众就业安置工作进行专项调研,明确迁出、迁入地在就业安置工作中的责任与要求,确保每个搬迁户至少有一人就业,真正实现贫困群众“搬得出、留得住、有事做、能致富”。', '要进一步规范核实贫困户户档资料,进行集中抽查并通报结果;要更加注重扶贫与扶志、扶智相结合,改进帮扶方式,教育激励贫困群众增强勤劳致富的主动性和能动性,不断提高自我发展能力;要提早谋划考核验收,以扶贫工作考核验收为契机,认真梳理、研究问题,使考核结果发挥更大效果。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>259</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>纪念拉萨中学建校六十周年守正革新谋发展桃梅樱李馥郁香</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2016-09-21</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201609/c9982d821cc0483d9904e3fc42d407aa.shtml</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['纪念拉萨中学建校六十周年:守正革新谋发展 桃梅樱李馥郁香_拉萨要闻_拉萨市人民政府', '春发其华，秋收其实。从1956年到2016年，拉萨中学走过了辉煌壮丽的60个春秋，取得了教育发展的辉煌成绩。拉萨中学60年的办学业绩是我们的党和 政府大力发展民族教育的丰硕成果之一，是西藏自治区基础教育大发展的一个缩影。60年奋发图强，革故鼎新，使拉萨中学进入了可持续发展的崭新局面。', '1956年7月27日，西藏自治区筹备委员会常务委员会第八次会议根据当时西藏的发展形势，讨论通过了《西藏自治区筹备委员会关于创办拉萨中学的决议》。 这是西藏和平解放后中国共产党在发展小学教育基础上进一步提升民族教育水平的一个重要战略决策，也是我区初等教育发展的里程碑。1956年9月21日，拉 萨中学正式建立，开启了探索特色化民族教育的办学道路。', '1974年，根据国务院指示，内地省市开始派教师支援西藏教育工作，上海首批援藏教师到校工作。随后，上海、北京等内地各省市先后派出了10批200余人 的短期援藏教师，他们为拉萨中学的早期发展作出了重要的贡献。1978年改革开放的浪潮席卷全国，拉萨中学和西藏其他行业一样，在党中央亲切关怀和全国人 民的大力支援下，在自治区党委政府和区教工委、教育厅的正确领导下，逐步驶入了全面发展的快车道，进入发展最好、最快的历史时期。1997年拉萨中学实行 初高中分离，成为西藏第一所由区教育厅直属的自治区级重点高中。2005年拉萨中学成为全区第一批事业单位人事制度改革试点单位。', '拉萨中学创建至今，始终受到党和人民政府各级领导的重视和关怀。1960年8月，全国人大常委会副委员长十世班禅额尔德尼·确吉坚赞和自治区领导亲切接见了拉中 师训班的全体师生并合影留念；1963年8月，中央代表张经武同志参加了拉中第一届高中毕业生的毕业典礼并讲话；1965年9月，中央代表团视察了拉萨中 学。近半个世纪来，国家教育部、文化部、团中央、自治区等领导百余次来校视察和指导工作。2009年8月中央政治局委员、国务委员刘延东同志视察该校并作 重要讲话。2013年8月，全国政协常委十一世班禅额尔德尼·确吉杰布看望学校师生。领导的关怀，如春风化雨，鼓舞激励着一代代拉中人奋发进取。', '步入新世纪，学校全面贯彻党的教育方针，紧紧围绕“为谁培养人、培养什么人、怎样培养人”的根本问题和“立德树人”的根本任务，坚持德育为首，在办学思 想、师资建设、教育教学等方面进行了一系列改革，坚持以“质量立校、教研兴校、管理强校”为支撑点，以“创造适合学生发展的教育，为学生的终生奠基”为办 学理念，积极发扬“爱国、团结、创新、奉献”的拉中精神，遵循“厚德博学，知行合一”的校训，全面实施素质教育，培养志向远大，品德高尚，勇于创造，全面 发展的高素质社会主义建设者和接班人，努力把学校打造成文化氛围浓郁、校园环境优美、师资力量雄厚、管理科学高效、教学质量一流、办学特色鲜明的现代化国 内一流名校。崇高的信念和理想，引领拉萨中学不断攀登教育现代化高峰！', '60年蕴含书香翰墨，60载春秋薪火相传。一代又一代的拉中人用他们的心血与汗水、执著与躬耕，摘取了一项又一项殊荣，使之成为学子回眸一生、教师坚守终 身、社会普遍尊崇的教育圣地。拉萨中学辉煌的办学成绩赢得了社会的认可和普遍赞誉，先后被教育部、文化部、中央精神文明办、团中央及自治区评为“全国精神 文明建设先进单位”“全国教育系统先进集体”“全国民族团结进步模范集体”“全国学校艺术教育先进单位”“全国青少年体育工作先进集体”“全国足球传统项 目优秀学校”“全国民族地区青少年爱国主义教育工作先进单位”“2014年全国百所体育传统项目学校”等，2014年，第三十个教师节之际，再次被评为 “全国教育系统先进集体”。学校是西藏自治区国防教育基地、中国人民解放军成都军区国防生源基地和中国人民武装警察部队国防生源基地，也是全区唯一一所获 得北京大学“中学校长实名推荐制”资质和清华大学“新百年领军计划”优质生源基地的学校。', '拉萨中学坐落拉萨市中心，毗邻布达拉宫，人杰地灵。学校占地面积278亩，教学区、办公区、学生公寓区、运动区、教工生活区等布局清晰合理，充分展示了拉萨中学独具特色的文化内涵和现代气息，是名副其实的绿色校园、平安校园、和谐校园。', '——教学设施完善。校园建有教学楼、综合楼、图书科技楼、办公楼、体育馆等现代化大型建筑，设有各学科实验室、心理咨询室、天文观测台等，配套设施先进完 善。图书馆按照配置标准设有教工电子阅览室、学生电子阅览室，配备专门图书管理员，纸质图书10万余册，电子藏书24万册，杂志220多种，报刊50多 种，工具书500多种。学校建成有校园网站、多媒体教室、音乐、美术专有教室。各学科实验室、实验设备按标准配置。学校心理咨询室有固定办公场所，配有1 名专职和4名兼职辅导教师，并利用课余时间针对学生心理情况进行分类辅导，无数学子的梦想在这里重新放飞！', '——生活设施齐全。学生宿舍、学生食堂等设施齐全，舒适方便。小花园广场、绿荫走廊、校训墙、校友纪念园、教师之家等为师生提供了良好的娱乐休闲环境。现 在校园内建有9幢教工宿舍楼及1幢教工活动室，7幢学生公寓楼。每幢教工宿舍楼的水、电、太阳能热水器、光纤信号、网络宽带全部入户；学生公寓楼有床位 1388个，宿舍每层设有厕所、洗漱间，宿舍内装有壁柜，住宿宽敞、舒适方便。学校建有学生食堂1幢，可供2800名师生同时就餐。学校医务室配备1名专 业医务人员，常用医疗设施和常需药品齐全。植物园中植物种类繁多，保留百年以上古树26棵，绿化率占总面积的60%以上。绿树成荫，环境幽雅，为师生的学 习、生活、工作提供了良好环境。学校也因此被评为“全国环境教育先进单位”“全国绿化先进单位”“自治区卫生先进单位”。', '——运动设施完备。学校还建有体育馆（学生活动中心）、8个塑胶篮球场、400米塑胶跑道的标准化田径场、15615平方米的人工草坪足球场以及 8751.77平方米的足球、网球、排球综合运动场等等。学校制定了《拉萨中学体育工作条例》，体育设施、场馆完善，管理制度健全，能满足全校师生运动需 求。', '——文化氛围浓厚。为提升环境的育人作用，学校还制订了《拉萨中学校园文化建设方案》，注重校园环境建设和文化设施基础建设，提升文化品味，努力构建具有 学校特色的校园文化体系。校园内开辟有文化墙、德育基地、校史展览室等校本教育场地。重视走廊文化，展示学生优秀艺术作品。校园已逐步营造出特色鲜明、健 康向上的浓郁的文化氛围。2013年学校被国家环保部授予“环境教育示范基地”。', '——后勤服务周到。学校紧扣育人宗旨，抓好后勤保障服务，为师生在校学习、生活、娱乐提供优质的后勤保障。后勤部门层层落实工作责任制，不遗余力地抓好校 园安全和师生服务工作。认真听取师生意见，不断改进保障服务的思路和方式方法，把每一次服务都做精、做细、做好。温馨的后勤服务，促进了和谐校园文化氛围 的进一步形成。每一次有形的保障服务工作都化成了无形的育人活动，赢得了师生的肯定和赞誉，收获了浓浓的师生情谊。', '回顾历史，拉萨中学能够从无到有，在艰辛创业中成长、发展、辉煌，源于60年来凝练出的“爱国、团结、创新、奉献”的拉中精神。', '60年来，拉萨中学始终坚持社会主义办学方向，坚持中国共产党的领导，坚定不移地执行党的教育方针。建校伊始，学校建立了党支部，直接受中共西藏工委领 导。2013年，成立校党委，隶属于教育厅机关党委，下设文科、理科、后勤、学生、退休、网络6个党支部，现有党员115人。在校党委的领导下，团委、工 会、妇委会、教代会、学生会、业余党校、团校等组织完善，机构健全。团委、学生会延伸到年级、班级。学校设有办公室、教务科、政教科、教科室、现代教育技 术中心、后勤服务中心、学生生活管理办公室7个管理职能科室。分工合理，职能明确。在党的领导下，拉萨中学每届领导团体，都忠于祖国，忠于党的民族教育事 业，德才兼备，乐于奉献，为学校每一步发展决策导航。', '60年来，在校党委的领导下，学校严格落实“三会一课”和民主评议等制度，结合日常教学和管理创造性地开展工会、妇委会、共青团、学生社团各项工作，积极 完善教代会、校务会、校长办公会三级决策机制，严格遵循“集体领导、民主集中、个别酝酿、会议决定”的程序进行决策，把民主集中制贯穿到了党内生活和学校 运作的各个环节。2012年，学校通过教代会、校务会、校长办公等讨论，制定了《西藏拉萨中学中长期事业发展规划（2012年至2020年）》，明确了发 展目标和发展措施。学校按照“制度完善、依法治校，统筹协调、形成合力，落实责任、务实精细，发扬民主、集体决策，以人为本、人文关怀，激发潜力、注重效 能”六个标准规范管理，认真落实党政领导“一岗双责”目标责任制，妥善处理好了学校改革、发展、稳定的重大问题。学校注重调动广大教职工工作积极性，实行 民主管理、科学管理、依法治校。学校工会、教代会依法行使职权，履行职责，按章程开展各项活动。学校坚持党务、校务公开制度，严格规范办学行为。', '60年来，学校始终坚持德育为首的工作方针，确立了“爱国、文明、健康、进取”的德育目标，推行“德育导师制”和“全员育人、全程育人、全面育人”的“三 全”育人模式，形成了“学校、社会、家长”以及“党总支、团委、学生会”密切配合的网络化德育体系。同时，高度重视学生党建和团建工作，依托学生党校和团 校，突出马克思主义“四观”“两论”教育、反分裂教育和民族团结教育。2009年成立学生党支部，以学生业余党校和团校为依托，培养优秀学生干部和学生党 员，在学生党员发展上坚持“早播种、早育苗、早培养、早成熟”的“四早”方针，在教育培训上注重“教学内容丰富多样，教育手段灵活多样，管理制度具体多 样”的“三个多样”，突出马克思主义“四观”“两论”教育、反分裂教育和民族团结教育。学校制定了《德育工程序列》，开展丰富多彩的教育实践活动，有效实 现了学生思想教育“组织化”“制度化”“课程化”和“实践化”。学生业余党校已开办31期，发展入党积极分子236名，学生预备党员52名。团校开办25 期，每年培训入团积极分子200人。', '如今，拉萨中学校风学风良好。学生尊师好学，团结互助，言行文明，好人好事层出不穷，无违法犯罪现象。学生具有正确的世界观、人生观、价值观和强烈的社会责任感。', '学校努力践行“创造适合学生发展的教育，为学生的终生奠基”为办学理念，积极培养志向远大，品德高尚，勇于创造，全面发展的高素质社会主义建设者和接班人，关爱每一名学生，促进学生健康成长。拉萨中学成了莘莘学子在追求知识上的灵魂归宿。', '——关爱学生健康成才。学校紧紧围绕“促进学生健康成长、学校稳定发展、教育和谐进步”这一主线，高度重视安全维稳工作。制订了《拉萨中学安全工作方案》 《拉萨中学维护安全稳定工作方案》《食堂食品卫生安全管理规定》《拉萨中学门卫制度》等一系列规章制度，将思想政治、消防交通、饮食卫生、网络信息等安全 教育贯穿于学校全年工作，对教室、食堂、宿舍、食品、卫生、安全、防疫等进行时时监管和全程检查。狠抓安全生产和校园稳定，确保师生生命财产安全和国家财 产安全，保障学校良好的教育教学秩序，为学生成长提供了良好环境。', '——关注学生终身发展。为促进学生全面发展，学校开设了丰富多彩的活动课程。成立了运动队、舞蹈队、合唱队、美术摄影、科技创新等28个学生社团，经常性 组织各类竞赛。学校按规定开齐音体美课程，重视劳动卫生教育，建立课程档案，给予学分认定。注重发挥学生自主管理的重要作用，建立健全学生团组织、学生 会、班委会，成立护校队、学生食品监督小组，注重学生干部的培养与选拔，班干部、团干部实行民主选举，团组织、学生会能够有计划地开展各类丰富多彩的课外 活动。学校按照《拉萨中学学生综合评价实施方案》建立学生成长档案，认真开展多元评价。2011年，宋璐璐荣获全国时事征文二等奖；2012年有8人获得 全区运动会道德风尚奖，胡蓝月同学荣获鲁迅青少年文学奖；2013年有3人获得全国第四届中小学艺术展演活动二等奖。', '——关心学生学习生活。为免除贫困学生学习生活后顾之忧，建校后相当长时间内，学校对学生实行“两免”政策。1997年初高中分离以后，学校面向全区招 生。针对在校贫困生的实际，学校采取了一系列扶贫济困措施，把党的温暖和全国人民的关怀送到了贫困生的心上。学校还通过各种渠道，先后争取到了“金龙鱼” 西部助学金、泰国诗灵通公主基金、西藏建设银行中国银建投资公司奖（助）学金、体育彩票公益金助学、自治区藏药厂助学金等10余项资助项目。同时，学校实 行减免政策，免除贫困生的学杂费和住宿费，减免额度占全校计划内学生总数25%以上。2011年9月起，学校切实贯彻落实藏财教字［2011］69号、 71号文件精神，开始实行农牧民子女“三包”政策及高中免费教育的优惠政策。这些措施都有效地解决了贫困生就学、生活、看病等方面的实际困难，确保了每一 名学生都能顺利完成学业。', '多年来，一批批拉中毕业生从这里走向高等学府，走向建设岗位。他们爱国爱党，勤奋好学，综合素质突出，已成长为西藏建设各条战线上的骨干力量。', '新时期的拉萨中学，不断更新教育理念，加强师资队伍建设，完善课程体系，强化教研教改，不断提高教学水平，在几代拉中人的不懈努力下，取得了辉煌的办学成绩。', '——常规管理精细。学校按照教育部《普通高中课程方案（实验）》开齐课程，构建了一套适合学生发展的课程体系。学校制定了《教学常规要求》《教师备课要 求》《教师听课制度》等一系列规章制度。实行教学值班制度，经常性开展教学检查和效果评价，力使教学各个环节得到有效监管。按照新课改要求，学校教师在日 常教学中熟练掌握教育信息技术和实验操作技术。学校按照体育、卫生、艺术工作各项条例，认真开展健康教育、体质达标和体质监测工作，坚持每天1小时阳光体 育活动。严格学籍管理，招生、转退学、休复学等手续完备，学生档案资料齐全。', '——教研活动规范。学校制定了一系列学科教研制度，积极研发校本课程、教材和网络资源。每年有50%以上的教师参与课题研究，开设了35门校本课程。学校 每年编辑1期学生征文集和教师论文集。近两年，有300余篇教育教学论文在省级以上刊物发表。学校教研组健全，教研活动规范，立足学校、课堂、教学，有针 对性地开展教育研究。学校还积极与区内外兄弟学校开展新课程改革经验学习和交流。', '——交流成果明显。为了促进教师专业发展，学校完善了教师考核和聘用机制，确定了“一年合格，三年成熟、六年骨干”的教师培养目标，大力实施“名师工 程”，积极培养骨干教师和学科带头人，采取“走出去、请进来”的方式，加强师资队伍跨地区、跨省份、跨国家的交流培训，并不断强化教师业务比赛，提高教学 水平。2006年以来，学校已开展7届优质课竞赛活动，派出教师240人次赴国内名校和国外考察学习，先后接待国外和港台地区40多个访问考察团，邀请数 十名有管理经验的名师到校传经送宝。学校为广大教师创建了良好的发展平台和激励机制，全校教师有良好的职业道德，爱岗敬业，教书育人，为人师表。', '——学生特长突出。学校按照《西藏自治区课程安排指导意见（试行）》设置课程，制定了《西藏自治区拉萨中学学分认定管理办法（试行）》《西藏自治区拉萨中 学研究性学习课程实施方案（试行）》《西藏自治区拉萨中学社会实践和社区服务课程实施方案（试行）》，培养学生社会实践能力、探索能力和创新精神。 2010年至今，拉中学生连续6年参加全国青少年科技创新大赛，10余人获得全国三等以上奖项。', '忆往昔，看今朝，琼园之树结硕果；雄关道，从头越，拉萨中学明天会更好。如今，拉萨中学站在了新的历史起点上，正以“办学模式特色化、教育质量精品化、校 园环境生态化”的发展目标，将在探索民族教育的道路上，不断抒写光彩华章，不断为推动民族教育事业的发展作出更大的贡献！', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>259</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>白玛旺堆率拉萨市党政代表团赴南京市考察学习</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2017-09-28</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/ldhd/201709/ff78ed070562481cb40fb4169cb561a6.shtml</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['近日,区党委常委、拉萨市委书记白玛旺堆率拉萨市党政代表团赴南京市考察学习,进一步加强两地在产业、文化、旅游等领域的交流合作,努力开启两地互利共赢、加快发展的新篇章。', '在南京农副产品物流中心,拉萨市党政代表团参观了会展中心、规划沙盘、指挥调度中心、检验检测中心以及物流园区的果蔬和水产市场。南京农副产品物流中心是按照“南京唯一、华东一流、全国有影响”的功能定位,统筹调度各类农副产品供应资源,增强农产品供应保障的全面性、系统性和针对性,高起点、高标准规划建设的特大型“菜篮子”工程。代表团表示,要积极学习借鉴南京农副产品物流中心先进的市场管理经验,加强沟通,深度对接,充分整合优势资源,加强电商平台建设,进一步提高产业规模化、集约化发展水平,促进拉萨现代农副产品的快速发展,实现农牧业增效、农牧民增收。', '走入南京净土健康产品展示中心——高原反映,映入眼帘的是糌粑、藏红花、青稞酒……独具特色的西藏净土健康产品琳琅满目,应有尽有。高原反映,由江苏藏缘文化发展有限公司与西藏拉萨净土健康产业公司合作,在江苏南京乃至全国范围内所开设,是集西藏净土健康产品展示、销售、推广于一体的连锁品牌机构与展示平台。代表团表示,高原反映,不仅是西藏净土健康产业展示及销售平台,更是拉萨市政府民心工程在江苏的展示窗口,促进了西藏与江苏、拉萨与南京的经济文化交流和发展。今后,我们要充分借助援藏平台,进一步创新援藏方式、拓宽援藏领域、深化援藏内涵,贯彻落实“五大发展理念”,深入推进供给侧结构性改革,紧密结合自身实际,发展特色优势产业,牢固树立品牌意识,不断提升产品市场竞争力,做大做强净土健康产业,延伸产业链,提升价值链,让雪域高原净土健康产品走向全国、走向世界。', '在南京市政务服务中心,代表团通过听取介绍、实地参观等方式详细了解了该中心项目审批、业务办理等情况,对该中心便捷简化的审批服务、务实高效的办事效率、便民利民的服务理念表示赞赏。代表团表示,要以此次参观考察为契机,全面加强学习,深入推进“放管服”改革,充分运用互联网、大数据等信息化手段,加大改革创新力度,不断创新方式方法,优化发展环境,转作风、提效能、优服务,提升政务服务水平,大力弘扬干事创业、勇于担当、积极作为、争先进位的精神,以更加宽阔的视野、更加饱满的热情、更加扎实的工作,为建设团结美丽健康幸福新拉萨作出新的更大贡献。', '在南京期间,拉萨市党政代表团还考察了苏宁集团、南京领军人才创业园、河西新城青奥轴线、江北新区综合管廊和产业发展等。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>259</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>西藏拉萨市委组织部年度部门决算</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2017-08-25</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/czjs/201708/2182a516e82a4ef5a070a384f5be6daa.shtml</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['中共拉萨市委组织部(拉萨市机构编制委员会办公室)与拉萨市委老干部局合署办公。中共拉萨市委组织部是市委主管全市组织工作和干部工作的职能部门;拉萨市机构编制委员会办公室是拉萨市机构编制委员会的常设办事机构,既是市委工作部门,也是市政府工作部门,列市委工作部门序列,负责全市行政管理体制改革、机构改革和机构编制管理工作;拉萨市老干部局是拉萨市委管理退(离)休干部工作的职能部门。主要履行下列职责:', '主要负责全市在党的基层组织建设、党员教育管理、党员发展、党费管理、党的工作制度、党内生活制度等方面进行指导、组织、管理,提出意见建议等。', '主要负责全市领导班子和干部队伍建设(公务员队伍建设)的宏观管理,包括管理体制、政策法规、干部人事制度改革等方面的规划、研究、指导等,对中央管理单位的领导班子换届、调整、任免等提出建议。', '主要负责全市人才工作和人才队伍建设宏观管理、政策法规研究制定,指导协调专项人才工作以及海外高层次人才引进工作,开展联系高级专家工作。', '主要负责全市干部教育培训工作的整体规划、宏观指导、协调服务、督促检查、制度规范,指导分级分类开展干部教育培训以及干部教育培训国际合作交流等。', '主要负责全市领导班子和领导干部、党政领导干部选拔任用工作及有关法规贯彻执行情况的监督。', '主要负责全市离退休干部工作政策的制定和宏观指导,包括落实离退休干部的政治待遇和生活待遇,发挥离退休干部的作用等。', '贯彻执行中央和自治区关于行政、事业管理体制改革,机构改革和机构编制管理的方针政策、法律法规,统一管理全市机构编制工作。', '中共拉萨市委组织部(拉萨市机构编制委员会办公室)设正科级内设机构11个,分别为办公室、研究室、组织科(党员管理科)、干部一科(对口支援干部科)、干部二科、公务员科(公务员管理办公室)、人才工作科、干部教育科、干部监督科、机构编制综合科、机构编制管理科;所属事业单位4个,分别为拉萨市组织编制信息管理中心、拉萨市机构编制实名制管理中心、拉萨市党员电化教育中心、拉萨市干部监督举报中心。', '中共拉萨市委老干部局设内设机构1个,即综合服务科;所属事业单位2个,分别为拉萨市老干部活动中心、拉萨市关心下一代委员会办公室。', '基本支出收入1170.13万元,占总收入的23.09%,主要用于部机关日常业务正常运转,包括在职和退休人员基本工资、津贴补贴等人员经费以及办公、水电、差旅、交通费用等行政运行公用经费;项目经费收入3896.83万元,占总收入的76.91%,主要包括拉萨市“三严三实”“忠诚干净担当”专题教育活动办公室工作', '、“强基础惠民生”活动办公室工作和表彰驻村工作队经费、县乡党委换届选举工作经费、网络租赁及托管经费、《拉萨市党建手机报》推送经费、网络教育平台运', '老人员”及基层党组织等“三大节日”慰问经费、老干部活动中心运行经费、离退休老干部参观考察活动经费、“每月一课”经费、干部教育培训经费、万名村居干部培训经费等项目。', '主要用于部机关日常业务正常运转,包括基本工资、津贴补贴、休假路费等人员经费以及办公、水电、差旅、交通费用等行政运行经费和各种项目经费。', '、本年度共发生公务用车运行维护费40.32万元,与上年相比减少了7.86%。原因是进一步完善了车辆的管理制度,提高了车辆的使用效率。', '、基本支出。包括两部分:一部分是人员经费,具体包括工资、津贴及奖金、医疗费、住房补贴等;二是公用经费,具体包括办公及印刷费、水电费、邮电费、交通费、差旅费、会议费、福利费、日常维护费等。', '、项目支出。具体包括会议费、购置费(包括设备、计算机等)、干部培训费、信息网络运行维护费等用于一般组织事务方面的项目支出。', '截止2016年12月31日,拉萨市委组织部共有车辆9辆,均为一般公务用车,无单位价值200万元以上大型设备。', '、拉萨市离退休干部、“三老”人员、生活困难党员和部分基层党组织“三大节日”慰问经费项目。根据中组部、区党委组织部、区党委老干部局的有关要求,充分体现市委、市政府对全市离退休老干部、“三老”人员、生活困难党员和部分基层党组织的关怀和重视,在2016年元旦、春节、藏历新年期间走访慰问了拉萨市离退休老干部、农牧区“三老”人员、生活困难党员和部分基层党组织。', '。按照市委关于开展“三严三实”“忠诚干净担当”专题活动的总体部署,成立了活动办公室,认真开展“三严三实”专题教育工作。', '、“强基础惠民生”活动办公室工作和表彰驻村工作队经费。按照区党委、市委关于开展“强基础惠民生”活动的总体部署,成立了“强基础惠民生”活动办公室,扎实开展强基惠民活动,每年表彰一批优秀的驻村工作队和工作队队员。', '、《拉萨市党建手机报》推送经费。根据《拉萨市党建手机报项目合作协议》,每周向全市移动、电信手机4万用户党员推送《拉萨市党员手机报》,传达党和政府的声音,促进全市党建工作相互交流,展示拉萨形象,引领社会舆论导向。', '、农村党员干部远程教育系统网格租赁和托管经费。根据《关于转发&lt;西藏自治区财政厅关于下达区党委组织部全区农村党员远程教育系统网络租赁线费、托管费、运行维护预算指标的通知&gt;的通知》,维护运行农村党员干部远程教育系统和站点,确保农村党员干部远程教育站点正常顺利运行。', '、干部教育培训经费。根据市委八届三次、四次全委会关于“加强和改进干部教育培训工作,大规模培训干部、大幅度提高干部素质”精神,按照“干什么训什么、缺什么补什么”的原则,分批组织县处级、科级、乡镇干部等学员到区内、区外专业培训机构进行培训,为参训学员在今后的工作中提供理论指导和政策支撑,提升实际工作能力,妥善处理工作中不断出现的新任务、新问题,确保2020年拉萨与全国一道实现全面建成小康社会的目标。', '、帮助那曲等五地市村(居)干部赴拉萨开展培训经费。按照区党委常委、拉萨市委书记齐扎拉同志批示要求及《关于帮助那曲、阿里、日喀则、山南、昌都5地市村(居)干部赴拉萨培训建议方案》精神,充分利用拉萨优质教育培训资源,帮助艰苦边远地区开展村(居)干部集中培训工作,使参训学员充分掌握相关工作知识,提高履职尽职的能力,带动艰苦偏远地区经济发展,促进才百姓增收致富。', '、人才发展专项资金。根据中共拉萨市委员会、拉萨市人民政府关于印发《拉萨市中长期人才发展规划纲要(2011-2020年)的通知&gt;和中共拉萨市委组织部、拉萨市财政局关于印发《拉萨市人才发展专项资金管理办法》的通知,开展人才引进工作、人才评价激励、百名专家下基层等工作。', '、拉萨市老干部参观考察学习经费。根据《中共西藏自治区党委办公厅关于进一步加强离退休干部工作的意见》和《中共拉萨市委办公厅关于进一步加强和改进离退休干部职工工作的意见》文件精神,充分体现市委、市政府关怀重视老干部,组织退休干部赴区内外参观考察学习。', '二、其他收入:指上述“财政拨款收入”以外的收入主要是按规定动用的售房收入、存款利息收入等。', ':为保障行政单位(含参照公务员法管理的事业单位)运行用于购买货物和服务的各项资金,包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '六、年末财政拨款结转和结余:指以前年度预算安排、因客观条件发生变化无法按原计划实施,需延迟到以后年度按原规定用途继续使用的资金。', '八、“三公”经费:是指本部门(包括部门本级及所属行政单位(含参照公务员法管理的事业单位)、事业单位和其他单位)通过财政拨款资金安排的因公出国(境)费、公务用车购置及运行费和公务接待费。其中,因公出国(境)费指单位工作人员公务出国(境)的住宿费、旅费、伙食补助费、杂费、培训费等支出;公务用车购置及运行费指单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出;公务接待费指单位按规定开支的各类公务接待(含外宾接待)支出。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>259</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>日喀则市创城办考察团赴拉萨考察交流全国文明城市创建工作</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2016-08-05</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201608/61f845ec84ef403da16fe5dba2a3c5e7.shtml</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['8月2日至3日，日喀则市委副书记王相民，日喀则市委常委、宣传部部长戎新龙一行26人赴我市考察学习全国文明城市创建工作，并进行座谈交流。', '考察团一行先后来到布达拉宫广场、宇拓路商业街、八廓古城、市市民服务中心、拉萨江苏中学、滨河公园、市容委、城市规划馆、拉萨市综合实验基地、拉萨市文明办、俄杰塘社区等23个点，通过实地考察、座谈交流等形式，详细了解了我市全国文明城市创建工作开展情况。', '占堆首先代表市委、市政府对考察团的到来表示热烈欢迎，他说，近年来，在党中央、国务院的亲切关怀下，在自治区党委、政府的坚强领导下，在全国人民特别是北京、江苏两省市的无私援助下，拉萨市坚持维护社会稳定和保护生态环境两条底线，深入实施“六大战略”，奋力建设美丽家园幸福拉萨，全市上下呈现出经济发展、社会和谐、民生改善、民族团结、文化繁荣、生态良好的喜人局面。他希望，以此次考察交流为契机，学习日喀则市的先进经验，努力开创全市精神文明建设工作新局面，为实现中华民族伟大复兴中国梦拉萨篇章作出新的贡献。', '座谈中，王相民对拉萨市委、市政府的周密安排和详细介绍表示衷心感谢。他说，此次来拉萨考察交流不虚此行，开阔了眼界、明确了目标、看到了差距、理清了创城的思路、坚定了创城的信心，希望两地多加强沟通交流，共促两市发展。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>259</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>江苏省民生援藏综述</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2016-06-16</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201606/d2a2a38b7b5547c8bbd79ce153a60939.shtml</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['次旦罗布老人是西藏墨竹工卡县的农民，几十年都是靠种地生活。可从去年开始，除了种地，他每个月还领到了一份额外的收入。2015年5月，墨竹工卡县实施“幸福养老”民生工程，全县所有60周岁以上的农牧民群众，每月都能领到300到1000元不等的养老金。别看次旦罗布现在过得悠闲，就在几年前，家里负担很重。2008年，二儿子旦巴得了癌症，一次化疗费用就要5000元；2012年，小儿子土登考上了大学，每年的学费生活费要15000元。2015年，墨竹工卡县实施新医保政策，农牧民在享受医疗保险和民政救助后，剩余的医疗费用由县级财政全部报销。与医保政策同时推进的还有教育惠民政策。为了鼓励全县农牧民子女接受高等教育，墨竹工卡县从2015年起对所有墨竹工卡籍农牧民子女高等教育阶段的学费、住宿费、路费实现全额报销，并且每人每月发放生活补贴200元。次旦罗布老人一家生活的变化，是近年来拉萨民生改善的典型缩影。这些变化，无一不是拉萨各族干部群众和江苏援藏干部辛勤工作的汗水结晶。“十二五”期间，江苏省始终坚持民生优先，重点援建与拉萨人民日常生活关系最密切的教育、医疗、就业等民生项目，有力地促进了拉萨社会事业发展，进一步提升了拉萨市作为首府城市的服务功能，使拉萨乃至全西藏群众受益。', '拉萨市人民医院环境改造工程的实施，使群众就医环境明显改善；拉萨市东城人民医院的落成，优化了拉萨市医疗资源的布局……这些都是一眼就能看到的变化。在拉萨的医院里就能享受来自江苏的医疗专家的优质诊疗服务，更让拉萨各族干部群众欣喜。', '“十二五”期间，江苏省每年安排15名医生赴拉萨市人民医院以及达孜、曲水、林周、墨竹工卡4县人民医院开展为期一年的援助，共接诊患者5.6万多人次，开展各类手术超3000台，培训各类人员1.8万多人次，并联系内地90多名医生进藏开展医疗服务，在农牧区巡回义诊11次。全方位、多层次、多渠道的医疗卫生援藏工作，有效提升了拉萨市医疗卫生服务的保障水平。同时，江苏省还组织实施了拉萨市疾控中心和11个乡镇儿童计划免疫规范化门诊项目，完善了拉萨的免疫网络，让受援地儿童都能够享受安全、规范的预防免疫服务。', '在江苏医疗卫生援藏团队的不懈努力下，拉萨农牧民群众享受到了越来越好的医疗服务。林周县争取计划外援藏资金2000余万元，用于添置先进医疗设备，开展双向交流培训，全县医院软硬件条件明显改善，门诊率、入院率明显提高。在达孜县，江苏援藏医生充分发挥专长，争取援藏资金50万元，帮助建成了拉萨市唯一一个县级血库，并实施了村级卫生院软硬件建设全覆盖工程，使农牧民群众足不出村就能看好病。在曲水县，江苏援藏医生积极协调推进曲水县公立医院改革和人民医院创建二级医院工作，并协调泰州市慈善总会向曲水县人民医院捐赠了价值25万元的整套妇产科设备，泰州市第四人民医院还帮助该县建立起了西藏自治区第一家县级医院远程会诊中心。在墨竹工卡县，2725万元援藏资金的注入，助力该县2所标准化乡（镇）卫生院及县人民医院信息化远程诊疗系统建成，使该县的基层医疗水平得到了显著提升。此外，2015年，南京市儿童医院的白衣天使还让该县18名唇腭裂、髋关节脱位、先心病及脑瘫患儿永远摆脱了病痛。', '2.6亿元的江苏援藏资金投入，硬件基础和教学设施一流的拉萨江苏实验中学拔地而起；江苏省组团式教育援藏，有力推动了该校教育质量短期内的飞速提升。2015年，该校首届高考大专以上上线率达到80.16%，其中，藏文科、藏理科大专以上上线率分别超出西藏自治区17.21%和17.25%———这是江苏教育援藏工作在西藏教育史上创造的一个奇迹。', '近年来，江苏省一大批教育援藏项目的实施，极大地改善了受援地基础教育办学条件。曲水县安排援藏投资2000余万元实施了县中学综合教学楼和职教中心实训楼建设，提升了现代化教学条件。2013年，该县成为西藏自治区第一个通过国家教育部对“义务教育均衡发展”和“素质教育”评审验收的县级单位；达孜县整合援藏资金建成了功能配套齐全、环境优美的县中心小学，并高标准配置了现代化、信息化教学设备。2016年3月，该校在校师生达到了近2500人的规模，学校教学和校园管理科学规范，受到了农牧民群众的一致好评；墨竹工卡县投入援藏资金8000万元改建扎西岗乡南京希望小学、改扩建南京实验小学，很大程度改善了当地的教学条件。', '在完善基础教育条件的同时，江苏省教育援藏团队还特别重视均衡教育查漏补缺工作。南京大学赵曙明教授设立的“曙明奖学金”，每年资助贫困学生20人；林周县为激励教育事业发展，2014年筹集300万元恢复设立了吴江人民教育奖学基金，共向152名学生发放奖、助学金36万元，并向40名优秀乡村教师颁发了园丁奖；2013年至2015年，共计100名品学兼优的拉萨中小学生还到江苏参加了夏令营活动，开阔了视野，增长了见识。', '近年来，在与江苏省教育援藏团队的交流、交往、交融中，拉萨本地学校的教学质量和管理水平显著提升。“十二五”期间，江苏省共组织32名江苏教育管理和学科教学专家赴藏送教，千余名拉萨中小学校长和骨干教师、10批次140多名各类教职人才赴江苏培训。考察学习、短期培训、友好学校、内地西藏班等形式多样的教育领域交流交往交融，极大提升了拉萨本地教育工作者的业务素质。此外，江苏省还积极探索职业教育援藏模式，成立了联合职业教育课题研究领导小组和课题组，协调两地教育部门联合攻关，共同破解西藏民族职业教育难题并形成了研究成果，为“十三五”期间开展职业教育组团式援藏奠定了坚实基础。', '在冬春寒冷的拉萨实施供暖供气工程，无疑是关系到每位市民生活的大事。江苏援藏团队高要求、高标准，以技术援助的方式参与其中，2012年至今，拉萨市共建成燃气主干管网63公里，燃气次干管网455公里，庭院管网1348公里，城市供暖规划区内居民供暖总户数达10.7万户，现已完成居民小区及单位供暖项目建设768个、10.52万户、2136万平方米，供暖率达到98%，居民满意率达100%。', '在拉萨市各县（区）的养老院和福利院里，各类困难群众有所养、有所学、有所乐，充分感受着来自党委政府和社会各界的温暖，这也与江苏援藏团队的努力密不可分。近年来，江苏省组织实施了林周县五保户供养中心、曲水和墨竹工卡县敬老院增加供氧设备等援藏项目，切实提升了受援地民生保障水平。墨竹工卡县还依托援藏合作机制设立了“格桑花开”爱心基金，把该县籍贫困大中小学生、孤儿、残疾人、孤寡空巢老人及患病贫困群众全部纳入了救助范围，最大程度地为他们排忧解难。此外，江苏援藏团队组织实施的拉萨市妇女儿童活动中心、拉萨江苏青少年科技馆、拉萨市群众文化活动中心等公共服务设施项目建设，为受援地群众提供了现代化的活动场所，极大丰富了他们的业余生活。', '就业是民生之本。在拉萨大力实施“民生安市”战略和“四业工程”的背景下，江苏援藏团队着眼提升就业保障水平，安排援藏资金组织实施受援4县县级职教中心、手工艺创业基地等援建项目，加快推进农牧民职业技能培训，提高农牧民致富本领，实现就近就业，有力促进了农牧区经济发展。其中，墨竹工卡县完成再就业培训、转移技能培训、进城务工引导培训3030人，新增就业2395人，转移劳动力15002人，实现农牧民增收4.83亿元；达孜县依托“四业工程”，以订单培训、岗位培训为抓手，全力促进农牧民就业，截至目前，共开展各类培训班102期，培训输出1.1万人次；泰州市与曲水县深化群团组织结对共建，泰州市总工会援助了93万元、为期四年的项目补助资金，对困难职工予以慰问，泰州团市委、妇联每年安排了10万元的对口援助工作经费，助力曲水民生改善。上述工作的开展，对促进拉萨城乡居民有事可做、有职谋生、有业发展、生活富足发挥了积极作用。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>259</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>拉萨成功入围全国小微企业创业创新基地城市示范</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2016-08-01</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201608/5040bbfa308c400b9cc99772b3f3731c.shtml</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['为贯彻落实中央关于支持“大众创业、万众创新”战略部署，财政部等五部委把开展小微企业创业创新基地城市示范工作作为推动“大众创业、万众创新”的重大举措。根据“两创示范”申报通知精神，在自治区财政厅的精心指导下，拉萨迅速行动、主动作为，高位推进“两创示范”各项工作。经过近三个月的攻坚奋战，拉萨成功入围全国小微企业创业创新基地城市示范，获得国家级“创业创新”城市名片，对推动我市小微企业蓬勃发展、促进经济提质增效、加快产业转型升级将起到积极促进作用。', '（一）迅速反应，高效组织。今年2月，财政部、工信部、科技部、商务部、国家工商行政管理总局联合印发《关于组织申报2016年小微企业创业创新基地示范城市的通知》（财办建〔2016〕17号），要求各省市推荐1个城市参加国家小微企业创业创新基地城市示范申报工作，拉萨迅速反应，第一时间向自治区财政厅、工信厅、科技厅、商务厅、工商局沟通了解有关情况，并提出建议。立即成立以市委副书记、市长为组长的拉萨“两创示范”申报工作领导小组及办公室，办公室设在拉萨市财政局。按照区党委常委、市委书记齐扎拉同志作出的“速报，务必成功”重要指示。市政府及时召开申报工作动员会，安排部署“两创示范”申报筹备工作，从27个市直相关单位中各选派一名联络员，组成“两创示范”申报工作专班，配合市“两创示范”申报办的工作。', '（二）精心梳理，摸清现状。为扎实抓好申报基础工作，拉萨市及时有效制定《拉萨市小微企业创新基地城市示范实施方案（2016—2018）》。一是梳理现行支持小微企业的发展现状。逐一梳理全市小微企业发展现状、创业创新基地建设、公共服务体系建设、商事制度改革。系统汇总促进小微企业发展的政策措施等。对相关部门提供的数据资料反复斟酌，反复核实沟通，确保数据的真实性、完整性。二是完善支持“两创示范”政策体系。在梳理现有支持小微企业政策的基础上，借鉴内地入围城市的成功经验，结合专家团队的建议，梳理出30项需要补充完善的政策措施。将任务细化到各职能部门，限期完成政策措施的制定工作，共出台92项支持小微企业发展的政策措施，初步形成了以支持非公经济、支持中小企业、创业创新空间、科技、公共服务、特色产业、税收、融资、商事、质量与品牌建设、人才、创业、就业、外经贸、招商引资等为主要内容的较为系统和完备的“两创示范”政策体系，为小微企业创业创新提供了更优发展软环境。三是着力凸显拉萨“两创”载体特色。着力从西藏“两屏四地”、“一带一路”重要节点、财税金融政策资金倾斜、高原净土健康特色产业、旅游文化、对口支援等方面进行全面阐述。在推进“产业强市”战略上，主打拉萨净土健康产业、圣地旅游、民族文化产业、民族手工艺等高原特色、绿色拉萨牌。在推进“环境立市”战略上，拉萨国家级经开区、柳梧新区、高新区、文化创意园区等创业创新活跃的核心区为全市小微企业发展奠定了良好基础，“两区四园”小微企业分工合理、错位发展的布局，凸显拉萨小微企业“四有”特征，即：企业发展有活力、两创载体有特色、营商环境有保障、创业创新有氛围。四是变劣势为“两创示范”申报优势。拉萨生态环境独特，生态地位重要，按照第五次西藏工作座谈会上中央对西藏“两屏四地”的定位，作为国家生态安全屏障，拉萨不适宜发展大型工业，最适合发展小微企业，“两创示范”可谓是对拉萨量体裁衣。拉萨抢抓这一历史机遇，着力在净土健康产业、文化旅游业、民族手工业等方面作文章，从深挖发展潜力，转变发展方式、提升质量品牌的角度，结合“扶贫攻坚”战略，突出在拉萨开展“两创示范”工作对改善民生、维护西藏长期稳定、支持边疆少数民族地区发展的特殊意义。', '（三）结合市情，制定目标。始终紧密结合区情、市情，注重亮出“四城”招牌，把小微企业创业创新作为城市发展战略，以“全域拓展、突出重点、以点带面、全市覆盖”为原则，把小微企业创业创新工作范围从一般认知的工商业，拓展到具有拉萨特色优势的净土健康产业、文化旅游业、民族手工业等方面，结合“四业工程”、“产业强市”、“精准扶贫”，以探索、培育新产业、新业态为切入点，整合扶持企业各项专项资金，统筹县区资金，协调自治区级专项资金。召开专题会议商讨示范内容及示范目标，在广泛征求市直相关部门和县区意见建议的基础上，提出了三年示范思路和示范目标。三年内中央财政投入9亿元，争取自治区财政配套20亿元，拉萨市配套12亿元，共计投入41亿元，用于支持小微企业创业创新空间建设、提升公共服务能力等方面。未来三年，拉萨将按照“两创示范”“135”工作思路，即：瞄准发展成为中西部边疆少数民族地区“大众创业、万众创新”的一个新高地，立足核心区、拓展区和延伸区三大区域，扎实开展“拓空间、优服务、减负担、降门槛、强特色”五大行动，加快形成“小微企业铺天盖地，创业创新蓬勃发展”的生动局面。到2018年，力争实现就业目标、创业目标、创新目标的高效集成新突破；实现小微企业营业收入、营业利润和吸纳就业人口“三大发展量级新突破”；实现小微企业高新技术产出和税收贡献“两大支撑崛起新突破”；实现小微企业科技创新能力和自主发展能力“两大产业转型新突破”。实施以空间建设为支撑，搭建小微企业两创新载体；以平台建设为抓手，打造公共服务新供给；以税费融资支持为手段，打造小微企业融资新环境；以体制机制创新为保障，营造小微企业两创新生态；以特色政策为依托，塑造小微企业新优势等为重点的五大行动。', '（四）反复锤炼，敲定方案。邀请经验丰富的国家工业和信息化部电子科技技术情报研究所专家团队来拉萨开展《拉萨市小微企业创业创新基地城市示范实施方案（2016—2018）》的撰写工作，为申报工作争取主动权和工作空间。多次主持召开《方案》讨论会，经反复修改和完善，形成了较为成熟的申报《方案》。于4月下旬最终形成定稿，4月29日以市政府名义提交至财政部，《方案》撰写工作完美收关。', '（五）认真筹划，备战答辩。按照既突出示范特色，又全面反映示范内容，既言简意赅，又切中要害的原则，反复提炼答辩内容。为确保在陈述过程中，让评审专家更直观地了解拉萨的发展情况，想方设法收集与陈述内容密切相关的图片，精心筛选每一张配图，制作出图文并茂的PPT背景，使陈述更加生动。为做好答辩工作，组建高规格的陈述答辩团队，市委副书记、市长亲自担任竞标团队队长，反复演练陈述内容，控制陈述时间。深入了解“两创示范”政策，积极备战，全情投入、全力以赴争取夺标。', '（六）加强沟通、争取支持。为确保申报成功，4月15日，区党委常委、市委书记齐扎拉同志亲自到国家五部委开展沟通协调工作，汇报拉萨开展“两创示范”的工作情况，讲明拉萨开展“两创示范”工作的战略意义以及对拉萨未来发展的重要性和必要性，积极争取国家五部委的理解和支持。同时，市财政局、市工信局、市科技局、市商务局、市工商局通过自治区垂管部门及时做好与国家相关部委沟通协调工作。', '（七）做实工作、成功入围。拉萨“两创示范”申报基础工作扎实到位，得到了专家评委的认可，5月9日顺利通过第一轮申报《方案》的评审。在5月13日竞标团队陈述答辩中，拉萨代表团精彩的陈述和答辩，赢得了专家评委的一致肯定，拉萨成功入围2016年全国小微企业创业创新基地城市示范，获得了国家级“创业创新”城市名片。', '拉萨成功入选第二批国家“小微企业创业创新基地城市示范”，这是拉萨市第一次通过竞争性选拔方式争取到国家支持资金。三年示范期内，拉萨市将获得国家9亿元的支持，区市县三级将配套32亿元小微企业创业创新财政资金，通过机制创新，发挥四两拨千斤的杠杆作用，撬动社会投资，带动拉萨经济快速发展，为“十三五”时期拉萨的经济发展奠定了坚实的基础。', '区、市党委政府高度重视，把“两创示范”申报工作作为全市当前的一件大事、要事来抓。自治区党委副书记、政法委书记、自治区政府常务副主席邓小刚，区党委常委、市委书记齐扎拉等区市主要领导作出重要批示，及时成立市“两创示范”申报工作领导小组及办公室，统筹市直相关部门主动作为，攻坚克难，确保“两创示范”申报工作高效推进，圆满完成了申报任务。', '市“两创示范”申报工作办公室全力投入申报筹备工作，各成员单位积极配合，从大处着眼、细处入手，收集汇总审核资料、梳理现状、制定示范思路、确定示范目标和实施内容，反复斟酌锤炼陈述材料、精心制作PPT背景资料，积极与国家五部委沟通协调，备战答辩，为成功申报奠定了坚实基础。', '“两创示范”需要一整套系统的制度措施作支撑，虽然区市两级政府出台了一系列政策措施，但与内地成功入围城市相比，还存在诸多短板。通过参照内地省市的好做法、好经验，找准小微企业的发展需求，精准设计政府的支持服务，系统梳理完善92项政策措施，为全市小微企业发展提供更优政策环境。', '紧扣西藏“两屏四地”、拉萨“四城”、“一带一路”重要节点，结合“六大战略”，以发展文化旅游产业、净土健康产业、民族手工业等特色主导产业为抓手，以探索、培育新产业、新业态为切入点，提出三年示范目标任务。制定“135”示范工作思路，实施“60 5 30 ”拓展发展空间工程，落实奖免补贴政策，实施“1 3 X”公共服务提升和“2000 50”人才计划。为全国少数民族地区提供可推广、可复制的示范效应，赢得专家评委的一致认可。', '目前，拉萨经济实力、发展条件等方面与内地城市相比存在差距，在竞争中处于劣势。但拉萨作为西藏自治区首府和“一带一路”重要节点城市，小微企业在拉萨企业主体中占绝对主导地位，推动小微企业加速发展不仅是拉萨自身发展的需要，在辐射带动西藏其他区域加快特色产业发展、提高社会民生水平、维护边疆和平稳定、推动开放合作、实现创业创新发展方面更具有特殊的意义。在沟通协调中，从拉萨发展小微企业创业创新的现实需求、战略意义和特色优势等方面进行了详细阐述，得到国家五部委的理解和支持，确保在竞争中取胜。', '一是广泛动员，全面启动“两创示范”建设工作。6月23日市委召开常委会议，审议并通过了启动“两创示范”建设工作的相关建议。7月21日市委市政府召开了全市“两创示范”建设工作动员大会，区党委常委、市委书记齐扎拉亲自出席并作重要讲话，对拉萨成功入围“两创示范”城市给予了充分肯定，并对即将开展的“两创示范”建设工作提出明确要求，给予厚望。', '二是细化任务，落实“两创示范”建设责任。根据《拉萨市小微企业创业创新基地城市示范实施方案（2016-2018）》，逐条细化建设任务，明确责任单位、责任人和完成时限。', '三是考察学习，借鉴入围城市的建设经验。拟赴2015年已入围的安徽省合肥市、四川省成都市、广东省江门市、甘肃省张掖市等城市考察学习，借助其他城市成功经验，不断提升创业创新空间建设水平，优化对小微企业公共服务能力，拓宽视野，完善专业服务、政务服务、优惠政策、体制机制等。', '四是严格考核，促进“两创示范”建设工作圆满完成。为有效推进“两创示范”建设工作，层层压实责任，将“两创示范”建设工作纳入全市年度目标责任制考核体系，对各县（区）和开发区、市直责任单位考核指标具体量化，建立严格的考评考核机制。', '五是加大宣传力度，形成创业创新氛围。通过各级各类新闻媒体全方位、立体式宣传，营造“创业光荣、劳动光荣、创新光荣”的浓厚氛围，厚植创新文化，使创业创新成为全社会共同的价值追求和行为习惯。', '1、两创示范：是小微企业创业创新基地城市示范的简称，有的地方也称之为“双创示范”。', '2、“135”工作思路：即：瞄准发展成为中西部边疆少数民族地区“大众创业、万众创新”的一个新高地，立足核心区、拓展区和延伸区三大区域，扎实开展“拓空间、优服务、减负担、降门槛、强特色”五大行动，加快形成“小微企业铺天盖地，创业创新蓬勃发展”的生动局面。', '4、落实奖免补贴政策：是指新注册成立、处于创业初期、面临资金短缺、人才资源不足，需要政府出手帮扶和培育的企业，可享受“两补三免一奖”政策。即：发放创业创新补助、补贴培训费，免房租、免息、免担保费，创税奖励。', '6、实施“2000 50”人才计划：指三年示范期限内，每年培养熟练掌握先进技术技能，具有创新能动性的高素质技能型人才不少于2000人。每年引进或培养50名以上管理型人才。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>259</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>拉萨市驻村工作亮点纷呈特色鲜明</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2016-05-05</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201605/efe42d2c231e40bfbaaca3dc7517fe8b.shtml</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['3日，记者从拉萨市创先争优强基础惠民生活动领导小组办公室2016年第三次工作例会上获悉，在市委和市创先争优强基础惠民生活动领导小组的坚强领导下，在各级强基办的大力指导下，全市各县（区）、各驻村工作队不断深化对驻村工作任务和要求的认识，紧紧围绕驻村工作七项任务，认真完成“规定动作”，创造性地开展“自选动作”，工作亮点纷呈、特色鲜明、成效显著。', '各驻村工作队进驻以来，开展了大量的基础性调研工作，掌握了村情民意。一是结合实际，通过实地查看、走访、干部座谈等方式深入了解情况。二是主动向乡（镇）领导及有关部门和村（居）干部了解村（居）基本情况，摸清热点、难点问题。三是从群众最迫切的问题入手，找准开展工作的突破口，充分征求村（居）“两委”班子和乡（镇）主要领导的意见建议，形成切实可行的工作计划，为村（居）经济社会发展提供了有力的依据，更好地服务群众、服务村（居）。', '各驻村工作队在认真学习驻村工作七项任务的基础上，一是大力实施“三个培养”工程和村（居）两委”班子培训工程，帮助制定完善基层党组织各项规章制度，推进“三个全覆盖”；二是及时制定维稳方案和应急处突预案，深化“双联户”管理和网格工作，实现所驻村（居）社会和谐稳定；三是组织干部群众到经济发达地区考察学习，找准制约村组发展的瓶颈，结合“短平快”项目壮大发展集体经济，因地制宜开展专业职业技能培训，实现了户户有门路、人人有活干、经常有收入；四是深入开展宣讲宣传活动，以三大节日、三八”国际劳动妇女节、“3·28”西藏百万农奴解放纪念日等为契机，坚持集中宣讲和入户宣传相结合，引导广大群众自觉地感党恩、听党话、跟党走；五是走访慰问“五保户、三老”人员、贫困户和困难群众，多方筹措资金解决群众就医、就学等方面的实际困难；六是发放惠民政策“明白卡”，宣传党的惠民政策，监督村（居）惠民资金的发放并做好资金发放公示工作；七是协助村（居）开展入户调查，做好贫困户的建档立卡工作并对贫困户进行公示，宣传扶贫开发政策，落实“六个精准”，做到“六个到位”，为精准脱贫工作打下坚实的基础。', '各驻村工作队队员紧紧围绕乡（镇）党委的安排部署开展工作，为基层干部做表率、当榜样，为深入持续开展强基惠民工作奠定了良好基础，提供了坚强的组织保障。一是加强自身学习。利用闲暇时间，通过集中学习、个人自学、主题讨论等形式，加强对党的理论、领导讲话精神、农村政策法规等内容的学习，切实提高工作能力；二是加强制度建设。制定集体学习制度、组织生活制度、请销假制度等符合实际的工作制度，进一步明确了驻村工作职责，切实强化制度监管；三是加强作风建设。严肃驻村工作纪律、强化服务意识，戒骄戒躁，融入群众，切实转变工作作风。', '各县（区）高度重视，因地制宜，发挥优势，在特色亮点上求突破，有针对性地、创造性地开展工作。一是关爱驻村干部。派驻单位和各县（区）强基办主要领导经常深入村（居）探望驻村干部，从资金支持、生活保障、组织关怀等方面着手解除驻村干部的后顾之忧。堆龙德庆区强基办为每名驻村干部配备了1个生活衣柜、当雄县强基办在干部入驻前统一组织驻村队员进行健康体检；二是规范程序流程。各县（区）强基办和各驻村工作队重纪律、讲程序，工作中注重请示汇报，做到不越权、不越位。达孜县强基办规范项目审批和资金使用程序，统筹制作了项目审批流程和经费审批表，县级包村领导、县强基办、乡（镇）和村四级审批。尼木县强基办规范信息报送程序，实行“三报”制度；三是发挥自身优势。全市驻村工作队充分发挥派驻单位的专业优势和资源优势，在推进村（居）组织建设、办实事好事、想办法出思路等方面成效显著。市委组织部驻堆龙德庆区马村工作队强化对所驻村党建工作的指导，选优配强班子并进行党性教育，夯实基层基础、市档案局驻堆龙德庆区岗德林村工作队帮助驻在村整理档案资料，建立健全工作台账；四是结合当地实际。各驻村工作队在制定规划前都进行了系统地调研，确保符合实际。曲水县驻曲水县才纳村工作队结合净土健康产业，在群众增收致富上成效显著、柳梧新区柳梧乡驻达东村工作队以乡村旅游为重点，规划项目，推进美丽乡村建设；五是创新工作载体。在做好“5 2”驻村工作的基础上，各县（区）强基办和驻村工作队还创新性地提出了一些工作载体，推动工作开展。城关区强基办在全区开展“手抄党章100天”活动并纳入“两学一做”学习教育范畴、曲水县达嘎乡政府驻曲水县达嘎村工作队建立了精准扶贫精准脱贫跟踪记录簿，对扶贫户实行动态跟踪管理。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>259</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>拉萨市狠抓七项工作全面提升基层党建科学化水平</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2013-03-19</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201303/716f49ca6ef845b0ae263d4ea26a0bf3.shtml</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['2012年，拉萨市基层党建工作以“强组织、增活力，创先争优迎十八大”为主题，按照“充分发挥首府城市首位度作用”和“在党的建设中发挥先锋作用”的要求，以深化创先争优、基层组织建设年、共产党员民族团结先锋等活动为载体，不断扩大基层党组织覆盖面、优化党员队伍结构，不断增强各级党组织的凝聚力、战斗力、号召力和党员队伍的生机活力，全面提升基层党建科学化水平。', '一是抓调研，全面落实党建工作责任。结合基层组织建设年工作的开展，从基层党组织设置是否合理、班子是否健全、组织制度是否完善、发展思路是否清晰、活动开展是否正常、作用发挥是否充分、经费场所保障是否落实等方面深入开展调研，认真查找各领域党建工作中存在的突出问题，形成了8篇农牧区、城市社区、学校、国有企业、非公有制企业、新社会组织、离退休老干部等领域的党建工作专题调研报告，找准了各领域基层党建工作存在的突出问题，有针对性地提出了指导性意见和建议。同时，认真贯彻落实中央《关于建立健全地方党委、部门党组（党委）抓基层党建工作责任制的意见》，与各县（区）组织部和市直机关工委、市工商联、工商局、工信局、民政局、教育局等6家单位党组（党委）签订了2012-2014年基层党建工作责任书，进一步明确了各县（区）、各行业基层党建工作重点。', '二是抓书记，建强带头人队伍。制定下发了《关于提高村居干部误工补贴和考核奖励标准的通知》，为村（居）党支部书记和村（居）委会主任每人每年提高3600元，达到12677元；村（居）党支部副书记和村（居）委会副主任每人每年提高2400元，达到7442元；村（居）其他“两委”班子成员每人每年提高1200元，达到6242元。坚持把大学生村官作为村（居）党支部书记后备干部进行重点培养，在进一步完善大学生村官岗位培训、选拔任用、管理等制度的基础上，积极与江苏省委组织部沟通协调，研究制定了《关于实施拉萨和对口支援省市大学生村官“牵手结对”工程的意见》，选送30名大学生村官到江苏进行了为期一个月的考察学习。不断加大选派干部到村（居）任职工作力度，先后从市县乡三级机关事业单位选派267名党员干部到村（居）担任党支部第一书记，实现下派干部担任村（居）党支部第一书记全覆盖。同时，根据区党委组织部有关要求，从全市村（居）党支部书记中选拔14名乡镇公务员，进一步调动村（居）党组织书记的工作积极性。', '三是抓覆盖，扩大党的影响力。认真落实发展党员工作责任制，提出到2013年底实现全市农牧民党员数达到农牧民人口总数6%和2015年底达到8%的目标。2012年，全市共发展农牧民党员3452名，共有农牧民党员14151名，占农牧民人口总数的4.7%。坚持围绕服务企业生产经营，按照小型、分散、多样、实效的原则，组织开展“党员示范窗口”、“党员先锋岗”及“党员责任区”等活动，不断增强党员的荣誉感、责任感和压力感。采取单独建、挂靠建、联合建等形式，加大在“两新”组织中建立党组织的力度，全市“两新”组织中新建基层党组织21个，发展预备党员28名，培养入党积极分子27名。成立了拉萨市企业党工委、拉萨市非公经济组织党工委和拉萨市社会组织党工委，进一步理顺了党组织隶属关系，明确了责任主体，实现“两新”组织党建工作有人抓、有人管。从市县乡三级党政机关党员干部和部分离退休老干部党员中选派了67名熟悉党务工作的同志到全市67家规模以上非公有制经济组织担任党建工作指导员，实现规模以上非公企业党建工作指导员全覆盖。', '四是抓培训，提升党员队伍整体素质。深入实施村（居）党支部书记集中轮训和企业党组织书记“双培”计划，提高基层党组织书记的履职能力，全年共培训村（居）党支部书记267人次，企业党组织书记248人次。借助各类培训机构和农村党员干部现代远程教育平台，大力实施“以业育人、以业安人、以业管人、以业富人”工程，帮助农牧民党员提升创业致富本领。同时，为切实做好信息化和新兴媒体蓬勃发展的形势下的党员教育工作，拓展党建信息交流渠道，积极与西藏传媒集团合作，在全区率先创办了《拉萨市党建手机报》，实现了党建工作“上手机”的目标要求，目前已覆盖全市70%以上的党员。', '五是抓特色，增强基层党建活力。在对基层党组织分类定级的基础上，采取选派党建工作指导员、县级干部包村、下派干部蹲点等措施，使全市118个后进基层党组织全部实现晋位升级。把发展壮大村级集体经济作为农牧区党建的重要内容，激励基层党组织因地制宜发展特色产业，壮大集体经济。目前，全市村级集体经济累计收入20万元以上的村（居）有44个，其中累计收入达100万元以上的有30个。围绕“网格化”社会管理，在城关区八廓街道试点推行“街道大工委制”，从街道辖区46家机关、企事业单位推选产生了14名街道党委“兼职委员”，着力构建“党委领导、政府负责、社会协同、公众参与”的社会管理新格局，营造了“共驻共建”的浓厚氛围。主动与流出地党组织建立联系，促进外来流动党组织和流动党员积极参与社区建设，涌现出了四川省大邑县驻拉萨流动党员党支部等一批先进流动党支部。', '六是抓投入，加大党内激励帮扶力度。市财政坚持每年投入160万元用于表彰奖励先进村（居），投入100万元设立党内激励帮扶资金。2012年，全市发放市级党内激励帮扶资金14.4万元，帮扶困难党员134人，扶持创业致富党员3人。坚持在重大节庆日走访慰问“三老人员”、生活困难党员和因公牺牲党员家属，共发放慰问金88.3万余元。', '七是抓宣传，营造浓厚舆论氛围。以全面总结创先争优活动和迎接党的十八大召开为契机，大力开展先进基层党组织和优秀共产党员的宣传表彰工作，努力营造重视基层党建工作的浓厚氛围。在创先争优活动中，我市1个基层党组织和1个县委分别被评为全国创先争优先进基层党组织和先进县委；5个基层党组织、4个基层单位和3名党员分别被评为自治区先进集体和优秀个人。以庆祝建党91周年为契机，组织召开了全市创先争优表彰大会，对37个先进基层党组织，35名优秀共产党员和28个先进单位进行了集中表彰。以迎接党的十八大胜利召开为契机，在拉萨晚报开辟了“喜迎党的十八大胜利召开，拉萨市基层党建工作巡礼”、“各县（区）委组织部长谈党建”、“拉萨市基层党建工作综述”等3个宣传专栏，全面展示各级基层党组织紧紧围绕“五大战略”创新业、立新功的生动画卷。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>259</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>拉萨市五措并举扎实推进少数民族干部队伍建设</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2013-09-05</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201309/44277986c49a48269ebf9e241ac1ed1c.shtml</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['拉萨市大力实施人才战略，不断加强少数民族干部队伍建设，进一步优化少数民族干部队伍结构，有效增强少数民族干部工作能力。截至2012年底，全市干部总数为20868人，其中少数民族干部14055人，占干部总数的67.35% 。', '拉萨市实行多渠道、多层次、开放式的选拔推荐制度，定期向组织推荐优秀少数民族干部，通过组织跟踪考察培养，建立少数民族优秀后备干部库。实行定向培养少数民族后备干部制度，结合每位少数民族干部的自身特点，确定培养的具体岗位，多渠道进行培养锻炼，提高工作能力，提升综合素质。截至2012年底，建立少数民族优秀后备干部库340余人，从中提拔使用60余人。', '拉萨市高度重视少数民族干部培训工作，充分利用各级党校、行政院校等阵地，开设少数民族干部专修班，分层次对少数民族干部进行任前、任职、转岗培训。鼓励少数民族干部提高学历层次，努力提高少数民族干部队伍的整体素质。依托对口支援平台，积极选送少数民族干部到北京、江苏等发达省市考察学习，开阔视野，增长才干。截至2012年底，共组织少数民族干部培训37期3526人次，选送少数民族干部赴北京、江苏考察学习7批1092人次。', '截至2012年底，实现少数民族领导干部岗位锻炼40余人次。对尚未担任领导职 务的机关和基层少数民族干部，采取上派、下挂等形式，把有发展潜力，而长期在基层工作、经历比较单一的优秀少数民族年轻干部选派到上级机关挂职学习，提高宏观决策和管理能力；把有培养前途，而缺乏基层经验的优秀少数民族干部分期分批、有计划地选派到乡(镇)、村(居)挂职锻炼，并交办招商引资、综治维稳等一些“急、难、重”的工作任务，努力造就一批既有理论知识、又有实践经验的少数民族干部队伍。截至2012年底，选派到乡(镇)、村(居)挂职锻炼的少数民族干部两批188人次。', '拉萨市在研究干部工作时，注重加强少数民族干部培养；调配干部时，注重提高少数民族干部的数量；召开代表会议时，注重增加少数民族干部比例；选拔年轻后备干部时，注重扩大少数民族干部考察人选。截至2012年底，提拔使用少数民族干部79人，少数民族地级干部37人、少数民族县级干部389人、少数民族科级干部2686人，少数民族干部中具有高级职称的167人、具有中级职称的2297人。', '充分发挥报纸、广播、电视等各种新闻媒体的作用，宣传民族团结知识，牢固树立“三个离不开”思想；宣传中央和区、市党委关于培养选拔少数民族干部等文件精神，有力推动全市少数民族干部队伍建设；突出典型引导，加大宣传少数民族干部在改革开放和经济建设中的先进事迹，提高知名度，扩大影响力，为少数民族干部茁壮成长营造良好的舆论环境。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>259</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>拉萨市五项措施推进少数民族干部队伍建设</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2013-09-11</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201309/8a67370bf2f74f5382584188f694986f.shtml</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['近年来，一系列特殊政策和陆续出台的优惠政策，推动少数民族干部队伍不断壮大，素质不断提升。拉萨市大力实施人才战略，不断加强少数民族干部队伍建设，进一步优化少数民族干部队伍结构，有效增强少数民族干部工作能力。在这些干部的带领下，拉萨市各族人民以自己的勤劳与智慧，书写了民族地区的繁荣发展新篇章，让一个个令人期盼的梦想成真。', '拉萨市坚持“定向培养、保证质量，备用结合、有进有出”的动态管理原则，建立健全少数民族后备干部培养、选拔、考核和管理制度。实行多渠道、多层次、开放式的选拔推荐制度，定期向组织推荐优秀少数民族干部，通过组织跟踪考察培养，建立少数民族优秀后备干部库。实行定向培养少数民族后备干部制度，结合每位少数民族干部的自身特点，确定培养的具体岗位，多渠道进行培养锻炼，提高工作能力，提升综合素质。', '截至2012年年底，拉萨市建立少数民族优秀后备干部库340余人，从中提拔使用60余人。', '拉萨市高度重视少数民族干部培训，充分利用各级党校、行政院校等阵地，开设少数民族干部专修班，分层次对少数民族干部进行任前、任职、转岗培训。鼓励少数民族干部提高学历层次，努力提高少数民族干部队伍的整体素质。以提高思想政治素质为重点，加强理论培训，帮助牢固树立马克思主义民族观、宗教观，增强政治坚定性和敏锐性，始终做到认识不含糊、态度不暧昧、行动不动摇。按照“缺什么补什么”的原则，对少数民族干部进行市场经济、法律法规、行政管理等知识业务培训。依托对口支援平台，积极选送少数民族干部到北京、江苏等发达省市考察学习，开阔视野，增长才干。', '对已经担任一定领导职务的少数民族干部，通过平职岗位交流、下派担任重要职务等锻炼形式，拓宽工作领域，在不同岗位的实践中积累丰富经验。截至2012年年底，实现少数民族领导干部岗位锻炼40余人次。对尚未担任领导职务的机关和基层少数民族干部，采取上派、下挂等形式，把有发展潜力、长期在基层工作、经历比较单一的优秀少数民族年轻干部选派到上级机关挂职学习，提高宏观决策和管理能力；把有培养前途而缺乏基层经验的优秀少数民族干部分期分批、有计划地选派到乡（镇）、村（居）挂职锻炼，并交办招商引资、综治维稳等一些“急、难、重”的工作任务，努力造就一批既有理论知识、又有实践经验的少数民族干部队伍。', '按照干部“四化”方针和德才兼备的原则，坚持“四注重”，扎实做好少数民族干部的选拔使用工作。即研究干部工作时，注重加强少数民族干部培养；调配干部时，注重提高少数民族干部的数量；召开代表会议时，注重增加少数民族干部比例；选拔年轻后备干部时，注重扩大少数民族干部考察人选。截至2012年年底，提拔使用少数民族干部79人，少数民族地级干部37人、占地级干部总数的66.07%，少数民族县级干部389人、占县级干部总数的57.12%，少数民族科级干部2686人、占科级干部总数64.71%；少数民族干部中具有高级职称的167人、占少数民族干部总数的1.19%，具有中级职称的2297人、占少数民族干部总数的16.34%。', '拉萨市充分发挥报纸、广播、电视等各种新闻媒体的作用，宣传民族团结知识，牢固树立“三个离不开”思想；宣传中央和自治区、拉萨市党委关于培养选拔少数民族干部等文件精神，有力推动拉萨市少数民族干部队伍建设；突出典型引导，加大宣传少数民族干部在改革开放和经济建设中的先进事迹，提高知名度，扩大影响力，为少数民族干部茁壮成长营造良好的舆论环境。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>259</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>拉萨人一天吃掉多只羊多头牛</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2013-10-10</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201310/ed4e5804f1374bb8955215a0746a621e.shtml</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['据拉萨市委宣传部官方微博“拉萨发布”10月8日消息，拉萨市相关部门赴青海、甘肃考察牛、羊肉市场价格情况。本报对此事的报道引起广大市民关注，一些市民打进本报热线询问：牛羊肉价格要降了吗？政府部门要从内地采购牛羊肉投放拉萨市场，拉萨人一天能掉吃多少牛羊肉？', '羊肉烧烤及火锅店商家认为，本地绵羊生长周期长，产量少，价格高，在拉萨市场上的羊肉总供应量中只占1成。', '目前供应拉萨市场的羊肉大部分来自内地，零售商从本地牛羊肉屠宰场进货。每天30吨牛肉和13吨羊肉，相当于拉萨人每天吃掉200多头牛和500多只羊。', '昨日，记者走访拉萨牛羊肉市场了解到，目前牛羊肉供应充足，价格总体趋于平稳，牛肉零售价每斤38元左右，有商家卖到了45元每斤，整头牛批发价为每斤24至27元不等；羊肉批发价格为每斤28元，零售价为每斤30至32元左右。', '记者看到，一家牛肉批发商正在往自己店子里搬运牛肉，都是刚从屠宰场送过来的本地新鲜牛肉。新鲜肉到货，吸引了不少市民前来购买。该店老板介绍，目前店里的牛肉主要供应到餐馆、饭店、各大菜市场等，只有少量是自己销售，价格根据牛肉部位不同略有差价。记者了解到，该店一般平均每天销售一两头牛，有500多斤左右。附近几家商铺每天也可以卖出一头牛，大约有300斤。', '据商户们介绍，拉萨市场的牛肉大多来自青海和西藏本地。其中一家店铺的老板告诉记者，他们每隔几天就要从青海运来四五百斤牛肉。“青海牛肉的价格稍微比本地牛肉便宜一、两块钱，但两种牛肉的销量差不多，零售每天平均卖100多斤不成问题。”该老板说，每年冬天是牛肉销量最好的季节，尤其是十月份以后，外地的牛肉会大量供应拉萨市场，价格也将有小幅度的提升。', '记者走访发现，羊肉批发商铺多数都是鲜羊肉，每家店铺里都挂满了用保鲜膜包裹好的羊肉。据了解，这些新鲜羊肉都是屠宰场每天直接送到商铺里。一家商铺老板表示，之所以用保鲜膜包住，是为了保证肉不变质和保障羊肉卫生。在林廓东路一家羊肉店铺里，店老板告诉记者，现在的羊肉批发价格基本保持平稳，每斤在28元左右。“每年的四、五月份是羊肉销售的高峰期，因为这个时间段本地羊肉供应少，羊肉主要来自青海、甘肃等地，运输成本价较高，价钱也高。”该店老板说，目前本地羊肉供应数量比几个月前多了一些，因此商家一般都会选择销售本地新鲜肉。', '朵森格路南段有一家烤羊肉店，虽是中午时分，但记者看到店里依然有顾客在吃烤羊肉。据该店烤羊肉师傅火统明介绍，他们店子的羊肉大多是从羊肉市场直接批发过来的，都是地道的本地绵羊肉。', '太阳岛西桥金凤羊肉火锅店老板邹贤文介绍，他们每天可以卖出四十斤羊肉和五十斤羊杂。“拉萨市场上的羊肉有很多供货渠道，主要是西藏本地、青海、甘肃、内蒙古等地的羊肉，我们店子的羊肉都是直接从格尔木运过来的。”邹贤文说，西藏本地的羊肉生长慢，产量低，价格高，在拉萨市场上的供应数量少，仅占整个市场供应量的1成左右。', '德吉路东来顺涮锅店负责人贾先生介绍，该店的羊肉大都来自内蒙古和北京等地，本地羊肉却很少。“作为本地企业，选用本地羊肉应当是顺理成章的事情，但现在市面上地道的本地羊肉太少了，根本满足不了市场需求，所以我们只好选择外地羊肉。”贾先生说。', '西藏西海冷链物流有限公司总经理朱清永告诉记者，西海冷库目前每天牛羊肉吞吐量达10多吨，其中牛肉超过7吨，其余3吨为羊肉。记者从药王山冷库了解到，目前该冷库牛羊肉出入库数量与上个月相比有所增加，日均吞吐量也在10多吨。', '朱清永介绍，每天供应拉萨市场的牛羊肉，除了冷库中转数量，还有商户直接从牛羊肉屠宰场等其他渠道调运货物。“根据目前我们做的市场调查评估，拉萨市场进入牛羊肉销售旺季，每天销售完30吨牛肉绝对没问题，羊肉销量至少达到13吨。按照每头牛屠宰后平均净重300斤来算，拉萨人每天至少要吃掉200头牛，每只羊加工后平均净重50斤计算，拉萨市民每天至少吃掉500多只羊。”', '拉萨市场上的羊肉，有多少是本地的？朱清永说，目前，根据商贩冷冻储存牛羊肉的情况来看，本地牛羊肉均占了3成左右。和女友到太阳岛一家羊肉火锅店吃羊肉的陆先生说，他是北方人，喜欢吃羊肉。“从我吃过的羊肉中，青海和西藏的羊肉味道很地道，新疆羊肉膻味较重，但只要烹调得当，口感也不错。”', '羊肉火锅店老板马先生说，羊肉好不好吃，除了分地域，还要分品种。内蒙古羊肉肉质和西藏本地的羊差不多，但要在拉萨吃内蒙古羊肉不太现实，主要是运输成本高。“西藏本地的羊养殖没形成规模，而且放养使羊的生长周期较长，比如羊羔在5个月后才长成一只成年羊，那么在5个月之内就不可能将它杀掉。而且老羊肉和嫩羊肉在烹调后分量都不一样。一斤老羊肉烹调后有4两，一斤嫩羊肉烹调后只有3两。因此，羊肉批发价为30元左右一斤，做成熟肉后卖价就达到八九十元一斤。”火锅店老板邹贤文说。', '对于拉萨市委宣传部官方微博“拉萨发布”10月8日发布的消息，朱清永介绍，此次活动是由企业参与，拉萨多个部门联合到内地进行考察，此行并未采购牛羊肉，而是考察学习兰州惠民直销店成功运营模式和先进经验。', '目前考察组已回到拉萨，将着手制定一个保障拉萨市场牛羊肉供应、保障物价平稳的相关方案。“牛羊肉是否要限价销售，是否通过利用拉萨市超市的销售网络和平台，以挂牌现价销售方式，实现调控市场、稳定物价的目的？我们企业也在期待着。在这个长效机制没有制定和公布之前，我们只能做好冷库硬软件设施的完善，尽量做好服务，满足牛羊肉冷冻储存的相关需求。”朱清永说。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>259</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>斯朗尼玛常务副市长带队赴兰州呼和浩特成都等市考察学习林业工作</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2013-11-04</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/ldhd/201311/359e4e64f62c4155955ec2e8e5decffd.shtml</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['斯朗尼玛常务副市长带队赴兰州呼和浩特、成都等市考察学习林业工作_领导活动_拉萨市人民政府', '为进一步贯彻区党委常委、市委书记齐扎拉同志视察南山造林绿化工作时的指示精神和张延清市长关于加强城市园林绿化管理的工作要求，学习借鉴兰州市、呼和浩特市、成都市等地在山地造林、城市园林绿化等方面先进技术和成功经验，10月16日至29日，市委常委、常务副市长斯朗尼玛带领由林业绿化局等单位人员组成的考察组赴兰州市、呼和浩特市、成都市考察林业绿化工作。考察中，斯朗尼玛考察组一行认真学习了解兰州市、呼和浩特市、成都市在造林绿化工程建设、荒山荒地利用、干旱地区造林技术、林业管护和园林绿化专业队伍建设、推进公园市场化管理、城市生态功能区建设等方面的成功经验。', '在兰州市考察期间，考察组与兰州市政府就山体造林和城市园林绿化工作进行座谈，听取当地林业、园林等有关部门的情况介绍，实地参观了兰州市南北两山环境绿化工程和兰州市绿博园。兰州市副市长曹丕玉、陈远飞以及南北两山环境绿化工程指挥部、市林业局、园林局等单位负责人陪同考察。在呼和浩特市考察期间，考察组与呼和浩特市政府就山体造林和城市园林绿化工作进行座谈，听取当地林业、园林等有关部门的情况介绍，实地参观了大青山干旱阳坡造林绿化科技示范工程、万亩草场科技示范工程、伊斯兰街道园林绿化工程、成吉思汗公园、蒙草抗旱股份有限公司等。呼和浩特市市委副书记、市长秦义专门会见了考察组并介绍了有关情况，市人大常委会主任云公和，市委常委、宣传部长王雪峰，市委常委、副市长孙建华以及市林业局、园林局等有关负责同志陪同考察。在成都市考察期间，考察组听取当地规划、林业、园林等有关部门的情况介绍，实地参观浣花溪公园、人民南路等城市主干道园林绿化工程、成都市规划展览馆等。成都市副市长谢瑞武、市政府副秘书长覃文林以及市规划局、林业园林局等有关负责同志陪同考察。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>259</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>陈勇副书记孙晓南副市长一行赴江苏福建考察学习智慧城市建设</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2013-02-19</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201302/b689ea381c974a29a5fdfc64f728b72d.shtml</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['陈勇副书记、孙晓南副市长一行赴江苏、福建考察学习“智慧城市”建设_拉萨要闻_拉萨市人民政府', '1月29日，住建部组织的国家智慧城市试点创建工作会议上确定了拉萨市为首批国家智慧城市试点城市。为了顺利推进拉萨“智慧城市”建设，做好试点工作，近日中国电信集团公司西藏公司邀请拉萨市委副书记陈勇、拉萨市副市长孙晓南和拉萨市工信局组织“智慧城市”项目考察团，到江苏的南京、苏州和福建的福州、厦门等地，从“智慧城市”概念、产品应用、产品形态、引入落地的现实手段等方面进行了考察交流。', '考察团一行听取了各地电信就智慧城市项目概况及成功案例，以及对电信在承接、参与智慧城市项目市场运营模式方面的介绍，并参观和观摩了电信在智慧城市方面的应用，同时结合拉萨市实际情况对该项目从实施步骤，实施中可能遇到的困难进行了详细的咨询和了解。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>259</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>拉萨市创先争优强基惠民活动紧扣五项任务扎实开展工作</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2012-12-17</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201212/54d2ba3f681c44ea88453be282c6ccab.shtml</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['自治区创先争优强基惠民活动开展一年多时间以来，拉萨市认真贯彻落实自治区党委、政府的决策部署，紧紧围绕创先争优强基惠民活动的“一个目标”和“五项任务”，紧密结合实际，精心组织、周密部署，扎实有效开展各项工作。全市260个驻村（居）工作队全身心融入当地群众，沉下身、安下心、扎下根，积极发挥主观能动性，扎实开展各项工作，有力地促进了基层经济的持续健康发展，维护了基层社会的和谐稳定，全市创先争优强基惠民活动成效显著。', '建强基层组织固根本。各工作队注重提高基层党组织发挥领导核心作用和农牧民党员发挥先锋模范作用的能力，按照“五个好”党支部的要求，在配班子、强队伍、建制度上下功夫。一是利用村（居）“两委”换届的有利时机，协助基层选优配强班子成员。二是壮大党员队伍与提高党员素质能力并举，积极协助当地党委政府和村（居）“两委”继续深化“农村和城市社区党组织带头人培养工程”、“党员先锋工程”和“城乡党建结对工程”，大力实施“三个培养”工程。工作队进点至今，将党员培养成致富能手486人，将致富带头人培养成党员566人，将党员致富能手培养成村干部后备人选1459人，新发展农牧民党员2575名，培养入党积极分子3221名，组织基层干部外出考察学习2864人次。三是健全完善制度，驻村工作队协助村（居）建立完善各项制度2892项，有力推进了基层组织规范化、制度化建设。', '维护社会稳定促和谐。各工作队坚决贯彻落实区、市党委关于维稳工作的决策部署，按照“抓早抓小、抓快抓好”要求，积极配合当地党委、政府和职能部门组建民兵联防队、党员护村队等群众组织，在村内义务巡逻；建立健全县、乡、村、组、户五级维稳信息互通机制、安全防范机制、纠纷调处机制，协助有关部门和村（居）“两委”排查化解各种矛盾纠纷1684余次、投入资金1122.89万元。特别是在“三大节日”、三月维稳敏感时期、萨嘎达瓦宗教活动以及雪顿节期间，工作队员舍小家、顾大家，全员在岗，24小时值守，配合基层党委、政府努力构建村村是堡垒、人人是哨兵的乡村防控体系，有力促进了基层社会的和谐稳定。', '理清发展思路谋长远。各工作队在深入走访调研、建立家庭台账、摸清底数的基础上，经常与当地干部群众座谈，共同查问题、找差距、明目标、定措施。部分工作队还组织基层干部群众外出考察学习，借鉴其他地区的好经验好做法，通过开阔视野、解放思想、转变观念，进一步理清发展思路，找准自身特色，大部分工作队都制定了一年驻村工作计划和本村经济社会发展三年规划。与此同时，各工作队在深入调研论证的基础上，帮助村（居）认真梳理上报50万元以下“短、平、快”项目，经市强基惠民办筛选，确定了今年建设的259个项目、投资7320万元，目前正陆续开工建设。各相关部门也积极发挥作用，努力争取自治区强基惠民活动计划外资金和项目，截至目前共争取计划外项目2031个、总投资达4.06亿元。通过项目的实施，我市农牧区基础设施条件将得到明显改善，村（居）自我发展的“造血”功能将得到了有效提升。', '开展感恩教育强意识。各工作队依托自身优势，在与群众同吃、同住、同学习、同劳动的过程中，将中央关于西藏的方针政策和区党委关于推进跨越式发展和长治久安的新举措通过言传身教的方式，让群众明白惠在何处、惠从何来；将西藏和平解放以来所发生的变化通过农牧民群众的日常生产生活来表现，强化感恩教育的针对性、直观性，引导群众进行自我教育，明白“团结稳定是福、分裂动乱是祸”的道理，懂得知恩、感恩、报恩，自觉与达赖集团划清界限，旗帜鲜明反对分裂；在排查化解矛盾纠纷的过程中，结合“六五”普法规划，以案释法，引导群众学法、守法，用法律维护自己的合法权益。有的工作队还利用当雄地震、亚东地震中央和各级党委、政府对农牧民群众的关怀等事例，彰显祖国的强大和各民族的团结，激发群众爱国爱党的热情，增强中华民族自豪感和祖国荣誉感，为促进全市经济社会跨越式发展和社会局势长治久安提供强大的精神动力和思想保证。', '保障改善民生解民困。各工作队围绕农牧区“三就”、“两保”、“六通”、“一安居”等问题，坚持做到“四真”，讲真话帮群众释疑解惑，拿真心换群众支持信任，动真情系群众安危疾苦，用真诚为群众排忧解难。如市工商局驻墨竹工卡县朗杰林村工作队每名队员捐款17500元资助7名贫困大学生上学；市国税局派驻当雄县纳木措村工作队深夜救助了被暴风雪围困的2名那曲群众，等等。据不完全统计，截至目前，各工作队共慰问“三老”人员、孤寡老人和贫困群众19700多人次，帮助群众就医16497人次，帮助群众就学1567人次，帮助实现就业5155人次，组织开展村容村貌整治1322次，累计投入资金过亿元，进一步增强了党和人民群众的血肉联系，密切了党群干群关系，巩固了党的基层执政基础。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>259</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>拉萨市农牧业科技教育工作进展顺利</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2013-03-18</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201303/cd5eee60e2834454810174f927e46ca3.shtml</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['截至目前，全市共聘请30名农牧业专家和组织 210名农牧业专业技术人员，分成56个农牧业技术服务小组对春耕备耕和接羔育幼等工作开展科技服务和指导。目前，共开展科普宣传5次，发放资料8900余份，发放蔬菜种子1.2万余元。完成总投资430万元的曲水、堆龙德庆、达孜、尼木四县技术指导员的培训。制定《拉萨市农牧局2013年农牧业实用技术培训计划表》，利用冬春农闲，垫资开展农牧业实用技术培训1089人；制定《拉萨市农牧业依法行政与综合执法骨、干内地培训班工作方案》，计划于4月初组织全市农牧系统20名行骨干赴北京进行为期20天的培训和考察学习。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>259</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>龙之刚在拉萨赴北京江苏干部和村官动员大会上要求努力成为学用相长的表率</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2012-10-12</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201210/e0e8ffe109d4443c9b3d984418c1893e.shtml</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['龙之刚在拉萨赴北京、江苏干部和村官动员大会上要求：努力成为学用相长的表率_拉萨要闻_拉萨市人民政府', '龙志刚在讲话中指出，选派干部赴北京、江苏接受教育培训，是市委着眼于建设高素质干部队伍的长远大局而作出的一项重要决定，是贯彻落实中央第五次西藏工作座谈会精神和大规模培训干部、大幅度提高干部素质战略部署的有力举措。开展此项活动，对于我市干部开阔视野、转变观念、丰富知识、创新思维、提高技能都具有十分重要的作用。', '龙志刚要求，此次选派的干部和村官要提高认识，珍惜难得的学习机会，集中精力、狠下功夫，以强烈的使命感和紧迫感投入到学习培训中去，以实实在在的学习成果回报组织的关爱；要端正学风，在学习过程中结合自己的工作实际，反复思考、学以致用，努力成为学用相长的表率；要遵守纪律，自觉加强党性修养和遵守培训单位的各项规章制度和日程安排，以饱满的精神、良好的作风、文明的纪律、优异的成绩赢得北京、江苏培训机构以及干部群众的好评和认可，树立拉萨干部的良好形象；要保重身体，相互关心、相互照顾、相互帮助，确保学习培训期间的安全。', '据了解，此次培训从各县(区)、市直各单位选派了50名干部赴北京和江苏培训一个月，选派了30名大学生村官赴江苏省考察学习。此前，市委、市委组织部积极与北京、江苏两省市协商沟通，充分利用援藏资源推进我市干部队伍建设，陆续派出了三批共150名干部赴北京、江苏两地培训。接受培训的干部回来后，思想观念发生了明显转变，综合素质、业务能力和工作水平得到了普遍提高。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>259</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>倾力谋跨越雪域铸丰碑</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2012-10-30</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/yzdt/201210/2cbab70d242e4666a598df744ebe74b1.shtml</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['两年前，江苏省南京市第六批3名援藏干部怀着一颗赤诚之心，从金陵南京来到巍巍喜马拉雅山，在素有“天边之乡”美称的墨竹工卡县开始了平凡而不平常的援藏生涯。从那时起，在祖国这一东一西之间，他们克服生理和心理的双重挑战，为雪域藏乡的发展与稳定，默默奉献着青春、汗水、热血，甚至生命；他们用超乎常人的毅力、脚踏实地的行动和爱民为民的情怀，凌空架起了一座民族团结友谊进步的桥梁，在藏族同胞心中树立起江苏省援藏的永恒丰碑。', '如何将内地先进的发展理念、将南京市的人才技术等优势带到墨竹工卡县，从而实现经济社会的跨越式发展，这是南京市第六批援藏干部一直深入思考、努力破解的课题“围绕有利于服务民生、有利于维护稳定、有利于促进发展，有利于‘输血’和‘造血’相结合的原则，把60%以上的援藏项目向农牧区倾斜，向农牧民倾斜。”南京市第六批援藏干部、墨竹工卡县县委书记林涛告诉记者。', '按照“着力破解难题，大力推动发展，全力开创援助墨竹工卡县工作新局面”的定位，南京市第六批援藏干部为墨竹工卡县量身制定了援藏工作3年规划和“十二五”5年工作规划，以及矿产业发展、旅游业发展、城镇建设等单项规划，明确了建设“民富县强，稳定和谐”新墨竹工卡县的总体思路，提出了“稳定发展农牧业、整合开发矿产业、大力发展旅游业”的科学发展战略和实施“七大工程”的具体举措，力争在3年援藏工作期间GDP和财政一般预算收入在2010年的基础上翻一番，确保南京市援藏工作走在江苏省乃至全国前列，力争墨竹工卡县工作步入拉萨市前列。 2010年全县财政总收入在自治区率先突破1亿元，2011年全县财政总收入又率先突破2亿元，2011年全县地区生产总值完成10.34亿元，财政一般预算收入达到突破性的9768万元。', '培育特色农牧业。出台《关于加快农牧业农村发展的意见》，利用农牧业发展的比较优势，结合农牧业发展的综合效应，着力建设高效温室大棚基地、藏青杨育苗基地和庭院经济示范户，逐步形成以温室蔬菜种植、藏青杨育苗、庭院经济种植为核心的特色农牧业发展格局，同时加大了斯布牦牛短期育肥、藏香猪养殖等特色农牧业的推广力度。两年来建设日光温室409栋，培育藏青杨苗1200亩，发展庭院经济示范户600户。', '整合开发矿产业。按照“科学、规模、高效、环保、安全”的原则，先后成功引进中国黄金集团、四川宏达集团等全国500强企业参与矿产资源的整合开发，提高资源利用率，最大限度地变资源优势为发展优势。目前，华泰龙矿区一期工程已建成投产，总投资近50亿元的二期工程已经启动；驱龙矿区和天仁矿区群众搬迁安置前期工作已经完成，各项配套设施建设进展顺利，初步形成以华泰龙矿区、驱龙矿区、天仁矿区为龙头的矿产业发展格局。 2011年涉矿企业上缴税收1.6亿元，占全县税收总额的70%，截至今年8月涉矿企业已上缴税收1.1亿元。', '大力发展旅游业。结合旅游资源的分布和开发潜能，引进和依托运作公司，加快开发以吐蕃人文历史和牧区自然风光为核心的甲玛景区、以藏传佛教文化体验为核心的直孔景区、以高原温泉沐浴和高原神湖风光为核心的日多景区、以休闲度假为核心的嘎则温泉度假区，形成了以甲玛景区、直孔景区、日多景区和嘎则温泉度假区为重点的旅游业发展格局。目前“四大景区”内的甲玛松赞干布纪念馆已对外开放运营，甲玛霍尔康庄园将在今年年底前对外运营，嘎则温泉度假区、斯布班禅牧场景区、思金拉措景区等景点建设进展顺利，景区内的旅游基础设施进一步完善，旅游服务能力进一步增强。', '着力搞好招商引资。不断优化招商引资的行政服务环境和各类政策，千方百计增强投资吸引力，让企业投资在墨竹工卡县、发展在墨竹工卡县、受益在墨竹工卡县。近两年落实招商引资项目15个，投入资金达到18.21亿元。注重墨竹工卡县与南京市的合作交流，截至目前南京市方面共派出39个代表团赴墨竹工卡县指导援藏工作、商谈合作事宜，累计援助资金达到3215万元，同时墨竹工卡县先后派出6个代表团赴南京市考察学习、商谈合作，成功引进江苏柯菲平药业公司等3家企业落户墨竹工卡县，投产后年税收可达到2000万元。', '“基础不牢，地动山摇。”南京市第六批援藏干部始终把维护社会稳定作为首要政治任务，牢固树立“发展是政绩，稳定也是政绩”的观念，严格落实中央和区党委、政府对达赖集团斗争的方针，紧紧围绕“一个确保、两个突破、三个加强”的目标，立足于抓早、抓小、抓快、抓好，严密安排部署维稳各项措施，两年来全县实现了大事不出、中事不出、小事也不出。', '援藏干部连续两年提前30天结束休假进藏，带头进行维稳值班带班。按照“一套班子坚持不懈抓稳定，一套班子凝心聚力抓发展”的思路，全县成立了以县委书记林涛为班长的维护社会稳定工作指挥中心，全面落实维稳各项工作责任制。', '积极应对全县药材资源多引起的采挖利益纠纷多、矿产资源多引起的开发使用纠纷多等新情况新问题，制订完善《墨竹工卡县预防和处置突发事件工作方案》、《墨竹工卡县情报信息研判和工作督导方案》等13项维稳方案，建立起《维稳一线指挥运行机制》、《群防群治工作机制》等36项工作机制，确保各领域各方面事前有防范、事后有处置。', '坚持“源头治理、关口前移、网格化管理、群防群治”，全面推行“网格化服务，便民式管理”，不断建立健全国保、派出所、村委会三级联动的社会管控体系，建立健全军警民大联防的社会防控体系，建立健全县、乡、村三级矛盾纠纷联排联调的大排查大调解体系。加强和创新寺庙管理，全面完成“六建”、“六个一”工作，稳步推进“九有”工作，“五有”工作进展顺利，在藏传佛教寺庙开展以“爱国爱教、遵规守法、弃恶扬善、崇尚和谐、祈求和平”为主题的法制宣传教育活动。', '援藏干部自觉做到“不利于民族团结的话坚决不说，不利于民族团结的事坚决不做”。围绕“各民族共同团结奋斗、共同繁荣发展”的主题，在全县共产党员中开展民族团结先锋活动，以“一宣讲、两结对、三连心、四恳谈、五解难”为载体，充分利用驻村、驻寺干部接近群众的优势，广泛深入宣传党的民族理论、政策和“三个离不开”思想，打牢民族团结的思想基础，推动各民族和睦相处、和衷共济、和谐发展，始终做到同呼吸、共命运、心连心，巩固和发展平等、团结、互助、和谐的社会主义民族关系。林涛获得“拉萨市民族团结进步模范个人”称号。', '“授人以鱼不如授人以渔。”南京市第六批援藏干部始终把改善农牧民生产生活条件、增加农牧民收入作为经济社会发展的首要任务，不断完善农牧业基础设施和道路交通条件，大力推进社会事业发展，千方百计解民困、暖民心、惠民生。援建了一批支撑墨竹工卡县经济社会发展、帮助农牧民增收致富的骨干项目，在已完成和正在建设的21个项目中，涉及民生的项目达到18个，投入资金达到8777万元。2011年实现农牧民人均纯收入达到5835元，较两年前增长了45.26%。', '多渠道增加农牧民收入。出台《关于实施十大工程促进农牧民增收的意见》，抓好农牧民技能技术培训和劳动力转移就业工作，深入推进“以业育人、以业安人、以业管人、以业富人”工程，不断开辟就业渠道、增加就业岗位，有效做好就业服务、提升就业能力，着力从自主创业、转移就业等方面增加农牧民收入，努力做到户户有门路、人人有活干、经常有收入。近两年培训农牧民达到7500人（次），劳务输出达到4万人（次），实现收入达到1.8亿元。', '高质量促进教育发展。不断加大教育工作经费投入力度，完善各类教育基础设施建设和人才队伍建设，近两年教育投入资金一直保持占到全县财政总支出的五分之一以上。未来两年援藏将投入达到8000万元、各级资金累计投入达到3.35亿元加快教育事业改革和发展，进一步调整学校布局，实现教育均衡发展。目前已完成14个教学点的撤并，县乡中心小学的改扩建进展顺利，县乡村三级幼儿园的新建全面动工，其中3所村级幼儿园完成修建，力争实现“教改五年目标三年完成”。', '大面积推进卫生服务体系建设。初步建成卫生设施和功能相对齐全的县乡村三级医疗卫生服务体系，“两网”医疗点达到58个，全县农牧民全部享受农牧区医疗保障制度。', '全方位完善社会保障。提高社会保险参保率，建立完善城镇养老保险、医疗保险、失业保险等社会保险制度，各保险参保率达到100%；新型农村医疗保险参保率达到98%，新型农村社会养老保险实现全覆盖，市（县）两级财政为全县农牧民购买意外伤害保险。', '高标准建设社会主义新农村。加快推进以安居乐业为突破口的社会主义新农村建设，道路、电话实现村村通，安全饮水的覆盖率达到94%，通电率达到98.5%，乡镇全部实现通油路，累计完成7216户的安居工程建设，完成1149户安居工程的提升改造，完成4873户的沼气建设，完成8个行政村的村容村貌整治。', '全身心办实事解难事。援藏干部设立了“捷宏助学金”和“格桑花开帮扶救助基金”，先后为123名贫困大学生发放助学金达到119.6万元，为22户贫困户落实帮扶资金达到29.2万元，为联系村落实帮扶资金达到35万元，为4名唇腭裂患儿成功开展整形修复手术，为白血病学生色珍募集医疗资金达到180多万元；制订了《墨竹工卡县百名先天性心脏病儿童患者救治方案》，拟在年内对全县所有先心病患儿进行救治，前三批15名患儿已在南京完成免费救治。林涛个人资助2名孤儿上学。', '南京市第六批援藏干部坚持“围绕中心抓党建，抓好党建促中心”的党建工作思路，不断加强和改进党的建设，着力加强党组织先进性和科学化建设，着力加强党员队伍思想政治和作风效能建设，为推进墨竹工卡县各项工作提供坚强政治和组织保证。', '深入推进学习型党组织建设，每年出台学习计划，在党内组织生活会上加强学习，在单位日常学习安排上加强学习，在重大学习活动上加强学习，采用自学和集中学、书本学和调研学等方式，学习中央第五次西藏工作座谈会精神，胡锦涛总书记“七一”重要讲话精神、“五个继续着力”重要指示精神和“7·23”重要讲话精神，以及习近平副主席在庆祝西藏和平解放60周年活动期间的一系列重要讲话精神，把全县党员干部的思想和行动统一到中央关于西藏工作的一系列方针政策和区党委、政府的一系列决策部署上来，着力增强党员干部反对分裂、维护稳定，推动发展、促进和谐的能力水平。搞好主题性教育活动，深入开展向雷锋同志学习活动，深入开展以“爱国、团结、和谐、发展、文明”为主题的社会主义核心价值观教育。抓好学习平台建设，把每年9月定为全县调研学习月，建成32个农村党员现代远程教育网络平台，建有2个村党支部书记培养实践基地。', '坚持干部队伍“四化”方针和“德才兼备、以德为先”标准，坚持“三个离不开”方针和“五湖四海”原则，大力培养选拔少数民族干部，重视培养使用长期在藏工作干部，努力建设高素质干部队伍。2011年圆满完成县（乡）党委换届，今年圆满完成县（乡）人大、政府换届和县政协成立，县（乡）两级领导班子成员年龄、文化程度、性别、民族等方面结构明显改善。严把选人用人政治关，坚持政治第一，近两年共选拔使用干部256名，其中提拔使用154名，另外2011年公开选拔副科级领导干部3名。加强干部培养，注重“输血”型援藏和“造血”型援藏有机结合，积极与南京市委组织部沟通协调，将墨竹工卡县“党政领导干部、专业技术人员、村级领导班子”选派到南京市挂职锻炼、跟班学习、参观考察，形成了每年定期选派5名党政干部、2名医务工作人员和7名教育工作者到南京市学习培养的长效工作机制，切实增强墨竹工卡县自我积累、自我发展的能力。目前已选派党政干部5批17名、专业技术干部3批9名、村干部3批80名到南京学习锻炼。', '不断扩大基层党组织覆盖面，帮助寺庙管理委员会成立党委2个、批准寺庙管理委员会成立党总支和党支部10个，鼓励各级驻村工作队成立临时党支部28个，在“两新”组织中建立党组织1个，帮助做好农村专业合作社党组织的成立工作，探索做好党组织企地共建工作，努力实现基层党组织在各领域各行业的全覆盖，目前全县共有党组织143个。突出加强农牧民党员的发展和培养，科学制定2013年至2015年农牧民党员发展3年整体规划和逐年具体规划，以“增强党的吸引力，扩大党的影响力”为切入点解决部分基层党组织吸引力不强的问题。今年新发展农牧民党员达到318名，党员总数达到2791名，其中农牧民党员达到1998名，占农牧民人口总数的4.4%。', '广泛推广运用“1234”党建工作法，把“1234”党建工作法建设成为全县各级基层党组织密切联系服务群众的坚实桥梁。通过“一本民情日记”让情况明起来，党员干部要按照民情日记工作制度，深入基层、深入群众调查了解民情民意，确保身子沉得下去、民情带得上来；通过“两种帮扶”让责任实起来，党员干部要以结对帮扶和公开承诺帮扶的形式定职责、明任务，确保人人身上有担子、个个身上有责任；通过“三项服务”让形象亮起来，党员干部要开展上门服务、定点服务、常态服务，绕着群众转、盯着群众看、追着群众问，尽最大努力为群众办实事解难事，确保群众的事有人问有人管有人办；通过“四步工作法”让成果大起来，党员干部在服务群众过程中需要遵循“组织定目标、自查找差距、群众评不足、整改看实效”四个步骤，纳入群众考核，让群众提意见，确保群众的事有问则有答、有办则办好。“1234”党建工作法自实施以来，群众对基层党组织的平均满意度达到93.3 %，比实施前提高了12个百分点。“1234”党建工作法中的“三项服务”让党员形象亮起来的做法得到中央政治局委员、中央书记处书记、中央组织部部长李源潮的批示肯定。', '坚持以党内活动为引领，集中力量办大事。深入自治区开展创先争优强基础惠民生活动，始终按照推动科学发展、促进社会和谐、维护民族团结、服务人民群众、加强基层组织的总体要求，实现了组织创先进，党员争优秀，群众得实惠，活动出实效。活动中，县委和扎雪乡其朗村党支部受到区党委表彰。深入开展自治区创先争优强基础惠民生活动，自去年10月份开展以来，全县40个驻村工作队的153名工作队员紧紧围绕“一个目标”和“五项任务”，各显本领，成功确保农村社会秩序稳定，有效带动群众增收致富，力所能及地解决了一些群众的实际困难，受到干部群众的普遍欢迎。深入开展基层组织建设年，在通过调查摸底全面掌握全县基层党组织的基本情况后，按照区（市）有关文件的分类定级标准，在各党支部自评和广泛征求群众意见的基础上，经过初步判定和“回头看”活动两个环节的反复甄别，最终确定14个先进基层党组织、47个一般基层党组织、10个后进基层党组织。专门制订后进党组织整顿工作方案，列出5类22项整改内容，逐一明确整改措施、整改时限、整改责任人，实行整改一项、销号一件，确保后进基层党组织尽快得到转化、转化后不反弹，确保能够树立起一批由乱到治、由贫到富、由后进到先进的典型。目前后进党组织的整改销号率平均在60%以上。', '搭建起“4200临时党支部”平台，深入开展“五争创、五表率”活动，树立南京市援藏干部良好形象。严格遵守工作纪律，把在藏率和在岗率作为工作评价的重要依据，除因公出差外，支部成员在岗在位率均达到100%。严格按制度办事，制定党支部活动制度、学习制度、请销假制度、工作汇报制度、援藏项目研判推进制度等，援藏干部个人获得市级表彰3人（次）。', '经过雪域高原的历练，南京市第六批援藏干部在奉献中收获了自己对人生的独特感悟，实现了自我完善、自我超越。他们对个人的利益得失计较得少了，对国家、西藏、集体的发展考虑得多了，人变得更加真诚和坚韧，更加乐于奉献。林涛说，这里虽然条件艰苦，任务繁重，但充实了自己的人生，磨练了自己的意志，增强了自己的党性。', '比高原更高大的是无畏的精神，比雪山更纯洁的是无私的心灵。南京市第六批援藏干部这个团队体现出的精神，正是我们这个时代的强劲韵律，是这个时代宝贵的财富。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>259</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>拉萨市围绕做好发展稳定工作主题狠抓四个环节扎实推进学习型党组织建设</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2011-12-31</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201112/a49c6a3a43db499296b732b1aec3ba9f.shtml</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['拉萨市围绕做好发展稳定工作主题狠抓四个环节扎实推进学习型党组织建设_拉萨要闻_拉萨市人民政府', '西藏拉萨市围绕深入学习贯彻中央第五次西藏工作座谈会精神，做好西藏发展稳定工作这一主题组织学习活动，坚持从抓好“学习策划、学习结合、学习内容、学习考评”四个环节入手，扎实推进学习型党组织建设工作。', '1.抓学习策划，确保学习分类指导、入脑入心。一是策划好分层分类的学习教育活动。对党员干部，坚持每周抽一天时间组织专题学习讨论，推动形成思想共识。今年市委召开中心组扩大会议，用一周时间深入学习贯彻中央第五次西藏工作座谈会精神，提升大家对拉萨发展稳定重要性的认识。对农牧（居）民群众，编辑藏文版《中央、自治区、拉萨市惠民政策汇编》，发放给全市农牧（居）民家庭学习，抽调近1500名干部职工深入到农牧区基层进行宣讲，引导各族人民群众知党恩、感党恩、报党恩，坚定跟党走的信心和决心。对青少年学生，普遍开展读书月、读书周、读书日活动，为学生提供必读、选读书目，建立学校图书走廊、图书角、德育走廊，引导学生形成爱读书、读好书的好习惯。二是策划好红色主题教育活动。以庆祝建党90周年和西藏和平解放60周年为契机，精心策划回眸拉萨60年“红色歌曲·拉萨唱”与“辉煌拉萨60年图片巡回展”等系列主题活动，进一步唱响时代主旋律。全市各行业累计举办红歌演唱会、演唱比赛1092场次，表演者和观众达70余万人次，近22万人次观看了图片展。三是策划好深入实际的调研活动。要求县处级以上干部每年联系实际确定调查题目，深入企业、村组开展调研，并形成有较高质量的调研成果，为科学决策提供参考。', '2.抓学习结合，确保学习目标明确、有的放矢。一是与党委中心组学习制度建设相结合。抓好县级党委（党组）中心组“领学”、乡镇党委中心组“跟学”、村两委班子“普遍学”的三级中心组学习制度建设，形成自上而下引领学习、自下而上反馈学习的互动学习网络。二是与市委市政府的重大决策部署相结合。通过学习统一认识，市委市政府形成了“一坚持”（坚持项目带动促发展）、两强化”（强化政策落实惠民生、强化固本之举保稳定）、“三突破”（在“六城同创”、深化改革优化发展环境、加强基层党建夯实基层基础三个方面求突破）的工作思路。三是与“创先争优”和“基层建设年”、“效能建设年”等活动相结合。机关党员深入扶贫点，帮助基层组织和群众解决实际困难。学校党员通过“四个一活动”（每位党员每学期精读一本书、结对一位教职工、结对一位学生、为一个班级办一件实事），发挥先锋模范作用。农牧区党员干部开展中央涉藏工作精神和党的惠民政策宣讲工作，引导群众增强爱国情怀和感恩意识。四是与开展业务主题实践活动相结合。市检察院组织“恪守检察职业道德、促进公正廉洁执法”主题实践活动，通过案例研讨、文书评点、业务讲座等形式提高干警业务能力。市民服务中心编发市民标准化知识手册，为群众提供服务。五是与完善学习督导检查制度相结合。先后制定实施调查研究、个人自学、学习成果转化等规章制度。市发改委与每位干部职工签订了《禁止参与赌博的责任书》，鼓励干部职工八小时之外多读书学习。柳梧新区、拉萨经济技术开发区把入驻企业党支部纳入工委管理，加强督导，推动企业党建工作的开展。市委还专门组织5个督导组，对全市开展学习型党组织工作情况进行督查。', '3.抓学习内容，确保学习联系实际、学以致用。一是联系实际丰富学习资料。林周县组织编印了《爱国主义教育自编教材》，内容涵盖国情、区情、市情、县情等多个方面。墨竹工卡县、城关区等县（区）结合学习需要，自编印发《中央第五次西藏工作座谈会主要精神释读》、《惠民政策摘编》等学习资料。二是开阔眼界强化考察培训。拉萨经济技术开发区、柳梧新区管委会选派干部赴内地考察学习、开阔视野。市信访局按照“缺什么学什么”原则，邀请专家进行系统的信访知识培训。三是注重实效组织测试检查。市政协办公厅、市商务局、市人保局等单位围绕理论学习和“五五”普法等内容，对全体干部职工进行知识测试，检验学习效果。市直机关工委、市司法局、市政市容管委会通过组织“全民阅读活动”，组织干部职工参加“礼仪亚运、文明拉萨”、机关效能建设、“五五”普法知识竞赛等活动，检查广大干部职工的学习效果。', '4.抓学习考评，确保学习扎实推进、取得实效。制定《关于推进学习型党组织建设的实施意见》，把学习型党组织建设纳入党的建设总体规划。把理论学习作为加强领导班子建设的首要任务，制定《理论武装工作考核评价办法》，对全市各机关、学校、企业创建学习型党组织工作进行量化、细化，并将考核评价结果纳入年终市委市政府目标管理考评之中。将干部学习情况作为年度考核重要内容，与评先评优、职级晋升等挂钩。在考核过程中，坚持平时检查考核与年终综合考评相结合，采取自查自纠、互查互补等多种形式，帮助各单位完善学习型党组织创建工作思路和措施，确保了各项任务落到实处。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>259</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>拉萨供暖工程工作顺利推进将采用集中供暖</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2012-03-20</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201203/88ad2ae7b3f648f3adcedd8291ffe547.shtml</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['目前，拉萨市已成立城市供暖工程建设工作指挥部，组织专家开展咨询工作，与中石油西藏销售分公司达成了组建燃气热力公司的共识，推动项目贷款、用户调查、制定实施方案和可行性报告、开展试点、组织考察学习等工作正稳步推进。记者从拉萨市燃气热力有限公司了解到，为培养专业人才，保障供暖工作的顺利推进，该公司已经选出13人到北京进行为期1个月的培训。', '今年以来，拉萨市全力推进城市供暖工程建设进程。中国石油西藏销售液化气经销公司负责人向记者介绍：“按照自治区的总体部署，目前拉萨市和中石油西藏销售公司对于集中供气、供暖等进行了积极沟通，具体细节相关部门还在商谈之中。根据拉萨经济技术开发区试点供暖的情况来看，拉萨市供暖适宜采取集中供暖的方式。”', '据介绍，根据内地的供暖方式，分为分户燃气供暖，小型锅炉分散供暖、大型锅炉集中供热及热点联产等。“拉萨经济技术开发区采用的就是集中供暖，从去年11月中旬开始供气，每天用气量在2000方。集中供暖在经济效益、社会环境效益方面要比其他供暖方式好。”该负责人说。', '“相关项目立项后，我们将全力按照自治区和中国石油的整体部署扎实推进项目实施。从内地集中供气、供热情况来看，进入实质性阶段后，重点工作就是城市管网建设，这必须要有相应资质的企业进行投标，另外由于燃气设备设施的采购周期长、繁琐，一般都需要订购，根据购销双方的约定生产、交付，最后才是施工、安装、对燃气计量、定价等相关问题。”该负责人说。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>259</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>齐扎拉把供暖工程这好事办好</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2012-03-16</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201203/c50849e476b14c7584a40d4119b608e3.shtml</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['3月15日下午，拉萨市委召开常委会，听取并研究拉萨市城市供暖工程建设工作开展情况汇报。自治区党委常委、拉萨市委书记齐扎拉要求，要把建设城市供暖工程这一造福于人民的好事办好。', '齐扎拉指出，为进一步完善城市功能，提高拉萨居民生活质量，保护拉萨生态环境，今年以来，拉萨市全力推进城市供暖工程建设进程。截至目前，已成立拉萨市城市供暖工程建设工作指挥部，组织专家开展咨询工作，与中石油西藏销售分公司达成组建燃气热力公司的共识，推动项目贷款、用户调查、制定实施方案和可行性报告、开展试点、组织考察学习等工作有条不紊地推进。', '齐扎拉要求，全市各级党政组织、党员干部要统一思想，提高认识，下定决心，坚定信心，全力推进这一项“环境立市”的基础性工作；领导小组、建设指挥部、工程监理等相关部门要全力以赴，规范程序，把造福人民的好事办好；要以实事求是、扎扎实实、对人民负责的态度，一切工程进度服从于质量和安全，不因赶工程进度而出现工程质量问题；要坚持“公开透明、群众参与”的原则，积极引导群众参与工程建设，让整个工程建设在阳光下运行；要切实加强领导，搞好规划调研，强化团结协作，积极完善工作机制，坚定不移、不折不扣地推进工程建设进度，圆满完成自治区党委、政府交给的艰巨任务。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>259</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>学习先进管理经验掌握科学种养技术</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2011-12-14</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201112/b8be4f7a0bee499fb18d915cd1d001f2.shtml</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['为全面提高基层干部群众的综合素质，帮助农牧民群众扩大增收视野，拓宽致富渠道，我市驻村工作队通过带领干部群众走出去的方式，组织干部群众考察增收致富项目，学习科学种养技术。', '市委办公厅驻扎西岗村工作队组织村“两委”班子成员、各小组组长、群众代表和致富带头人赴城关区蔡公塘乡白定村农村经济合作社、次角林奶牛养殖小区、纳金乡嘎巴村扶贫采砂场和堆龙德庆县古荣乡藏鸡养殖专业合作社、古荣朗孜糌粑有限公司实地进行参观学习。', '堆龙德庆县驻常木村工作队组织村委会干部及党员代表前往东嘎镇东嘎村进行参观学习，详细了解东嘎村各项规章制度的建立及执行情况，东嘎村日常办公情况和新旧社会对比展览室管理使用情况，并就如何建强基层组织、带领群众增收致富等问题进行交流探讨，为常木村下一步工作的开展和决策部署提供参考依据。', '堆龙德庆县驻巴热村工作队结合所驻村草场资源丰富的特点，组织村“两委”班子成员赴城关区纳金乡藏热村巴扎酸奶厂、村集体奶牛养殖基地进行参观学习，详细了解奶牛养殖以及酸奶加工各个环节的成本和效益，学习借鉴科学的管理经验。', '市科技局驻邦堆村工作队组织驻村种植户前往堆龙德庆县岗德林村和自治区农科所科技园区参观，并就整地、育苗、移栽等高效日光温室科学种植技术进行实地培训。', '外出考察学习的干部群众普遍反映，通过考察学习，他们进一步增强了致富信心，明确了发展定位，理清了发展思路。他们将结合当地实际，积极运用考察学习得来的知识，努力拓宽致富增收渠道，积极开展科学种养，争取及早走上致富道路。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>259</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>拉萨市坚持四个创新加强干部队伍建设</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2012-02-16</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201202/c19dec3ad82741debd8e3318664ff843.shtml</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['为提高各级领导班子和干部队伍服务发展、维护稳定的能力，激发干事创业的活力，拉萨市在“选拔任用、学习培训、管理考核”等方面求创新，不断加强干部队伍建设。', '创新任用，不断优化领导干部队伍结构。切实规范干部任用工作，努力提高选人用人公信度。一是严格程序，科学选人。按照《党政领导干部选拔任用工作条例》规定，积极疏通干部的上下进出渠道，打破铁饭碗，废除终身制，形成“能者上、平者让、庸者下”的良好用人机制，不断提高干部选拔任用工作民主化、规范化水平。二是紧扣大局，科学选人。紧紧围绕服务全市跨越式发展和长治久安的工作大局，坚持在基层一线、维稳一线、信访一线考察识别干部、培养锻炼干部。把基层一线作为培养锻炼干部的基础阵地，每年从市直单位', '选派一定数量的县级后备干部到县（区）直单位特别是基层乡（镇、街道）挂职锻炼；把反分裂斗争一线作为培养锻炼干部的重要平台，注重选拔一些优秀年轻县级干部和县级后备干部充实到政法、统战、民宗工作，及时为重要部门和关键岗位充实领导力量。三是创新机制，科学选人。探索建立县（科）级副职干部“缺位公选”制度，立足拉萨市实际，面向全市机关和企事业单位，通过笔试、面试、体检和组织考察等方式，公开选拔县（科）级副职领导干部。在总结去年全市公开选拔副县级干部经验的基础上，进一步扩大公开选拔副县级领导干部力度，并指导各县（区）、各单位开展科级干部竞争上岗工作。', '创新培训，不断提升领导干部执政水平。一是结合“学习型党组织建设”抓好政治培训。深入开展学习型机关、学习型干部创建活动，建立健全党委（党组）中心组学习制度、学习笔记调阅制度、任职资格考试制度等，努力提高各级领导班子和领导干部执政能力。二是紧扣工作重点抓好能力培训。结合拉萨市经济社会发展实际，利用各级党校、高校教育和对口支援优势，做好规划、国土、旅游等急需专业技术人员专题培训。近两年，累计培训各类专业技术人员3866人次。三是创新培训方式抓好实践培训。采取送校学习、脱产深造、鼓励自学等多种途径，加大干部教育培训力度。同 时，采取强化交流、派送基层、挂职锻炼等多种形式，加大干部实践锻炼力度。近年来，拉萨市每年培训各级各类干部7000余人次，并先后选派1270余名干部赴北京、江苏等地考察学习。', '创新管理，不断规范领导干部权力运行。一是大力整治用人上的不正之风。以换届工作为契机，深入开展换届纪律、法规制度的宣传工作，制定出台治理干部拉票贿选行为专项行动工作方案，切实维护风清气正的选人用人环境。二是积极落实从严管理干部各项要求。建立完善领导班子和在职干部、后备干部数据库，研究制订了体现科学发展要求的《关于加强培养选拔优秀年轻干部工作的实施意见》、《2009-2020年拉萨市党政领导班子后备干部队伍建设实施规划》、《关于进一步严格请销假制度的通知》等一系列文件，进一步加强干部管理，严肃政治纪律。加大落实干部谈话制度、重大事项报告制度、问责追究制度等各项制度的力度，不断强化干部监督工作执行力。对维护社会稳定、安全信访稳定等工作责任不落实、措施不得力的干部，及时启动问责程序，追究领导干部责任。三是全面加强群众信访工作。加强和改进“12380”举报电话的受理工作，坚持开门办访、超前理访、责任督访，积极化解老难信访件，做到有访必接，有接必查，有查必果。进一步拓展群众监督渠道，发挥群众监督、舆论监督作用。', '创新考核，不断激发领导干部队伍活力。全面推行以干部德的考核、年度工作实绩考核、动态跟踪管理考核、民主测评和社会公认度评估相结合的综合考核评价办法。特别注重加强了解领导干部平时履职，落实上级交办的重点工作、阶段性重要任务以及处置应对公共事件、突发事件等方面的表现，客观公正地评价各级领导班子工作实绩，注重群众评价和动态考核，加大“治庸”和问责力度，调整不胜任、不作为干部。制定出台优惠政策，积极妥善解决部分长期在乡镇工作干部的职级待遇问题，充分激发干部队伍干事创业活力。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>259</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>教育事业谱新篇</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2011-08-24</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201108/0c9b0d16006e492db27c01630d6c5c28.shtml</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['教育是国家和民族最根本的事业。近年来，在党中央、国务院的亲切关怀下，在区、市党委政府的坚强领导和对口援助省市的大力支持和无私援助下，拉萨市各级党委、政府始终坚持科教兴市、富民强市战略不动摇，全市教育系统以科学发展观统领教育工作，以提高教育质量为核心，以促进教育公平为重点，把“两基”工作作为推进拉萨科学发展、跨越式发展和长治久安的重要内容，充分调动全市各族人民关心教育、支持教育、发展教育的积极性，全面落实责任，狠抓控辍保学，不断提高教育教学质量和教育管理水平，形成了党以重教为先、政以兴教为本、师以从教为乐、民以助教为荣的浓厚氛围。', '近年来，全市教育部门始终把“两基”工作放在重中之重的位置，下大力气抓好“两基”成果的巩固和提高。首先是坚持督学与督政互相结合、互相促进的工作方针，督促各县(区)政府进一步落实“以县为主”的教育管理体制，在人员、经费、制度上予以保证。各中小学校按照“进得来、留得住、学得好”的要求，建设更加安全、文明、和谐的校园，切实提高教育教学质量，把学校办成学生最向往的地方，促使适龄学生自觉接受义务教育；其二，实施“双线”目标责任制，层层签订防流控辍目标责任书，把防辍工作指标层层落实，责任到人。严格实行“四书”制，从源头抓严、抓实“控辍保学”工作。在全市推行小学升初中“整班移交”工作制度。坚持“生活留人”，全面落实“三包”政策；其三，抓教育公平，积极推进义务教育均衡发展。我市从县(区)域做起，科学规划，统筹教育规模、结构、质量和效益，在确保师生安全、确保学生不流失的情况下，加快推进集中办学进程。', '并在学校基本建设、设施设备配套、师资分配等方面向农牧区和城市薄弱学校倾斜。全市各中小学校坚持目标管理与过程管理并重，制度管理与人本管理并举，推进了学校管理的精细化、人性化、规范化、科学化。各县(区)教体局加大力度，抓学校管理，推进教育内涵发展。特别是城关区按照“标准化、规范化、信息化、现代化”的要求，全面推进素质教育，全面提高教育教学质量，全力做好各项筹备工作，实现了区域教育均衡优质发展，为全区、全市基础教育发展发挥了示范带动作用；其四，始终坚持 “百年大计，教育为本；教育发展，教师为本”的发展战略，大力开展以“敬业、爱岗、奉献”为主题，以勤奋钻研业务、提高自身素质和教育教学水平为重点的师德建设，在修师德、树师表、铸师魂的活动中，引导教师“以身立教，以人育人，以德育德，以教师形象塑造学生形象”，不断提高师德修养；其五，深化教育教学改革，全面提高教育教学质量。把德育工作摆在素质教育的首要位置，贯穿在学校教育的各个环节；完善制度，推进学校管理制度化、规范化、科学化和常态化；加强安全管理，有力地推进平安校园建设。', '为全力做好“两基”迎国检工作，我市在曲水、林周两县中学组织召开了拉萨市中学管理现场会。由城关区教育局承办的全区推进义务教育均衡发展现场会也成功召开。以规范学校招生、执行校历、收费、教材征订等行为为重点，建立了更加规范的教育秩序。', '成立了由市政府一名秘书长为组长的“两基”工作专项督导组，对各县(区)“两基”工作和迎国检工作进行了多次全面督查。召开了8县(区)教育局长工作会议，介绍山南地区“两基”巩固提高与迎国检工作经验，进一步安排部署我市“两基”迎国检工作；组成拉萨市“两基”迎国检教育考察团，赴云贵川3省考察学习“两基”迎国检工作的先进经验和做法等。与此同时，各县(区)、各中小学校结合实际，切实抓好迎国检档案建设和数据统计等工作，认真梳理迎国检各类材料的形成、汇编、审核和上报等工作。多年来，经过全市各族人民的共同奋斗和广大教育工作者的默默耕耘，2004年我市率先在全区实现“两基”目标，2007年成为全国“两基”攻坚先进地区，2009年获得全国推进义务教育均衡发展工作先进地区荣誉。据统计，到2010年全市初中入学率、巩固率分别达到99.47% 和99.36% ，比2005年提高了4.20和1.89个百分点；2010年小学入学率、巩固率分别达到99.76% 和99.63% ，比2005年提高了0.61和0.17个百分点。青壮年文盲率由“十一五”初的2%下降到1% 以内。拉萨市先后荣获全国“两基”攻坚先进地区、全国推进义务教育均衡发展工作先进地区等荣誉。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>259</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>拉萨市工业代表团在江苏考察成绩斐然</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2011-04-27</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201104/44f93d33c0dc4c7fa48fb701fe60f88a.shtml</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['为贯彻全区和市经济工作会议精神，加快工业强市的步伐， 推进“走出去、引进来” 战略的实施， 4月18-23日，拉萨市工信局组织了西藏帮锦镁朵工贸有限公司、拉萨岗地经贸有限公司、西藏优格仓工贸有限公司、西藏坎巴嘎布卫生用品有限公司、西藏春光食品有限公司等重点企业负责人及达孜县、曲水县主管经济副县长，赴江苏举行产品展览会并进行考察学习和交流。', '拉萨市工业代表团在江苏参展和考察在江苏各地引起很大的反响。据拉萨市工信局副局长卢载贵介绍，拉萨民族产品在扬州参展期间，备受关注，观者如潮。原江苏省委书记陈焕友等领导亲临现场，指导交流，而来自全国各地的工艺美术大师、采购商等更是络绎不绝。每天参展的交易额均在数万元以上，已形成意向合同在百万元以上。此次参展极大地扩大了拉萨产品的知名度和影响力，为拉萨企业加强与内地企业密切合作、实现优势互补、共同发展搭建了一个良好的平台。', '江苏省经信委高度重视拉萨市工业代表团的访问，省经信委党组书记、主任陈震宁同志亲自做了批示，省经信委主任副主任（省国防科工办）秦雁专门看望大家并陪同考察。', '“拓宽视野，转变理念，密切合作，增进友谊”是这次考察的重要收获，一位企业家中肯评价。江苏是经济大省，已进入后工业化时期，许多发展经验、理念都值得拉萨学习和借鉴。考察团拜访了扬州工艺美术集团、扬子江药业集团、江苏振华泵业、连云港东海水晶市场等江苏诸多知名企业，并与当地经信部门领导和企业家进行了广泛的交流。科学的管理理念、先进的生产装备和整洁的生产现场，令代表团每位同志耳目一新，铭记在心。', '考察过程中，各企业均有很大的收获。帮锦镁朵工贸有限公司在江苏采购洗毛机等设备，为“十二五”期间扩大生产规模做好准备。西藏坎巴嘎布卫生用品有限公司基本和扬州大润发达成合作协议，为产品早日进入江苏市场奠定基础。春光食品集团积极引进战略投资者，在江苏扩点销售已成定局。拉萨岗地经贸有限公司、西藏优格仓工贸有限公司等正积极寻求与江苏代理商的合作。', '当前，拉萨市工业经济正处于快速发展和转型升级的关键时期，同时面临增长粗放、资源瓶颈、生态脆弱等多重因素制约，以重点企业为支撑，进一步做优、做大、做强特色产业，推进新型工业化进程，努力实现全市工业经济又好又快发展，成为“十二五”期间的迫切任务。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>259</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>林芝地区考察学习团在我市考察工业企业</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2011-01-19</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201101/323fb7529cae474cbe26347217ce594b.shtml</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['1月18日，以林芝地区行署副专员刘来兴为团长的考察学习团一行在拉萨市副市长次仁央宗的陪同下，分别赴我市达孜、堆龙德庆县就工业企业和蔬菜种植等情况进行了实地考察。', '考察团一行前后来到达孜县工业园区，走入园区内的西藏臧缘青稞酒业有限公司、西藏优格仓工贸有限公司、西藏春光食品有限公司、西藏第三极羊绒制品有限公司；在拉萨经济技术开发区天地绿色饮品有限公司、娃哈哈健康食品有限公司、岗德林蔬菜基地等实地视察了公司的运作、销售和种植情况。', '考察团一行每到一处，都详细听取了相关负责人的情况汇报，他们亲身感受到，拉萨近几年来的工业经济取得的飞速发展，在“菜篮子”建设和提高农牧民的收入上取得的成绩；感受到了拉萨人民安居乐业、精神饱满的状态，特别是感受到拉萨在“十一五”期间各项事业取得的令人瞩目的成绩，感受到了这座城市散发出的勃勃生机，大家都感叹拉萨的变化真大。', '考察团一行通过实地调研、参观、走访种植户，深深体会到，这几年拉萨在农牧业平稳较快发展的同时，认真落实了扶持企业发展的各项政策，加强了工业经济运行的调控，园区经济在实施富民强市战略中的引领作用得到了进一步发挥，工业经济也得到了快速发展，成绩令人鼓舞。', '考察团一行希望，通过开展这种活动，进一步加强两地之间的交流学习，共同促进两地的发展。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>259</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>达娃欧珠赴林周县调研创先争优强基惠民活动法治意识</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2012-07-06</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/ldhd/201207/1ef9372917fe4f8d8424e675ac8bfb49.shtml</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['7月3日，拉萨市委常委、市纪委书记、市创先争优强基惠民活动领导小组常务副组长达娃欧珠前往林周县甘曲村、春堆村调研创先争优强基惠民活动开展情况，并到林周县职教中心了解农牧民技能培训工作开展情况。 达娃欧珠认真听取了自治区创先争优强基惠民活动驻林周县甘曲村工作队（市委政法委派驻）和春堆村工作队（市人大派驻）的工作进展情况汇报，看望慰问了驻村工作队员，并实地查看了春堆村已经实施的两个强基惠民项目。达娃欧珠对两个工作队的驻村工作给予肯定，指出两个工作队总体工作开展得很扎实，结合村组实际抓住了工作重点，取得了明显成效。 就如何开展好下一步的驻村工作，达娃欧珠提出了如下要求。一是突出抓好基层维稳工作。当前，党的十八大召开在即，国际国内形势严峻，拉萨面临的维稳压力更大。要整体推进“五项任务”，特别是维稳工作丝毫都不能放松。要在巩固已取得成效基础上，进一步落实中央和区市党委、政府关于确保基层社会和谐稳定各项工作措施，切实抓好重点人员的管控。二是深化感恩主题教育活动。要进一步充实教育活动内容，想方设法开展一些群众喜闻乐见的活动，通过创新教育载体、拓展活动空间、丰富宣传内容等措施，切实增强基层干部群众的爱党意识、国家意识、民族团结意识和法治意识。三是深入抓好农牧民培训工程。要认真落实市委关于进一步加强农牧民技能技术培训和劳动力转移工作的各项决策部署，突出实用技术培训、转移就业培训、创业培训等工作重点，把所在村组需要进行培训的农牧民情况摸清摸实，在市培训办统筹安排下开展好各项工作，真正实现以业育人、以业安人、以业管人、以业富人。四是探索加强和创新社会管理。要积极借鉴城关区网格化管理服务模式的有效经验，组织人员到城关区进行考察学习，结合本村实际情况进行积极探索。另外，各工作队在开展基层组织建设工作中，要扎实做好发展党员工作，边发展、边教育、边提高，确保市委提出的达到6%的覆盖面的工作目标如期实现。基层党建工作要突出抓好思想政治建设、组织建设、作风建设、制度建设、队伍建设和党风廉政建设，多开展一些符合基层生产生活实际的组织生活，不断提高基层党组织的凝聚力和战斗力。在落实项目工作中，要做好项目的论证评估和可行性分析，确保所实施的项目给农牧民群众带来实惠。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>259</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>构建科学的人才发展体系</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2012-07-25</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201207/17342ca54e984c72a890788b1094829b.shtml</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['拉萨市自2011年召开全市人才工作会议，发布《拉萨市中长期人才发展规划纲要（2011—2020年）》以来，发挥首府城市首位度作用，围绕人才培养开发、流动引进、发现使用、管理服务、扶持投入等5个关键环节，不断完善人才发展体系，努力推动人才科学发展。', '据了解，拉萨市围绕全市“五大战略”、“六大产业”等中心工作，确立了“教育人才115培养工程”、“拔尖人才培养工程”等10大人才工程，并把“500名基层专业技术人员赴内地考察学习”作为全市12件民生工程之一。采取分类指导、集中培训、跟踪培养、项目开发等方式，深入开展了“法检系统岗位练兵”、城关区教育系统“十百千”行动等一系列的人才培养工作，并成立了干部教育培训现场教学基地，开发了一大批各级各类人才。依托京苏对口援助平台，采取赴京赴苏培训、人才送校学习、专家进藏指导等方式，实施了18个人才项目，培养和选拔了近500名重点人才；在2011年选派2名“西部之光”访问学者分赴华中师范大学和北京协和医院进修1年的基础上，今年再次向区党委组织部推荐了3名中高级专业技术人才作为“西部之光”访问学者人选。同时，积极与清华大学开展人才智力合作，制定了《拉萨市委、清华大学人才智力战略合作框架协议》。', '开展了区域人才合作。充分发挥拉萨市作为“西南人才联盟”成员的优势，积极与重庆、成都、南宁、贵阳、昆明等城市开展区域人才合作活动，举办了首届西部地区首府城市人才工作研讨会暨西南人才联盟第十二次中心主任会议，签订了《西南人才联盟城市促进人才向拉萨集聚协议框架》和《西南人才联盟城市企业人才相互交流协议框架》。', '拉萨市在加强人才引进方面，出台了《拉萨市引进人才优惠政策实施细则》，从10个方面明确了30余项优惠政策，对引进的人才提供最高20万元的资助费和8万元的安家费。今年4月，制定了涉及医疗卫生、教育研究、广播电视、信息技术等16个领域52个专业124名急需紧缺人才的引进计划，赴兰州、西安、郑州、武汉、四川、贵州等内地高等院校引进人才39名。在推进人才交流方面，2011年以来，立足优化人才队伍结构，在全市广泛开展人才交流工作。今年6月，结合全市加强和创新社会管理试点工作，从各县和市直部门选派102名党政干部到城关区乡（街道）工作，选派第三批9名业务骨干到信访部门挂职锻炼，为市直投资开发有限公司选派了10名总经理、副总经理。在深化人才援藏方面，在第六批74名援藏专业技术人才的基础上，向中组部申请选派了3名获得博士学位、有实际工作经验、专业对口、45岁以下的优秀中青年干部到市教体局、住建局和国土局挂职1年。', '在畅通高层次人才发现渠道方面，出台了《“拉萨英才”评选管理办法》和《拉萨市享受政府特殊津贴专家评选管理办法》，每两年开展一次评选表彰工作，对为拉萨做出突出贡献的优秀人才授予“拉萨英才”称号，对在科技推广、教育医疗等领域做出突出贡献的中高级专业技术人才、高技能人才授予“拉萨市享受政府特殊津贴专家”称号，并一次性奖励4万元。2011年面向全市科级干部公开选拔了团市委副书记、市广电局副局长等6名副县级干部，面向全市公开选调了100余名专业技术人才和行政人才；建立了“拉萨人才网”和拉萨市人才市场，仅2012年上半年就举办人才招聘会6场，提供就业岗位5743个，吸引了近300余家用人单位和5000余人参加，促成1600余名各类人才与用人单位达成就业意向。', '依托大型实景剧《文成公主》，从区市歌舞团、娘热民间艺术团、次角林民间艺术团等单位抽调99名文艺骨干，努力培养开发创作设计、文艺演出、经营管理等文化人才；投入650万元实施了青稞育种合作研究项目，培养了一批农牧科研人才，努力打造智力项目推动人才发展、人才发展引领智力项目的格局。', '今年4月，拉萨市对西藏拉萨经济技术开发区、达孜工业园、曲水县工业园和堆龙德庆县工业园人才队伍基本情况进行了调查摸底，找准了园区人才队伍发展存在的问题和困难，形成了《拉萨市“一区三园”人才队伍发展情况报告》，理清了思路。目前，一区三园”共有各类人才3308名，已初步形成了6大产业为主、产业引领人才发展的格局。今年6月在达孜县启动了全市首次全口径人才登记试点工作，对企业经营管理、专业技术、高技能和农牧区实用等6支人才队伍，以及科技、信息、教育等17个重点领域人才统一登记建立信息库，以信息化手段提高人才管理服务的针对性和实效性。今年，还首次将人才工作纳入市委对县区和市直单位工作的考核范畴，占考核总分的1 ，重点考核人才队伍建设和人才环境改善工作。', '对口援助资金投入不断加大。制定了北京市、江苏省《对口支援拉萨市人才和智力援助规划（2011-2015年）》，计划分别投入资金2700万元和6800万元开展人才智力援助工作，其中江苏省智力援助资金占援藏资金总数的4%。今年，与北京市确定了投资378万元的“社会管理创新”等11个人才培训培养项目，计划培训人才275名；与江苏省确定了投资918万元的“优秀教师培养”等41个人才培养开发项目，计划开发人才1000名。争取自治区人才资金投入。2011年，向自治区争取40万元实施了4个人才开发项目，今年，已向区党委组织部申报了1420余万元的3个人才开发项目。加大市级财政投入。设立了300万元的市级人才发展专项资金，重点开展人才引进、培养和表彰等工作。下发了《关于增加村医村兽医生活补助费标准的通知》，按每人每月100元的标准提高全市村医、村兽医等基层专业技术人员的生活补助。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>259</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>发挥首府城市首位度作用拉萨构筑区域性人才高地</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2012-08-29</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201208/1900991f19c04ec18e810d00fcb3cd9a.shtml</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['近年来，拉萨市委、市政府紧紧抓住国家和自治区召开人才工作会议，发布中长期人才规划纲要的有利契机，认真贯彻落实陈全国书记“爱才、重才、育才、引才、留才、用才，为西藏跨越式发展和长治久安提供强大的智力支撑”的重要指示精神，积极构筑区域人才竞争优势，大力推进人才工作创新发展。', '一是“爱才”，确立人才兴市战略。拉萨作为西藏自治区的首府城市，战略地位十分重要，区位优势比较明显。结合特殊市情，拉萨市深刻认识人才的全局性、战略性、关键性、基础性和重要性作用，始终把“人才兴市”作为建设坚持以人为本、推进科学发展、实现长治久安的战略选择，对人才始终做到政治上关怀、工作上支持、生活上关心、管理上严格，用其所长、不求全责备，最大限度地调动人才的积极性。', '二是“重才”，坚持人才优先发展。坚持规划先行，积极构建覆盖市、县（区）两级的人才工作体系。去年4月，市委、市政府召开了全市人才工作会议，发布了全市首个中长期人才发展规划纲要，启动实施“平安拉萨”等十大人才工程；落实投入保证，确立了人才智力援助资金、市人才开发资金和社会化资金投入3大人才投入保障体系。“十二五”期间，北京市、江苏省将从援藏资金中各拿出10%、共计3亿余元，用于人才智力援助工作。今年，两省市已经实施1300万元的52个人才开发项目。市财政每年预算安排不低于300万元的市级人才开发经费，并将有关人才经费配套列入项目预算资金总盘子；抓好制度创新，制订出台了《拉萨市引进人才优惠政策实施细则》，从10个方面明确了30余项优惠政策，对引进人才提供20万元资助费和8万元安家费。出台了《“拉萨英才”评选管理办法》和《拉萨市享受政府特殊津贴专家评选管理办法》，对入选人才一次性最低奖励4万元。出台了《拉萨市关于鼓励和支持高校毕业生自主创新的实施意见》，扶持高校毕业生自主创业。同时，开设“拉萨人才网”，开发人才登记管理软件，建立全口径人才信息库，将人才工作纳入县（区）和市直单位年度考核，基本形成了人才优先发展的战略布局。', '三是“育才”，提升人才队伍素质。在统筹推进各类人才队伍建设的基础上，结合拉萨实际，着力抓好以下6支人才队伍建设：出台《关于进一步加强干部队伍建设的决定》，着力加强党政干部队伍建设；实施“平安拉萨”人才培养工程，成立便民警务站191个，充实政法干部2000余名，着力加强政法干部队伍建设；成立寺庙管委会74个，向寺管会配备县科级干部398人，着力加强民宗统战干部队伍建设；实施首府城市建设人才培养工程，培训各类经济建设管理人才7000人次，选派1300余名干部赴北京、江苏等内地考察学习，着力加强经济建设管理人才队伍建设；实施“115”教师人才、城关区教师人才“十百千”行动等计划，着力加强科教文卫人才队伍建设；实施“小康拉萨”社会主义新农村建设人才振兴工程，加快推进农牧民“能人技能”、“人人技能工程”等农牧民实用人才开发项目，全面提升以业育人、以业安人、以业管人、以业富人水平，着力加强农牧区实用人才队伍建设。', '四是“引才”，拓宽人才引进渠道。坚持以用为本、培引并举原则，在切实用好现有人才、稳住关键人才的同时，根据事业发展需要，引进急需紧缺人才。2002年以来，先后从内地高校引进城市规划、播音主持等急需紧缺专业人才639名，构建立足拉萨、面向全区的人才市场。上半年，成功举办人才招聘会6场次，1600余名各类人才与用人单位达成就业意向。特别是在党中央、国务院的亲切关怀下，北京市、江苏省先后为拉萨市选派6批617名干部和专业人才，搭建了培养培训、交流合作、产业振兴、基础建设、表彰奖励、就业创业等六大人才智力援助平台。', '五是“留才”，打造人才集聚高地。着眼于提升城市的竞争力，抢占未来人才发展制高点，先后成功创建“全国文明城市”、“百姓幸福感最强城市”、“国际最佳魅力旅游名城”和自治区园林城市、卫生城市，首府城市影响力和吸引力快速提升。通过优惠的政策、优良的环境、优质的服务，国家级拉萨经济技术开发区和曲水工业园、达孜工业园、堆龙工业园、次角林旅游文化创意园“一区四园”集聚各类人才4000余人，覆盖生物、能源、旅游文化等全市六大特色优势产业，初步形成了园区集聚产业人才、人才推动产业发展的格局。为把拉萨打造成为高端人才集聚地。今年6月，承办召开了“西部地区首府城市人才工作研讨会暨西南人才联盟中心主任会议”。7月，成功组织300多名全国知名企业家进藏举办了全国民营企业家拉萨行活动，其中世界500强企业2家、全国500强企业39家，实现了签约项目总投资322.17亿元、开工项目总投资130亿元、意向签约项目183.3亿元“三个过百亿”的目标，必将形成带来一批各类高端人才、引进一批先进管理经验、带动一批当地本土人才的人才发展“倍生效应”，促进拉萨与祖国的大融合，推动拉萨人才工作大发展。', '六是“用才”，实现人才以用为本。科学发展以人为本，人才发展以用为本。拉萨市坚持把用好用活人才作为发现人才、培养人才、引进人才的根本，在全市范围开展百名优秀中青年干部民主推荐、跟踪培养和优化配置工作，给德才兼备的人压担子，给敢闯实干的人搭台子，给群众公认的人铺路子，为把各类人才沉到基层一线、用在关键岗位、实现有为有位。去年以来，公开选调100名党政人才，交流600多名教师，并正在面向全区组织选调1100人。依托大型史诗剧《文成公主》项目，选调99名文化人才进行重点培养。适应拉萨被列为全国加强和创新社会管理试点城市工作需要，从市直机关和各县选派102名优秀年轻干部到城关区街道交流工作。', '总之，通过不懈努力，拉萨市人才总量稳步增长，人才结构逐步优化，人才素质不断提升，人才集聚效应逐步显现。但拉萨人才工作还存在一些不足和亟待解决的问题：如人才工作基础薄弱，人才总量、结构、分布还不能完全适应经济社会发展需求；人才工作载体还不够丰富、政策还不够健全、特色还不够明显；投入不足，引进人才难度大；不断优化创新创业环境，加快高端人才队伍建设，助推产业结构优化升级的任务依然繁重等等。', '在下一步工作中，拉萨市将认真贯彻落实中央关于人才工作的一系列决策部署，不断提升人才工作水平，努力开创人才工作新局面，以优异成绩迎接党的十八大胜利召开。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>259</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>达瓦欧珠赴林周县调研创先争优强基惠民活动开展情况</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2012-07-06</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/ldhd/201207/c575ee6e0aaf40ce997825240bb76b19.shtml</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['3日，市委常委、市纪委书记、市创先争优强基惠民活动领导小组常务副组长达娃欧珠在林周县纪委、县创先争优强基惠民活动领导小组负责人的陪同下专程到林周县甘曲村、春堆村调研创先争优强基惠民活动开展情况，并到林周县职教中心了解县农牧民技能培训工作开展情况。', '在甘曲村，达娃欧珠听取了自治区派驻的市委政法委驻甘曲村工作队队长的工作进展情况汇报，看望慰问了驻村工作队员；在春堆村听取了自治区派驻的市人大办公厅驻春堆村工作队队长的工作进展情况汇报，实地查看了该村已经实施的两个惠民项目，详细询问了驻村工作队员生活工作情况，并看望慰问了驻村工作队员。在听取汇报后，达娃欧珠对两个驻村工作队结合村组实际开展的一系列活动并取得的成效，给予了充分的肯定。', '一是要突出抓好基层维稳工作。当前，党的十八大召开在即，驻村工作的“五项任务”要整体推进，不可偏废，特别是维稳工作丝毫都不能放松，工作队要在巩固已取得的成效基础上，进一步落实中央和区、市党委政府关于确保基层社会和谐稳定各项工作措施，切实抓好重点人员的管控。二是要深化感恩主题教育活动。继续深化“八看”、一算账”、一揭批”、四增强”感党恩主题教育活动，进一步充实教育活动内容，想方设法开展一些群众喜闻乐见的活动，通过创新教育载体、拓展活动空间、丰富宣传内容等措施，切实增强基层干部群众的爱党意识、国家意识、民族团结意识和法治意识。三是要深入抓好农牧民培训工程。认真落实市委关于进一步加强农牧民技能技术培训和劳动力转移工作的各项决策部署，突出实用技术培训、转移就业培训、创业培训等工作重点，把所在村组需要进行培训的农牧区需求情况摸清摸实，在市培训办统筹安排下开展好各项工作，真正实现以业育人、以业安人、以业管人、以业富人。四是要探索加强和创新社会管理模式。要积极借鉴城关区网格化管理服务模式的有效经验，组织人员到城关区进行考察学习，结合本村实际情况进行积极探索。', '另外，各工作队开展建强基层组织工作中，要扎实做好发展党员工作，边发展、边教育、边提高，确保市委提出的达到5 的覆盖面工作目标如期实现，基层党建工作要突出抓好思想政治建设、组织建设、作风建设、制度建设、队伍建设和党风廉政建设，多开展一些符合基层生产生活实际的组织生活，不断提高基层党组织的凝聚力和战斗力。落实项目中，各工作队要做好项目的论证评估和可行性分析，确保实施项目给农牧民群众带来实惠。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>259</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>我市名基层专业技术人员赴内地考察学习民生项目启动首批名基层教师将赴江苏考察学习陈宗荣出席启动暨欢送仪式</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2012-06-28</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201206/7f718c206ab14e5891522cd46217143f.shtml</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['我市500名基层专业技术人员赴内地考察学习民生项目启动首批45名基层教师将赴江苏考察学习陈宗荣出席启动暨欢送仪式_拉萨要闻_拉萨市人民政府', '我市500名基层专业技术人员赴内地考察学习民生项目启动首批45名基层教师将赴江苏考察学习陈宗荣出席启动暨欢送仪式', '为扎实推进民生项目建设，不断提升基层专业技术人员整体业务素质，昨日下午，我市500名基层专业技术人员赴内地考察学习民生项目正式启动，首批45名基层教师将赴江苏考察学习，市委常委、副市长陈宗荣出席了启动暨欢送仪式并讲话。', '陈宗荣在讲话中指出，历年来，市委、市政府高度重视人才工作，始终坚持人才优先战略，做到人才资源优先开发、人才结构优先调整、人才投资优先保证、人才制度优先创新，把人才强市作为全市经济社会发展的一项基本战略，人才工作取得了明显成效。目前，全市人才资源总量4万余人，占全市总人口的9%，人才总量稳步增长，人才结构逐步优化，人才素质不断提升。但当前我市人才发展总体水平与经济社会发展需要还存在较大差距，面对新时期新任务新要求，我们必须进一步增强责任感和使命感，主动适应拉萨科学发展、跨越式发展和长治久安的需要，坚定不移地走人才强市之路，努力推动人才队伍素质大幅提高，人才队伍结构进一步优化。当前和今后几年，我市专业技术人才队伍要以提高专业水平和创新能力为核心，以高层次人才和紧缺人才为重点，加快专业技术人才知识更新，全力建设一支政治坚定、业务优良、结构合理的专业技术人才队伍。他希望此次首批赴江苏考察学习的45名基层教师要以各种培训为契机，刻苦学习，不断提高业务水平，早日学成归来，为我市教育事业又好又快发展贡献自己的聪明才智。', '据了解，此次中小学教育系统赴内地考察学习培训班，是500名基层专业技术人员赴内地考察学习民生项目的首个培训班，这标志着500名基层专业技术人员赴内地考察学习民生项目正式启动。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>259</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>江苏拉萨对口支援工作座谈会召开</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2012-05-04</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/yzdt/201205/0fd8e4abddb14b55b6bae13e6a38cf07.shtml</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['在江苏人民奋力开启基本实现现代化新征程之际，以市委副书记、市长多吉次珠为团长的拉萨市党政代表团一行带着拉萨市委、市政府和拉萨56万各族人民的重托，怀着诚挚的感恩之心和感激之情，于5月3日抵达江苏南京，并参加当天下午在钟山宾馆会议中心举行的“江苏·拉萨”对口支援工作座谈会。', '江苏省副省长史和平、市委副书记、市长、拉萨市党政代表团团长多吉次珠分别在座谈会上发表了重要讲话。', '江苏省政府副秘书长周游、省政府办公厅副主任谢润盛及江苏省发改委、省委组织部、省经济和信息化委、省教育厅、省财政厅、省人力资源社会保障厅、省住房城乡建设厅、省卫生厅、南京农业大学等有关部门的负责人参加了座谈会。', '区党委组织部副部长何新红，拉萨市委常务副书记焦建俊，拉萨市委副书记、市委组织部部长王茂雄，拉萨市委常委、曲水县委书记周广智，拉萨市副市长王常生，拉萨市副市长王晖，拉萨经济技术开发区管委会主任黄羽天，拉萨市政府秘书长琼达出席了座谈会。', '江苏省副省长史和平向拉萨市党政代表团一行简要介绍了江苏经济社会发展和援藏工作的情况及下一步工作打算。史和平说，今年是新一轮对口援藏工作的关键之年、攻坚之年。江苏将按照省委提出的“科学援建、真情援建、持续援建”的方针要求，努力推进江苏对口支援工作继续走在全国前列，切实做到让党中央放心，让受援地群众满意。', '史和平说，去年江苏省专门成立了项目组，具体负责援建项目的实施。为进一步加大援建项目的建设管理力度，今年初省委、省政府决定，参照援疆模式，成立对口援藏前方指挥部，由援藏干部总领队兼任总指挥，副总领队兼任副总指挥。下一步，我们还将制订出台援藏项目资金管理办法，并将要求各市也相应健全组织和制度管理体系，用好援建资金、建好援建项目。进一步加强干部援藏工作，省委、省政府将大力支持援藏干部工作，做好他们的后盾。进一步抓好援建项目建设，2012年，我省计划安排对口援藏项目资金3.38亿元，援建项目26个，目前正在抓紧进行开工前的准备工作。我们将继续坚持以保障和改善民生为出发点，坚持援藏资金、项目向农牧民和基层倾斜，切实解决各族群众最直接、最现实、最迫切的问题。对项目的组织实施，我们将做好充分的可行性研究，在项目论证上多下功夫，在总体设计上不留遗憾，在具体施工上不留后遗症，努力把援建项目建成拉萨市的精品工程。在完善各项前期工作的基础上尽快组织实施，切实加强项目资金管理，确保工程质量。进一步加大两地企业的交流与合作，将按照“政府推动、市场运作、优势互补、合作共赢”的原则和思路，积极鼓励更多有实力的江苏企业到拉萨开发特色资源，发展医药、高原生物及绿色食品、轻纺、旅游等特色产业，加强双方在农业、科技、环保等领域的合作，为拉萨培育新的经济增长点。同时继续推进达孜、曲水县工业园区建设，不断提高园区产业水平和效益。进一步深化人才智力援助，全面实施《江苏省对口支援拉萨市人才和智力援助规划（2011—2015）》，抓好人才培养、交流合作、产业发展、培训载体、人才激励、创业服务六大人才智力援助平台建设，增强拉萨经济社会发展后劲。', '在座谈会上，多吉次珠首先代表自治区党委常委、市委书记齐扎拉同志，代表拉萨市委、市政府和全市各族人民，向史和平副省长和在座的各位领导，表达最衷心的感谢和最崇高的敬意。多吉次珠说，拉萨市党政代表团又一次来到美丽富庶的江苏，刚到江苏，我们就深切感受到了江苏省委、省政府对援藏工作的高度重视，感受到了江苏人民的热情好客，感受到了江苏省在推进“两个率先”进程中取得的辉煌成就和展现的无穷魅力，感受到了“创业创新创优、争先领先率先”的江苏精神所焕发出的强大活力和夺目光彩。在此，向江苏人民取得的巨大建设成就表示热烈的祝贺。', '多吉次珠说，我们此次组团到江苏，一是看望拜访多年来一直关心、支持、帮助拉萨各项事业发展的江苏省委、省政府领导和江苏人民，探望和感谢历届援藏干部及家属，进一步加深两地人民的深情厚谊；二是向各位领导汇报近年来特别是中央第五次西藏工作座谈会以来对口支援工作在拉萨的开展情况及一些想法，进一步衔接对口支援项目，进一步深化双方的交流合作，促进江苏拉萨共同繁荣发展；三是考察学习江苏在现代化建设进程中取得的辉煌成就和先进经验，进一步指导我们奋力推动拉萨的跨越式发展和长治久安。', '多吉次珠说，拉萨发展的每一步，都离不开江苏省委、省政府和江苏人民在人力、物力、财力、智力等方面的无私支援和巨大帮助。“十二五”时期，是拉萨提升一产、壮大二产、做强三产，充分发挥首府城市首位度作用的攻坚突破期，是拉萨大建设、大发展、大跨越的加速推进期，也是大力实施环境立市、文化兴市、产业强市、民生安市、法治稳市“五大战略”，开创跨越式发展和长治久安新局面的重要战略机遇期，我们不仅存在着人民群众日益增长的物质文化需要同落后的社会生产力之间的主要矛盾，还存在着各族人民同以达赖集团为代表的分裂势力之间的特殊矛盾，也面临着难得的政治、历史、政策发展机遇，只要我们善于借外力、用内力、重合力，我们就完全有条件、有基础、有信心推动拉萨经济社会在新的起点上实现更高水平、更优质量的发展。多吉次珠结合江苏优势和拉萨实际，就如何进一步做好下一步的对口支援工作，提出如下建议：江苏作为经济强省，最大的优势就是培育集中了一大批知名的大企业和强企业，而拉萨最紧缺的也是这些大企业和强企业。拉萨区位条件优越、资源丰富，经济开发区正日趋成熟，政府出台了一系列促进民营经济发展的“五放”（放心、放开、放宽、放胆、放手以及“低门槛、零注册、轻税赋、强支撑、少检查、重激励”）政策和措施，加上青藏铁路通车、国际口岸畅通，这是江苏企业进行产业调整、异地生产、面向南亚等国际市场扩大贸易的一个重要选择。我们希望在江苏省委、省政府的帮助或引荐下，能够从江苏每年吸引3家左右的大型优质企业进驻拉萨，实现互利共赢。', '当前，江苏正加快经济转型升级和实施创新驱动战略步伐，拉萨要想做大做强旅游文化、优势矿产等六类重点产业，只有有效借助江苏经济强省跨越发展的大好机遇，才能起到事半功倍的效果。建议两地在加强文化产业聚集区建设，推进文化与科技、旅游、金融深度融合，培育大型文化企业和吸引战略投资者等方面，能够有实质性和代表性的合作。同时，希望能够继续加大推进以拉萨六大类产业项目为核心的转移，加快共建工业开发园区步伐。', '结合拉萨目前人才数量少、人才结构不合理、适用人才和高层次人才缺乏的现状，建议充分发挥江苏省人才高地优势，继续为拉萨市选派急需的懂技术、懂经济、会管理的企业高层次人才。', '如：目前急需从扬州农科院选派1-3名技术干部到我市指导青稞育种工作。继续加大对拉萨干部和技术人员的培训力度，通过挂职锻炼和定向培训等方式，不断提高我市干部及人才队伍的素质和能力。同时，希望帮助我市在“十二五”期间建成职业技术学院，并把拉萨市师范高等专科学校建成符合国家标准的本科院校；在拉萨市规划的“教育城”中建设一所全日制江苏学校（计划投资1.3亿元），并选派教师和管理人员；由对口援助市分别指定1所中学，与受援县中学建立一对一帮扶机制。希望能进一步落实好就业援藏政策，建议每年帮助拉萨市落实100名高校毕业生到江苏就业。', '目前，拉萨初步实现了“东延西扩南跨”的城市发展布局、“一城两岸三区”的城市发展框架，特别是东城新区在江苏省的重点帮扶下，正加快形成以市级行政办公、文化、会展、教育、现代金融服务等功能为主的核心区，东城新区是江苏省近年来重点支持建设的城市新区，为了将新区早日建成具有现代城市水平的区域，恳请江苏能够增加一个市对口支援拉萨东城新区的经济社会发展。', '多吉次珠说，援藏干部在藏工作期间克服家庭和工作生活中的重重困难，经受住了考验。实践证明，经过艰苦复杂环境磨炼和考验的干部，人生阅历得到了丰富，理想信念得到了升华，党性修养得到了锤炼，综合素质得到了很大提升，希望江苏省委、省政府进一步在政治上给予援藏干部更多的关心和厚爱。今年7月，拉萨市委常务副书记焦建俊、副市长王常生和王晖、市人民医院院长王人颢等江苏援藏干部将圆满完成援藏任务返回江苏。鉴于他们在援藏期间的优异表现，建议在个人进步和岗位安排上给予关照和倾斜，以更广泛、更充分地调动广大江苏干部投身援藏事业的积极性和主动性。', '座谈会上，江苏省与拉萨市共同签署了“十二五”时期对口支援与合作框架协议。与南京农业大学签署了《关于推进现代农业科技发展的战略合作协议》。', '拉萨市政府办公厅、市发改委、市财政局、柳梧新区管委会、市教育（体育）局、市工信局、墨竹工卡县、达孜县、林周县、达孜工业园区的有关负责人参加了座谈会。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>259</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>驻墨竹工卡县塔巴村工作队三力齐发建强组织</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2012-03-31</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201203/3de113aacd76491b9584aee23e486e34.shtml</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['自治区创先争优强基惠民活动驻墨竹工卡县塔巴村工作队（自治区党委组织部派驻）注重发挥组工干部优势，以“强组织、增活力，迎十八大”为主题，找准发力点，逐步把村党支部建设成为促发展、保稳定、带民富、得信任、受欢迎的坚强堡垒。', '在村组干部和党员队伍建设上发力。举群走路靠头羊，大雁南飞看头雁。为此，工作队坚持帮助选齐配强村组干部、提高村组干部能力素质两手齐抓，开展“新班子、新形象、新作为”活动，努力打造素质优良的村组干部队伍。一是培养“双带”“双强”党员和干部。针对村党支部副书记职位空缺的情况，建议工卡镇党委将1名高中文化、工作责任心强、藏汉双语好的村委员补选为村党支部副书记。以换届为契机，积极帮助指导村党支部制定科学严谨的选举方案，建议村党支部始终把政治标准放在首位，既注重发现和培养具有带头致富能力和带领群众致富能力的“双带型”党员，更注重培养选拔政策素质强、发展能力强的“双强型”干部。换届后的12名小组干部中，有党员11名，入党积极分子1名，致富带头人4人。二是积极培养后备干部。建立村级后备干部库，培养5名村级后备干部。制定《塔巴村农牧民党员发展和培养计划（2012-2014年）》，引导村党支部将党员发展向回乡初高中、大中专毕业生倾斜，向退役士兵倾斜，向致富能手倾斜，向青年农牧民倾斜，拟3年发展农牧民党员30名以上。三是极力帮助提高村干部工作能力。在村组干部中推行同学习，同宣讲，同调研，同维稳，同活动“五同”工作法， 提高其工作能力和在群众中的威信。村组干部与驻村干部一道学习23次，调研宣讲15次，参与“感党恩、唱红歌、树新风”主题教育、“一季一场爱国电影”夜映等各类活动8次，走访群众264户2000余人次。在维护稳定工作中，村组干部与工作队一道坚持24小时值班巡逻制度，每天至少安排2名村组干部值班，带领护村队扎实做好318国道沿线、塔巴寺等重点部位的社会面管控。以“1对1”、“多对一”的方式与村“两委”干部结成藏汉双语互学对子12对，开展藏汉双语互学，使村组干部掌握初步的汉语交流，驻村干部掌握基本的藏语口语。四是加强阵地建设。在加强村组干部和党员队伍建设的同时，工作队还突出加强阵地建设，为村“两委”解决7000元党员活动办公和维稳经费，为扎西朗杰组购买1万余元的办公桌椅、卡垫等。', '在规范村级组织运行机制上发力。驻村工作队采取多种措施，强化村党支部领导核心地位，规范村级组织运行机制，形成“按制度议事、靠制度理事”的良好格局。一是完善“六步三公开”议事决策制度。村“两委”在决策和实施本村产业发展、基础设施建设、重大项目及公益事业发展等重大问题时，必须按照党员搜集民意、“两委”形成共识、村民会议决定、支部领导统筹、村委组织实施、群众评议监督六个步骤和公开申办事项、公开决定内容、公开实施结果三项程序进行，规范村“两委”议事程序。二是实行村干部任期目标责任制。工作队帮助村干部制定三年的任期目标，召开由全体党员、村民代表参加的民主表决大会，投票表决通过。制定村干部《任期目标责任书》和《年度目标责任书》12份，向广大群众公示，接受群众对任期目标和年度目标落实情况的监督，并建议镇党委对照任期目标和年度目标，进行严格考核，确保各项工作落到实处。三是建立村组干部服务联系群众制度。全面推行“村级事务一站通”、“代办式”等服务，把面向群众的基层党建、财政补贴、社会管理、农业和司法服务等公益性服务纳入代理范围。将每周三定为村干部集中办公日，非集中办公日实行轮流坐班制。引导村组干部分别向镇党委和本村党员群众进行双向承诺。目前，村组干部开展双向承诺36个，6名村“两委”班子干部分别包4个村民小组，与群众结成帮带对子19对。', '在推广基层组织建设典型上发力。注重推广和重点落实好“一定三有”、“四议两公开”和“文明工作法”等；推广近年来西藏在基层组织建设中探索并开展的“三个培养”、“定查评改”四步工作法等典型经验，明确8名“三个培养”对象。拟于近期选派45名村组干部、党员和农牧民群众到区内外考察学习，切实把12名村组干部、20名农牧民党员、13名有致富愿望并有发展潜力的农牧民群众培养成致富带头人，使今年新一届村组干部培训率达70%以上，在2014年前，村组干部培训率达100%。在推广区内外典型经验的同时，工作队也注重探索并推行一些加强基层组织的好做法。如，在村组后备干部队伍建设上探索并实施 “五三一”后备干部推荐培养程序，即村组后备干部的推荐由村“两委”推荐、小组推荐、党员推荐、群众举荐、个人自荐五种形式确定人选，通过镇党委集中培养、驻村工作队重点培养和村级党支部跟踪培养加强后备干部培养，明确村组1-2名干部结对帮带1名后备干部。', '通过强组织、夯基础、筑堡垒，工作队找到了推动塔巴村发展稳定的突破口，逐步建强了村“两委”班子。过去，一些农牧民群众认为 “一个党支部，不如一个富裕户”；如今，农牧民群众有困难找党支部，要致富靠支部，村党支部逐步成为了塔巴村发展稳定的“主心骨”。过去，一些农牧民群众认为 “各种各的田，各赚各的钱，党员不党员，只差两毛钱（交党费）”。如今，由于农牧民党员致富上有甜头、政治上有奔头，农牧民群众积极向党组织靠拢，有9名农牧民向村党支部递交了入党申请书，10余名农牧民向党支部表达了入党意愿。由于党组织和党员尤其是村组干部作用发挥明显，农牧民群众都说：“拜佛拜不来牛羊，磕头磕不来酥油糌粑，只有坚定跟着共产党走，生活才能一天比一天好！”', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>259</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>市发改委等部门赴曲水县考察公路沿线农牧民安居工程建设等工作</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2012-05-22</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201205/0cc873b62aab45ceac106c941bb0077d.shtml</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['市发改委等部门赴曲水县考察公路沿线农牧民安居工程建设等工作_拉萨要闻_拉萨市人民政府', '近日，由市发改委、市旅游局、市政府督查室牵头组织我市七县一区的发改委主任、旅游局局长、安居办主任等相关部门负责人赴曲水县才纳乡、江村等地实地考察学习该县公路沿线农牧民安居工程建设及周边环境综合整治工作情况，并进行座谈交流。', '在才纳乡及江村，考察组一行详细了解了该乡和村在农牧民安居工程建设和整治村容村貌上积累的好的经验和做法，并走入农户家，实地参观了庭院经济的建设。', '在随后的交流会上，各县（区）的主要领导纷纷表态，一定要把曲水好的经验和做法推广到本县农牧民安居工程和村容村貌整治工作中。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>259</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>努力搭建综合性服务平台</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2012-06-20</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/lsyw/201206/f88bae047fee49a7b863b8087a82b4b6.shtml</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['拉萨市市民服务中心按照拉萨市委、市政府“高质量组建、高效率推进、高标准建设”的工作要求，立足提高效率，提高质量，创新工作措施，狠抓内部管理，注重工作落实，优化了拉萨市政务服务工作软环境的发展。要真正做到阳光运行、规范管理，笔者认为，重在全面健全机制，大力搭建综合性服务平台。', '进一步加强内部管理，全面提升服务质量。要始终将树立机关和服务大厅全体工作人员勤奋好学、团结向上、服务至上的良好风气作为工作重点，从领导班子做起，高标准、严要求，不断推进市民服务中心管理上水平，服务上质量。加强学习型机关建设，从市民服务中心党组理论中心组学习抓起，进一步健全党总支和党支部学习制度，制定详实的学习计划并认真实施。加强监督和管理，继续在建立长效机制上下功夫，拓宽行政监督投诉渠道平台的搭建，完善投诉专线、信箱投诉平台建设。在此基础上，进一步总结经验，规范原有的管理制度并严格落实，加强日常服务监督，强化管理考核，落实领导责任、部门责任、岗位责任，完善激励机制，力求审批提速，服务提质，加大力度，做好窗口与市直相关部门的协调和服务工作。', '进一步加强培训工作，锻炼过硬队伍。按照市民服务中心制订的《培训方案》，着力提升市民服务中心规范化水平和全体工作人员的服务意识，采取“请进来、走出去”等多种形式开展教育和培训工作，提高全体工作人员的服务水平和服务能力。力争邀请相关专家和经验丰富的内地政务中心的领导开展讲座，组织重要入驻单位和窗口工作人员向内地政务工作典型地区考察学习和上岗培训，为市民服务中心更加规范运作奠定基础。', '进一步拓展服务领域。要在认真研究论证第二批入驻单位和项目的基础上，争取能够全部进驻市民服务中心。按照拉萨市委的要求，认真做好拉萨市公共资源交易和拉萨市各级政务服务平台搭建方面的调查研究工作，从实际出发，探索性地向社会公共服务领域拓展。进一步摸清和掌握全区行政许可和非行政许可审批项目的底数，做到对自治区与拉萨市，拉萨市与各县（区）行政审批项目管理范围和管理权限底数清、情况明。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>259</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>拉萨市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>拉萨市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>拉萨市党政代表团一行在河北承德市考察旅游文化产业发展情况</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2012-05-02</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.lasa.gov.cn/lasa/ldhd/201205/c5c1f5ff163f4937ad524982f0655e43.shtml</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['拉萨市党政代表团一行在河北承德市考察旅游文化产业发展情况_领导活动_拉萨市人民政府', '承德市委书记郑雪碧在承德京城大酒店亲切会见了以拉萨市委副书记、市长多吉次珠为团长的拉萨市党政代表团一行。 达娃 摄', '以市委副书记、市长多吉次珠为团长的拉萨市党政代表团一行在圆满结束了对北京的考察学习后，4月29日，前往河北承德市就旅游文化产业发展情况进行了实地考察学习，并观看了大型实景演出《鼎盛王朝·康熙大典》。', '拉萨市党政代表团一行抵达承德市后受到了承德市委、市政府的热烈欢迎。当天上午，承德市委书记郑雪碧在承德京城大酒店亲切会见了以拉萨市委副书记、市长多吉次珠为团长的党政代表团一行。', '郑雪碧代表承德市委、市政府和承德370万人民对多吉次珠市长一行来承德考察表示热烈欢迎。他说，承德和拉萨都有布达拉宫，虽然远隔万里，但很多文化相似、相近。同时，河北和西藏有着不解之缘，承德和拉萨也有着深厚的渊源，这不仅使两市感情有更多积淀，而且更对加深双方友好往来、加强合作联系起到重要的促进作用。', '郑雪碧向多吉次珠等简要介绍了承德经济社会发展，特别是文化旅游服务业发展情况。他说，承德有着丰富的文化资源，避暑山庄是世界现存最大的皇家园林，外八庙是规模最大的皇家寺庙群，避暑山庄及外八庙是民族团结和融合的象征，一直鼓舞和激励着我们为祖国的繁荣富强作出应有的贡献。当前，我们正在深入挖掘利用历史文化资源，把文化旅游服务业作为第一主导产业来打造，实施重大项目带动战略，打造产业集群，让历史文化“活”起来，让文化软实力“硬”起来。《鼎盛王朝·康熙大典》大型实景演出是我们推进文化旅游服务业发展的重点工程，通过文艺演出的形式，展现了康熙时期的盛景，对宣传祖国统一大业、宣传承德起到了非常重要的作用。郑雪碧希望拉萨党政代表团一行在承德多走一走，多看一看，多了解承德，并对承德经济社会的发展多提宝贵意见。同时，进一步加强两市经济、社会、文化等方面的合作，实现共同发展。', '欢迎晚宴上，承德市委副书记、市长赵风楼在致辞中首先向拉萨市党政代表团一行表示热烈的欢迎，他说，拉萨和承德文化根脉相通，历史源远流长。此次拉萨党政代表团来承德考察，必将为增进彼此友谊、扩大交流合作起到积极促进作用，必将为推动两市文化旅游大发展、大繁荣产生重要而深远的影响。', '多吉次珠说，来到美丽的承德，考察了伟大的世界文化遗产避暑山庄，使我们一行受到了深刻的民族团结和祖国统一教育。', '承德和拉萨一直有着广泛的交流，希望我们两市在原有交往的基础上，建立更深的友谊，开展更长远的合作，共促两地经济社会又好又快发展。', '晚宴后，在市委书记郑雪碧等市领导的陪同下，拉萨市党政代表团一行观看了大型实景演出《鼎盛王朝·康熙大典》。', '4月30日，多吉次珠一行来到普宁寺景区进行了考察，随后举行了承德·拉萨文化产业工作交流座谈会。', '座谈会上，承德市委副书记、市长赵风楼致辞。他说，此次多吉次珠市长一行莅临承德市考察，这是两市加快培育文化旅游服务业的一项重要行动，对于促进双方在文化领域的交流合作，增进藏汉之间的传统友谊，扩大两市的知名度和影响力，都具有十分重要的意义。他说，一直以来，作为藏民族和藏文化的中心城市，拉萨以其独特魅力的高原风光、古老悠久的藏族文化、优质良好的生态环境吸引着世界各地的旅行者、朝圣者和寻梦者。通过此次拉萨市党政代表团到承德考察，我们更加深刻地感受到，改革开放以来特别是国家实施西部大开发战略以来，拉萨市委、市政府坚持以科学发展观为统领，团结和带领各族干部群众，艰苦创业、拼搏进取，在经济社会发展、生态环境建设特别是文化产业培育上取得了显着成就，在维护社会和谐稳定大局上作出了重要贡献，令人深受感动、备受鼓舞。', '赵风楼说，承德、拉萨两市虽然远隔千山万水，但同是藏传佛教圣地，同是国家首批公布的24座历史文化名城，同样有着独特的生态环境和悠久的历史文化，合作潜力巨大，发展商机无限。近年来，承德的经济发展已驶入快车道，迎来文化繁荣发展的春天，推进国际旅游城市建设步伐正在加快。我们将以此次交流座谈会为契机，充分学习借鉴拉萨市在文化产业发展方面的经验和做法，进一步挖掘展示历史文化内涵，创新文化产业发展思路，促进文化旅游服务业的大发展、快发展。同时，希望拉萨和承德两市进一步加强文化旅游链接，扩大交流合作领域，拓宽交流合作渠道，实现两地携手并进，优势互补，共谋发展。', '多吉次珠向承德市领导简要介绍了拉萨的基本情况及此次到承德的主要任务。他说，通过实地考察旅游景点景区和观看大型实景演出《鼎盛王朝·康熙大典》，感到收获颇多，不虚此行。拉萨市也正在筹建大型实景演出，希望承德市的领导多对拉萨市给予更多的指导。', '承德市副市长贾玉英介绍了承德市基本情况、大型实景演出及文化产业发展情况。她说，依托文化、生态、资源、区位等诸多优势，承德市围绕国际旅游城市建设总体战略目标，确定了优先发展文化旅游服务、先进装备制造、新能源、钒钛新材料和食品药品加工五大主导产业，积极培育高新技术产业和现代物流业两大战略性新兴产业的主导产业布局。其中文化旅游服务业作为承德市第一主导产业得到了优先发展和重点培育，已逐渐成为承德市调整经济结构、转变发展方式的重要举措和提升城市软实力、保障和改善民生的重要内容。特别是对于文化产业的发展，近年来，承德在保护、传承、挖掘、转型方面做了大量工作，取得了阶段性的成效，有效地促进了文化产业的优化升级。', '贾玉英说，在承德市委、市政府的高度重视和全力支持下，作为承德文化产业转型升级的领军产品，大型实景演出《鼎盛王朝·康熙大典》和大型原创多媒体风情歌舞诗《帝苑梦华》自2011年先后公演以来，上座率达到70 以上。为承德文化繁荣和 旅游产业大发展注入了生机和活力，实现了良好的社会效益和经济效益。大型实景演出《鼎盛王朝·康熙大典》以承德独特的自然元素和人文元素为创作基础，以承德十大名山之一的元宝山最具特点的9000平方米山地区域为演出剧场，运用高科技声、光、电舞台技术，由近1000名演职人员及200匹进口战马共同出演，全面表现了康熙大帝辉煌的一生，鲜活展示了清王朝最鼎盛时期的历史风貌。鼎盛王朝·康熙大典》由承德京城企业集团出资，鼎盛文化产业投资有限公司出品，总投资2亿元，是河北省“十二五”文化振兴规划的重大文化产业园的核心项目，是目前国内实景演出投资最大、演员阵容最大的首部以皇家文化为主题的大型实景演出，公演以来成为中国最受欢迎的实景演出之一，荣获2011中国旅游产业节“优秀主题创意奖”，被评为“中国最具国际影响力的十大旅游演出”之一。', '出席会见、晚宴及座谈会的承德市领导有：市委书记郑雪碧，市委副书记、市长赵风楼，市委常委、宣传部长赵险峰，市委常委、副市长苏爱国，市委常委、市委秘书长韩福才，副市长贾玉英，市政府秘书长紫山等相关部门的领导。', '拉萨市领导有：市委副书记、市长多吉次珠，市委副书记贾沫微，副市长马新明，拉萨国家级经济技术开发区管委会主任黄羽天，市政府秘书长琼达等，两市相关部门负责同志一同出席晚宴及座谈会。', '拉萨市政府网站依托西藏政务服务网实现了统一身份认证，您注册成功并通过身份认证后，可实现“一网通办”。', '信件内容有下列情形之一的，不予受理，此类信件办理人员有权将其设置为无效信件并退回或废弃：', '、对依法应当通过诉讼、仲裁、行政复议等法定途径解决的投诉请求，写信人应当依照有关法律、行政法规规定的程序向有关机关提出。', '、对各级人民代表大会以及县级以上各级人民代表大会常务委员会、人民法院、人民检察院职权范围内的信访事项，应当分别向有关的人民代表大会及其常务委员会、人民法院、人民检察院提出。', '、对国家机关工作人员的违法失职行为的控告或者检举事项，应当直接向同级或上级纪检监察机关提出。', '、已经受理或者正在办理的信访事项，写信人在办理期限内重复提出同一信访事项的，不予受理。', '、如果您反映和投诉的问题，涉及市政建设、居民生活、就业和再就业以及社会保障等方面，请先向问题发生地的县（区）人民政府或其主管部门反映，以便得到及时解决。', '、为了您的信件能够准确、快速的转交到具体的责任单位进行处理，请务必做到“一事一件”，避免在同一封信中反映两个或多个无关诉求，此类信件办理人员有权将其设置为无效信件，不予受理并废弃，不再进行短信回复提醒。', '、对于同一账号大量多次重复向同一单位写信反映相同问题，属不予受理范围的，办理人员有权直接对重复信件不予受理并废弃，不再进行短信回复提醒。', '建议方）、投诉或建议要求，事项应当客观真实，对其所提供材料内容的真实性负责，不得捏造、歪曲事实，诽谤、诬告陷害他人。', '、为避免重复写信造成行政管理资源的浪费，针对表述不清、恶意言语和无实质内容的信件，办理人员有权将其设置为无效信件并废弃，并保留追究恶意写信人法律责任的权利。']</t>
         </is>
